--- a/VA_result_DTX.xlsx
+++ b/VA_result_DTX.xlsx
@@ -407,12 +407,12 @@
     <t xml:space="preserve">decision</t>
   </si>
   <si>
+    <t xml:space="preserve">A corriger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acceptable</t>
   </si>
   <si>
-    <t xml:space="preserve">A corriger</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual</t>
   </si>
   <si>
@@ -458,76 +458,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65661287307739e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.24717917316593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.07927948446013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77501583099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32141414016951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.62177322153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2703083504457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.99190800311044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.3965634147171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.43641623016447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.43843090347946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.96947116265073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13982187700458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8935873825103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.426859267056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74582022894174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90531291626394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9409944622312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.405974897556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.59799414663576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048175098374486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78749859845266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.9374219309539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.5854049702175</t>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.734913461608812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.476991037023254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.659587903996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.04583533830009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.966826487099752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.151009291526861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667035197839141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35623298003338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0282690160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.519146373029798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600490339798853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369875070406124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195872846990824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.751090622623451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.223473015706986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.112128933891654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670296794967726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70624314295128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22024474106729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.529617716558278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.56787915714085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00671657919884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02576237358153</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1071981.5531803</v>
+        <v>689569</v>
       </c>
     </row>
     <row r="3">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
     </row>
     <row r="4">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1104983.05948439</v>
+        <v>726689</v>
       </c>
     </row>
     <row r="5">
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>963704.783066716</v>
+        <v>597520</v>
       </c>
     </row>
     <row r="6">
@@ -925,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>945990.280824936</v>
+        <v>622389</v>
       </c>
     </row>
     <row r="7">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>930722.715178974</v>
+        <v>686246</v>
       </c>
     </row>
     <row r="8">
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1057337.6441697</v>
+        <v>819599</v>
       </c>
     </row>
     <row r="9">
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1117902.7684626</v>
+        <v>870647</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1256432.56392952</v>
+        <v>990331</v>
       </c>
     </row>
     <row r="11">
@@ -965,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1189856.47084328</v>
+        <v>953418</v>
       </c>
     </row>
     <row r="12">
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1236989.16620272</v>
+        <v>985082</v>
       </c>
     </row>
     <row r="13">
@@ -981,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1302568.21047313</v>
+        <v>1083865</v>
       </c>
     </row>
     <row r="14">
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1237643.03956075</v>
+        <v>1118119</v>
       </c>
     </row>
     <row r="15">
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1254727.22090894</v>
+        <v>1187401</v>
       </c>
     </row>
     <row r="16">
@@ -1005,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1206495.87003594</v>
+        <v>1155632</v>
       </c>
     </row>
     <row r="17">
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1112020.85445878</v>
+        <v>929833</v>
       </c>
     </row>
     <row r="18">
@@ -1021,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1462620.59665899</v>
+        <v>1403276</v>
       </c>
     </row>
     <row r="19">
@@ -1029,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1486238.45438762</v>
+        <v>1590431</v>
       </c>
     </row>
     <row r="20">
@@ -1037,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1605684.7941305</v>
+        <v>1834812</v>
       </c>
     </row>
     <row r="21">
@@ -1045,7 +1045,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="22">
@@ -1053,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
     </row>
     <row r="23">
@@ -1061,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>2451701.34578281</v>
+        <v>2287000</v>
       </c>
     </row>
     <row r="24">
@@ -1069,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2600850.2537296</v>
+        <v>2411000</v>
       </c>
     </row>
     <row r="25">
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>3002201.81394542</v>
+        <v>2714431</v>
       </c>
     </row>
     <row r="26">
@@ -1085,7 +1085,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>3415686.04569097</v>
+        <v>2463842</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1071981.5531803</v>
+        <v>689569</v>
       </c>
       <c r="C2" t="n">
         <v>38.0727983028322</v>
@@ -2486,13 +2486,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="C3" t="n">
         <v>38.5897076142512</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35768668041552</v>
+        <v>-0.445640682803317</v>
       </c>
       <c r="E3" t="n">
         <v>1.35768668041547</v>
@@ -2506,19 +2506,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1104979.81230521</v>
+        <v>726688.265086538</v>
       </c>
       <c r="C4" t="n">
         <v>39.2448890813324</v>
       </c>
       <c r="D4" t="n">
-        <v>1.69751516622156</v>
+        <v>5.85469763648125</v>
       </c>
       <c r="E4" t="n">
         <v>1.69781402240843</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2526,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>963700.703787231</v>
+        <v>597519.523008963</v>
       </c>
       <c r="C5" t="n">
         <v>39.324757142135</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.7856732715545</v>
+        <v>-17.7749866460542</v>
       </c>
       <c r="E5" t="n">
         <v>0.203512005441353</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -2546,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>945999.055840767</v>
+        <v>622387.340412096</v>
       </c>
       <c r="C6" t="n">
         <v>36.9240035885522</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.83684082380543</v>
+        <v>4.16184182198847</v>
       </c>
       <c r="E6" t="n">
         <v>-6.10494184339282</v>
@@ -2566,13 +2566,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>930730.036593114</v>
+        <v>686244.954164662</v>
       </c>
       <c r="C7" t="n">
         <v>40.0086341332848</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.61406284217513</v>
+        <v>10.260108071974</v>
       </c>
       <c r="E7" t="n">
         <v>8.35399806344113</v>
@@ -2586,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1057350.26594292</v>
+        <v>819598.033173513</v>
       </c>
       <c r="C8" t="n">
         <v>42.4290714496252</v>
       </c>
       <c r="D8" t="n">
-        <v>13.6043991674849</v>
+        <v>19.4322855417096</v>
       </c>
       <c r="E8" t="n">
         <v>6.04978742407691</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2606,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1117907.03877095</v>
+        <v>870646.848990708</v>
       </c>
       <c r="C9" t="n">
         <v>40.2307810069611</v>
       </c>
       <c r="D9" t="n">
-        <v>5.72721970935823</v>
+        <v>6.22851858484004</v>
       </c>
       <c r="E9" t="n">
         <v>-5.18109486622648</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2626,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1256428.57202152</v>
+        <v>990331.667035198</v>
       </c>
       <c r="C10" t="n">
         <v>42.6687771131109</v>
       </c>
       <c r="D10" t="n">
-        <v>12.3911495720482</v>
+        <v>13.7466549362963</v>
       </c>
       <c r="E10" t="n">
         <v>6.06002678826414</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2646,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1189843.07427986</v>
+        <v>953419.35623298</v>
       </c>
       <c r="C11" t="n">
         <v>42.6298752469356</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.29958480922824</v>
+        <v>-3.72726754388496</v>
       </c>
       <c r="E11" t="n">
         <v>-0.0911717391667732</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2666,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1236981.72978649</v>
+        <v>985083.028269016</v>
       </c>
       <c r="C12" t="n">
         <v>47.5471772864491</v>
       </c>
       <c r="D12" t="n">
-        <v>3.96175399307659</v>
+        <v>3.32106452727594</v>
       </c>
       <c r="E12" t="n">
         <v>11.5348731635496</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2686,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1302562.77204223</v>
+        <v>1083865.51914637</v>
       </c>
       <c r="C13" t="n">
         <v>52.571490172106</v>
       </c>
       <c r="D13" t="n">
-        <v>5.3016985357623</v>
+        <v>10.0278340040978</v>
       </c>
       <c r="E13" t="n">
         <v>10.5670055982247</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2706,13 +2706,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1237638.07008958</v>
+        <v>1118119.60049034</v>
       </c>
       <c r="C14" t="n">
         <v>55.9128976329543</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.98438181607574</v>
+        <v>3.1603626777374</v>
       </c>
       <c r="E14" t="n">
         <v>6.35593065729985</v>
@@ -2726,19 +2726,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1254732.36073082</v>
+        <v>1187401.36987507</v>
       </c>
       <c r="C15" t="n">
         <v>60.8643289214959</v>
       </c>
       <c r="D15" t="n">
-        <v>1.38120271623481</v>
+        <v>6.19627536753204</v>
       </c>
       <c r="E15" t="n">
         <v>8.85561560598367</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2746,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1206505.76362333</v>
+        <v>1155632.19587285</v>
       </c>
       <c r="C16" t="n">
         <v>64.9378275403955</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.84357641651961</v>
+        <v>-2.67552108395882</v>
       </c>
       <c r="E16" t="n">
         <v>6.69275204554327</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2766,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1112040.28131805</v>
+        <v>929832.248909377</v>
       </c>
       <c r="C17" t="n">
         <v>49.0443949187084</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.82967517880589</v>
+        <v>-19.5390841281402</v>
       </c>
       <c r="E17" t="n">
         <v>-24.4748449766053</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +2786,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1462628.34247922</v>
+        <v>1403275.77652698</v>
       </c>
       <c r="C18" t="n">
         <v>74.8455798988774</v>
       </c>
       <c r="D18" t="n">
-        <v>31.5265613171523</v>
+        <v>50.9170904937875</v>
       </c>
       <c r="E18" t="n">
         <v>52.6078158838226</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +2806,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1486247.35970053</v>
+        <v>1590430.88787107</v>
       </c>
       <c r="C19" t="n">
         <v>80.4825548107267</v>
       </c>
       <c r="D19" t="n">
-        <v>1.61483382588383</v>
+        <v>13.3370157509081</v>
       </c>
       <c r="E19" t="n">
         <v>7.53147336083886</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1605698.73512496</v>
+        <v>1834812.67029679</v>
       </c>
       <c r="C20" t="n">
         <v>87.7549051100208</v>
       </c>
       <c r="D20" t="n">
-        <v>8.03711270837846</v>
+        <v>15.3657593227994</v>
       </c>
       <c r="E20" t="n">
         <v>9.03593370811444</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +2846,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1999795.4059749</v>
+        <v>2000001.70624314</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>24.5436246681269</v>
+        <v>9.00304639381129</v>
       </c>
       <c r="E21" t="n">
         <v>13.9537440951331</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +2866,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>2038228.40200585</v>
+        <v>2080001.22024474</v>
       </c>
       <c r="C22" t="n">
         <v>108.743157655878</v>
       </c>
       <c r="D22" t="n">
-        <v>1.92184640069317</v>
+        <v>3.99997228761726</v>
       </c>
       <c r="E22" t="n">
         <v>8.74315765587814</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +2886,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>2451701.39395791</v>
+        <v>2287000.52961772</v>
       </c>
       <c r="C23" t="n">
         <v>139.46322156225</v>
       </c>
       <c r="D23" t="n">
-        <v>20.2859008119576</v>
+        <v>9.95188403536702</v>
       </c>
       <c r="E23" t="n">
         <v>28.2501120701192</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +2906,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2600852.04122819</v>
+        <v>2410997.43212084</v>
       </c>
       <c r="C24" t="n">
         <v>124.314776503352</v>
       </c>
       <c r="D24" t="n">
-        <v>6.0835568164157</v>
+        <v>5.42181345816535</v>
       </c>
       <c r="E24" t="n">
         <v>-10.8619641000738</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +2926,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>3002170.87652349</v>
+        <v>2714432.00671658</v>
       </c>
       <c r="C25" t="n">
         <v>134.995398175514</v>
       </c>
       <c r="D25" t="n">
-        <v>15.4302831892653</v>
+        <v>12.5854374854651</v>
       </c>
       <c r="E25" t="n">
         <v>8.59159463788595</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -2946,13 +2946,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>3415632.460286</v>
+        <v>2463844.02576237</v>
       </c>
       <c r="C26" t="n">
         <v>138.815936329343</v>
       </c>
       <c r="D26" t="n">
-        <v>13.7720869586644</v>
+        <v>-9.23169120958461</v>
       </c>
       <c r="E26" t="n">
         <v>2.83012473422362</v>
@@ -2966,19 +2966,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>3480170.96162361</v>
+        <v>2672701.55491238</v>
       </c>
       <c r="C27" t="n">
         <v>146.259783529029</v>
       </c>
       <c r="D27" t="n">
-        <v>1.8895036889363</v>
+        <v>8.47689735901116</v>
       </c>
       <c r="E27" t="n">
         <v>5.36238662254527</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +2986,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>3541805.37576518</v>
+        <v>2750904.68159126</v>
       </c>
       <c r="C28" t="n">
         <v>150.635249698349</v>
       </c>
       <c r="D28" t="n">
-        <v>1.77101685006908</v>
+        <v>2.92599547956063</v>
       </c>
       <c r="E28" t="n">
         <v>2.99157161575574</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3006,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>3603439.78990674</v>
+        <v>2829107.80827014</v>
       </c>
       <c r="C29" t="n">
         <v>155.010715867669</v>
       </c>
       <c r="D29" t="n">
-        <v>1.74019765635061</v>
+        <v>2.84281484568365</v>
       </c>
       <c r="E29" t="n">
         <v>2.9046761485656</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3026,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>3665074.20404831</v>
+        <v>2907310.93494903</v>
       </c>
       <c r="C30" t="n">
         <v>159.386182036989</v>
       </c>
       <c r="D30" t="n">
-        <v>1.71043274579483</v>
+        <v>2.7642328245773</v>
       </c>
       <c r="E30" t="n">
         <v>2.82268625419126</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3046,19 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>3726708.61818988</v>
+        <v>2985514.06162791</v>
       </c>
       <c r="C31" t="n">
         <v>163.761648206309</v>
       </c>
       <c r="D31" t="n">
-        <v>1.68166892974462</v>
+        <v>2.68987832497711</v>
       </c>
       <c r="E31" t="n">
         <v>2.74519792958261</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3100,19 +3100,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="C2" t="n">
-        <v>1177426.74619052</v>
+        <v>772391.619617413</v>
       </c>
       <c r="D2" t="n">
-        <v>-90891.0422461761</v>
+        <v>-85895.6196174133</v>
       </c>
       <c r="E2" t="n">
         <v>38.5897076142512</v>
       </c>
       <c r="F2" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
     </row>
     <row r="3">
@@ -3120,19 +3120,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1104983.05948439</v>
+        <v>726689</v>
       </c>
       <c r="C3" t="n">
-        <v>1111964.35653626</v>
+        <v>763719.066617821</v>
       </c>
       <c r="D3" t="n">
-        <v>-6981.29705187597</v>
+        <v>-37030.0666178206</v>
       </c>
       <c r="E3" t="n">
         <v>39.2448890813324</v>
       </c>
       <c r="F3" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
     </row>
     <row r="4">
@@ -3140,19 +3140,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>963704.783066716</v>
+        <v>597520</v>
       </c>
       <c r="C4" t="n">
-        <v>1121740.01585408</v>
+        <v>772678.802253347</v>
       </c>
       <c r="D4" t="n">
-        <v>-158035.232787359</v>
+        <v>-175158.802253347</v>
       </c>
       <c r="E4" t="n">
         <v>39.324757142135</v>
       </c>
       <c r="F4" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
     </row>
     <row r="5">
@@ -3160,19 +3160,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>945990.280824936</v>
+        <v>622389</v>
       </c>
       <c r="C5" t="n">
-        <v>954287.421277165</v>
+        <v>695233.89660088</v>
       </c>
       <c r="D5" t="n">
-        <v>-8297.14045222872</v>
+        <v>-72844.8966008796</v>
       </c>
       <c r="E5" t="n">
         <v>36.9240035885522</v>
       </c>
       <c r="F5" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
     </row>
     <row r="6">
@@ -3180,19 +3180,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>930722.715178974</v>
+        <v>686246</v>
       </c>
       <c r="C6" t="n">
-        <v>1012850.46053367</v>
+        <v>768289.537828741</v>
       </c>
       <c r="D6" t="n">
-        <v>-82127.7453546927</v>
+        <v>-82043.5378287407</v>
       </c>
       <c r="E6" t="n">
         <v>40.0086341332848</v>
       </c>
       <c r="F6" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
     </row>
     <row r="7">
@@ -3200,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>1057337.6441697</v>
+        <v>819599</v>
       </c>
       <c r="C7" t="n">
-        <v>991842.493764816</v>
+        <v>813857.583857175</v>
       </c>
       <c r="D7" t="n">
-        <v>65495.150404882</v>
+        <v>5741.41614282516</v>
       </c>
       <c r="E7" t="n">
         <v>42.4290714496252</v>
       </c>
       <c r="F7" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
     </row>
     <row r="8">
@@ -3220,19 +3220,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1117902.7684626</v>
+        <v>870647</v>
       </c>
       <c r="C8" t="n">
-        <v>1047699.34230379</v>
+        <v>798392.07250555</v>
       </c>
       <c r="D8" t="n">
-        <v>70203.4261588155</v>
+        <v>72254.9274944496</v>
       </c>
       <c r="E8" t="n">
         <v>40.2307810069611</v>
       </c>
       <c r="F8" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
     </row>
     <row r="9">
@@ -3240,19 +3240,19 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1256432.56392952</v>
+        <v>990331</v>
       </c>
       <c r="C9" t="n">
-        <v>1167936.77844397</v>
+        <v>865856.400348797</v>
       </c>
       <c r="D9" t="n">
-        <v>88495.7854855515</v>
+        <v>124474.599651203</v>
       </c>
       <c r="E9" t="n">
         <v>42.6687771131109</v>
       </c>
       <c r="F9" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
     </row>
     <row r="10">
@@ -3260,19 +3260,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1189856.47084328</v>
+        <v>953418</v>
       </c>
       <c r="C10" t="n">
-        <v>1265160.650567</v>
+        <v>885288.113966529</v>
       </c>
       <c r="D10" t="n">
-        <v>-75304.1797237192</v>
+        <v>68129.8860334713</v>
       </c>
       <c r="E10" t="n">
         <v>42.6298752469356</v>
       </c>
       <c r="F10" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>1236989.16620272</v>
+        <v>985082</v>
       </c>
       <c r="C11" t="n">
-        <v>1272465.20049883</v>
+        <v>963597.818594877</v>
       </c>
       <c r="D11" t="n">
-        <v>-35476.0342961146</v>
+        <v>21484.1814051231</v>
       </c>
       <c r="E11" t="n">
         <v>47.5471772864491</v>
       </c>
       <c r="F11" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
     </row>
     <row r="12">
@@ -3300,19 +3300,19 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1302568.21047313</v>
+        <v>1083865</v>
       </c>
       <c r="C12" t="n">
-        <v>1322468.22568244</v>
+        <v>1038529.66481393</v>
       </c>
       <c r="D12" t="n">
-        <v>-19900.0152093119</v>
+        <v>45335.3351860667</v>
       </c>
       <c r="E12" t="n">
         <v>52.571490172106</v>
       </c>
       <c r="F12" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
     </row>
     <row r="13">
@@ -3320,19 +3320,19 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1237643.03956075</v>
+        <v>1118119</v>
       </c>
       <c r="C13" t="n">
-        <v>1364661.1529343</v>
+        <v>1100626.49223366</v>
       </c>
       <c r="D13" t="n">
-        <v>-127018.113373559</v>
+        <v>17492.5077663423</v>
       </c>
       <c r="E13" t="n">
         <v>55.9128976329543</v>
       </c>
       <c r="F13" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
     </row>
     <row r="14">
@@ -3340,19 +3340,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1254727.22090894</v>
+        <v>1187401</v>
       </c>
       <c r="C14" t="n">
-        <v>1329311.47181313</v>
+        <v>1182389.11803586</v>
       </c>
       <c r="D14" t="n">
-        <v>-74584.2509041892</v>
+        <v>5011.88196414502</v>
       </c>
       <c r="E14" t="n">
         <v>60.8643289214959</v>
       </c>
       <c r="F14" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
     </row>
     <row r="15">
@@ -3360,19 +3360,19 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>1206495.87003594</v>
+        <v>1155632</v>
       </c>
       <c r="C15" t="n">
-        <v>1337271.57860284</v>
+        <v>1250113.6699785</v>
       </c>
       <c r="D15" t="n">
-        <v>-130775.708566893</v>
+        <v>-94481.6699784982</v>
       </c>
       <c r="E15" t="n">
         <v>64.9378275403955</v>
       </c>
       <c r="F15" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
     </row>
     <row r="16">
@@ -3380,19 +3380,19 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1112020.85445878</v>
+        <v>929833</v>
       </c>
       <c r="C16" t="n">
-        <v>1014281.91391276</v>
+        <v>938394.144469765</v>
       </c>
       <c r="D16" t="n">
-        <v>97738.9405460197</v>
+        <v>-8561.14446976489</v>
       </c>
       <c r="E16" t="n">
         <v>49.0443949187084</v>
       </c>
       <c r="F16" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
     </row>
     <row r="17">
@@ -3400,19 +3400,19 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1462620.59665899</v>
+        <v>1403276</v>
       </c>
       <c r="C17" t="n">
-        <v>1499164.2255832</v>
+        <v>1414949.49766076</v>
       </c>
       <c r="D17" t="n">
-        <v>-36543.6289242108</v>
+        <v>-11673.4976607564</v>
       </c>
       <c r="E17" t="n">
         <v>74.8455798988774</v>
       </c>
       <c r="F17" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
     </row>
     <row r="18">
@@ -3420,19 +3420,19 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>1486238.45438762</v>
+        <v>1590431</v>
       </c>
       <c r="C18" t="n">
-        <v>1566514.49579878</v>
+        <v>1518951.33175062</v>
       </c>
       <c r="D18" t="n">
-        <v>-80276.0414111616</v>
+        <v>71479.6682493814</v>
       </c>
       <c r="E18" t="n">
         <v>80.4825548107267</v>
       </c>
       <c r="F18" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
     </row>
     <row r="19">
@@ -3440,19 +3440,19 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>1605684.7941305</v>
+        <v>1834812</v>
       </c>
       <c r="C19" t="n">
-        <v>1616603.96446103</v>
+        <v>1671780.34230257</v>
       </c>
       <c r="D19" t="n">
-        <v>-10919.1703305288</v>
+        <v>163031.657697429</v>
       </c>
       <c r="E19" t="n">
         <v>87.7549051100208</v>
       </c>
       <c r="F19" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
     </row>
     <row r="20">
@@ -3460,19 +3460,19 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1805051.07878782</v>
+        <v>1920891.39192069</v>
       </c>
       <c r="D20" t="n">
-        <v>194731.921212181</v>
+        <v>79108.6080793109</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
     </row>
     <row r="21">
@@ -3480,19 +3480,19 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
       <c r="C21" t="n">
-        <v>2136173.90765256</v>
+        <v>2062965.81709618</v>
       </c>
       <c r="D21" t="n">
-        <v>-97937.9076525637</v>
+        <v>17034.1829038214</v>
       </c>
       <c r="E21" t="n">
         <v>108.743157655878</v>
       </c>
       <c r="F21" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
     </row>
     <row r="22">
@@ -3500,19 +3500,19 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>2451701.34578281</v>
+        <v>2287000</v>
       </c>
       <c r="C22" t="n">
-        <v>2489417.50755161</v>
+        <v>2591859.717612</v>
       </c>
       <c r="D22" t="n">
-        <v>-37716.1617688021</v>
+        <v>-304859.717612004</v>
       </c>
       <c r="E22" t="n">
         <v>139.46322156225</v>
       </c>
       <c r="F22" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
     </row>
     <row r="23">
@@ -3520,19 +3520,19 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>2600850.2537296</v>
+        <v>2411000</v>
       </c>
       <c r="C23" t="n">
-        <v>2257948.77585802</v>
+        <v>2230652.25232236</v>
       </c>
       <c r="D23" t="n">
-        <v>342901.477871576</v>
+        <v>180347.747677636</v>
       </c>
       <c r="E23" t="n">
         <v>124.314776503352</v>
       </c>
       <c r="F23" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
     </row>
     <row r="24">
@@ -3540,19 +3540,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>3002201.81394542</v>
+        <v>2714431</v>
       </c>
       <c r="C24" t="n">
-        <v>2748611.87622045</v>
+        <v>2525938.8540278</v>
       </c>
       <c r="D24" t="n">
-        <v>253589.93772497</v>
+        <v>188492.1459722</v>
       </c>
       <c r="E24" t="n">
         <v>134.995398175514</v>
       </c>
       <c r="F24" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
     </row>
     <row r="25">
@@ -3560,19 +3560,19 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>3415686.04569097</v>
+        <v>2463842</v>
       </c>
       <c r="C25" t="n">
-        <v>3037880.35690986</v>
+        <v>2623983.43686094</v>
       </c>
       <c r="D25" t="n">
-        <v>377805.688781115</v>
+        <v>-160141.436860935</v>
       </c>
       <c r="E25" t="n">
         <v>138.815936329343</v>
       </c>
       <c r="F25" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
   </sheetData>
@@ -3632,28 +3632,28 @@
         <v>9.23693404109287</v>
       </c>
       <c r="C2" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
       <c r="D2" t="n">
-        <v>288574.334197375</v>
+        <v>185761.126585827</v>
       </c>
       <c r="E2" t="n">
-        <v>1177426.74619052</v>
+        <v>772391.619617413</v>
       </c>
       <c r="F2" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="G2" t="n">
-        <v>-90891.0422461762</v>
+        <v>-85895.6196174133</v>
       </c>
       <c r="H2" t="n">
-        <v>-30560.3849599192</v>
+        <v>-26784.8770926572</v>
       </c>
       <c r="I2" t="n">
-        <v>258013.949237456</v>
+        <v>158976.24949317</v>
       </c>
       <c r="J2" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="K2" t="s">
         <v>146</v>
@@ -3667,28 +3667,28 @@
         <v>9.61533075382236</v>
       </c>
       <c r="C3" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
       <c r="D3" t="n">
-        <v>293904.568462631</v>
+        <v>192524.247340353</v>
       </c>
       <c r="E3" t="n">
-        <v>1177426.74619052</v>
+        <v>772391.619617413</v>
       </c>
       <c r="F3" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="G3" t="n">
-        <v>-90891.0422461762</v>
+        <v>-85895.6196174133</v>
       </c>
       <c r="H3" t="n">
-        <v>-27425.3352005691</v>
+        <v>-24660.4882173356</v>
       </c>
       <c r="I3" t="n">
-        <v>266479.233262062</v>
+        <v>167863.759123018</v>
       </c>
       <c r="J3" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="K3" t="s">
         <v>147</v>
@@ -3702,28 +3702,28 @@
         <v>8.96665067485753</v>
       </c>
       <c r="C4" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
       <c r="D4" t="n">
-        <v>284767.024007907</v>
+        <v>180930.32604688</v>
       </c>
       <c r="E4" t="n">
-        <v>1177426.74619052</v>
+        <v>772391.619617413</v>
       </c>
       <c r="F4" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="G4" t="n">
-        <v>-90891.0422461762</v>
+        <v>-85895.6196174133</v>
       </c>
       <c r="H4" t="n">
-        <v>-21155.2356818689</v>
+        <v>-20411.7104666925</v>
       </c>
       <c r="I4" t="n">
-        <v>263611.788326039</v>
+        <v>160518.615580187</v>
       </c>
       <c r="J4" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="K4" t="s">
         <v>148</v>
@@ -3737,28 +3737,28 @@
         <v>10.7707921444785</v>
       </c>
       <c r="C5" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
       <c r="D5" t="n">
-        <v>310180.819522607</v>
+        <v>213175.919644353</v>
       </c>
       <c r="E5" t="n">
-        <v>1177426.74619052</v>
+        <v>772391.619617413</v>
       </c>
       <c r="F5" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="G5" t="n">
-        <v>-90891.0422461762</v>
+        <v>-85895.6196174133</v>
       </c>
       <c r="H5" t="n">
-        <v>-11750.0864038186</v>
+        <v>-14038.5438407279</v>
       </c>
       <c r="I5" t="n">
-        <v>298430.733118788</v>
+        <v>199137.375803625</v>
       </c>
       <c r="J5" t="n">
-        <v>1086535.70394434</v>
+        <v>686496</v>
       </c>
       <c r="K5" t="s">
         <v>149</v>
@@ -3772,28 +3772,28 @@
         <v>9.39376000248317</v>
       </c>
       <c r="C6" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
       <c r="D6" t="n">
-        <v>272109.75139999</v>
+        <v>183468.239756479</v>
       </c>
       <c r="E6" t="n">
-        <v>1111961.10935709</v>
+        <v>763718.331704359</v>
       </c>
       <c r="F6" t="n">
-        <v>1104983.05948439</v>
+        <v>726689</v>
       </c>
       <c r="G6" t="n">
-        <v>-6978.04987270222</v>
+        <v>-37029.331704359</v>
       </c>
       <c r="H6" t="n">
-        <v>790.112633581834</v>
+        <v>-5540.98833944173</v>
       </c>
       <c r="I6" t="n">
-        <v>272899.864033571</v>
+        <v>177927.251417037</v>
       </c>
       <c r="J6" t="n">
-        <v>1104979.81230521</v>
+        <v>726688.265086538</v>
       </c>
       <c r="K6" t="s">
         <v>150</v>
@@ -3807,28 +3807,28 @@
         <v>9.77858118766171</v>
       </c>
       <c r="C7" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
       <c r="D7" t="n">
-        <v>277530.483130028</v>
+        <v>190346.185723528</v>
       </c>
       <c r="E7" t="n">
-        <v>1111961.10935709</v>
+        <v>763718.331704359</v>
       </c>
       <c r="F7" t="n">
-        <v>1104983.05948439</v>
+        <v>726689</v>
       </c>
       <c r="G7" t="n">
-        <v>-6978.04987270222</v>
+        <v>-37029.331704359</v>
       </c>
       <c r="H7" t="n">
-        <v>4792.0174899217</v>
+        <v>-3628.57746493264</v>
       </c>
       <c r="I7" t="n">
-        <v>282322.500619949</v>
+        <v>186717.608258595</v>
       </c>
       <c r="J7" t="n">
-        <v>1104979.81230521</v>
+        <v>726688.265086538</v>
       </c>
       <c r="K7" t="s">
         <v>151</v>
@@ -3842,28 +3842,28 @@
         <v>9.11888772735565</v>
       </c>
       <c r="C8" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
       <c r="D8" t="n">
-        <v>268237.800164248</v>
+        <v>178555.421208587</v>
       </c>
       <c r="E8" t="n">
-        <v>1111961.10935709</v>
+        <v>763718.331704359</v>
       </c>
       <c r="F8" t="n">
-        <v>1104983.05948439</v>
+        <v>726689</v>
       </c>
       <c r="G8" t="n">
-        <v>-6978.04987270222</v>
+        <v>-37029.331704359</v>
       </c>
       <c r="H8" t="n">
-        <v>255.62816520106</v>
+        <v>-8301.31121720062</v>
       </c>
       <c r="I8" t="n">
-        <v>268493.428329449</v>
+        <v>170254.109991386</v>
       </c>
       <c r="J8" t="n">
-        <v>1104979.81230521</v>
+        <v>726688.265086538</v>
       </c>
       <c r="K8" t="s">
         <v>152</v>
@@ -3877,28 +3877,28 @@
         <v>10.9536601638319</v>
       </c>
       <c r="C9" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
       <c r="D9" t="n">
-        <v>294083.074662822</v>
+        <v>211348.485015766</v>
       </c>
       <c r="E9" t="n">
-        <v>1111961.10935709</v>
+        <v>763718.331704359</v>
       </c>
       <c r="F9" t="n">
-        <v>1104983.05948439</v>
+        <v>726689</v>
       </c>
       <c r="G9" t="n">
-        <v>-6978.04987270222</v>
+        <v>-37029.331704359</v>
       </c>
       <c r="H9" t="n">
-        <v>-12819.0553405801</v>
+        <v>-19559.1895962457</v>
       </c>
       <c r="I9" t="n">
-        <v>281264.019322242</v>
+        <v>191789.295419521</v>
       </c>
       <c r="J9" t="n">
-        <v>1104979.81230521</v>
+        <v>726688.265086538</v>
       </c>
       <c r="K9" t="s">
         <v>153</v>
@@ -3912,28 +3912,28 @@
         <v>9.99617052517854</v>
       </c>
       <c r="C10" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
       <c r="D10" t="n">
-        <v>282757.970127394</v>
+        <v>196118.306842025</v>
       </c>
       <c r="E10" t="n">
-        <v>1121735.93657459</v>
+        <v>772678.32526231</v>
       </c>
       <c r="F10" t="n">
-        <v>963704.783066716</v>
+        <v>597520</v>
       </c>
       <c r="G10" t="n">
-        <v>-158031.153507875</v>
+        <v>-175158.32526231</v>
       </c>
       <c r="H10" t="n">
-        <v>-34432.0330274218</v>
+        <v>-37402.2126020678</v>
       </c>
       <c r="I10" t="n">
-        <v>248325.937099972</v>
+        <v>158716.094239957</v>
       </c>
       <c r="J10" t="n">
-        <v>963700.703787231</v>
+        <v>597519.523008963</v>
       </c>
       <c r="K10" t="s">
         <v>154</v>
@@ -3947,28 +3947,28 @@
         <v>10.3276944445079</v>
       </c>
       <c r="C11" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
       <c r="D11" t="n">
-        <v>287427.937109439</v>
+        <v>202043.665662573</v>
       </c>
       <c r="E11" t="n">
-        <v>1121735.93657459</v>
+        <v>772678.32526231</v>
       </c>
       <c r="F11" t="n">
-        <v>963704.783066716</v>
+        <v>597520</v>
       </c>
       <c r="G11" t="n">
-        <v>-158031.153507875</v>
+        <v>-175158.32526231</v>
       </c>
       <c r="H11" t="n">
-        <v>-45107.9341699257</v>
+        <v>-47094.4169889043</v>
       </c>
       <c r="I11" t="n">
-        <v>242320.002939513</v>
+        <v>154949.248673669</v>
       </c>
       <c r="J11" t="n">
-        <v>963700.703787231</v>
+        <v>597519.523008963</v>
       </c>
       <c r="K11" t="s">
         <v>155</v>
@@ -3982,28 +3982,28 @@
         <v>8.43179753569241</v>
       </c>
       <c r="C12" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
       <c r="D12" t="n">
-        <v>260721.640974185</v>
+        <v>168158.11829626</v>
       </c>
       <c r="E12" t="n">
-        <v>1121735.93657459</v>
+        <v>772678.32526231</v>
       </c>
       <c r="F12" t="n">
-        <v>963704.783066716</v>
+        <v>597520</v>
       </c>
       <c r="G12" t="n">
-        <v>-158031.153507875</v>
+        <v>-175158.32526231</v>
       </c>
       <c r="H12" t="n">
-        <v>-44846.7587680917</v>
+        <v>-48635.8027567551</v>
       </c>
       <c r="I12" t="n">
-        <v>215874.882206094</v>
+        <v>119522.315539505</v>
       </c>
       <c r="J12" t="n">
-        <v>963700.703787231</v>
+        <v>597519.523008963</v>
       </c>
       <c r="K12" t="s">
         <v>156</v>
@@ -4017,28 +4017,28 @@
         <v>10.5690946367562</v>
       </c>
       <c r="C13" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
       <c r="D13" t="n">
-        <v>290828.388363573</v>
+        <v>206358.234461453</v>
       </c>
       <c r="E13" t="n">
-        <v>1121735.93657459</v>
+        <v>772678.32526231</v>
       </c>
       <c r="F13" t="n">
-        <v>963704.783066716</v>
+        <v>597520</v>
       </c>
       <c r="G13" t="n">
-        <v>-158031.153507875</v>
+        <v>-175158.32526231</v>
       </c>
       <c r="H13" t="n">
-        <v>-33648.50682192</v>
+        <v>-42026.3699056203</v>
       </c>
       <c r="I13" t="n">
-        <v>257179.881541653</v>
+        <v>164331.864555832</v>
       </c>
       <c r="J13" t="n">
-        <v>963700.703787231</v>
+        <v>597519.523008963</v>
       </c>
       <c r="K13" t="s">
         <v>157</v>
@@ -4052,28 +4052,28 @@
         <v>9.78700271451556</v>
       </c>
       <c r="C14" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
       <c r="D14" t="n">
-        <v>246406.09369423</v>
+        <v>183745.533084705</v>
       </c>
       <c r="E14" t="n">
-        <v>954296.196292996</v>
+        <v>695232.237012976</v>
       </c>
       <c r="F14" t="n">
-        <v>945990.280824936</v>
+        <v>622389</v>
       </c>
       <c r="G14" t="n">
-        <v>-8305.9154680596</v>
+        <v>-72843.2370129756</v>
       </c>
       <c r="H14" t="n">
-        <v>-11513.1783314105</v>
+        <v>-27266.1184354999</v>
       </c>
       <c r="I14" t="n">
-        <v>234892.915362819</v>
+        <v>156479.414649205</v>
       </c>
       <c r="J14" t="n">
-        <v>945999.055840767</v>
+        <v>622387.340412096</v>
       </c>
       <c r="K14" t="s">
         <v>158</v>
@@ -4087,28 +4087,28 @@
         <v>9.43061325992536</v>
       </c>
       <c r="C15" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
       <c r="D15" t="n">
-        <v>241385.861702969</v>
+        <v>177375.750166542</v>
       </c>
       <c r="E15" t="n">
-        <v>954296.196292996</v>
+        <v>695232.237012976</v>
       </c>
       <c r="F15" t="n">
-        <v>945990.280824936</v>
+        <v>622389</v>
       </c>
       <c r="G15" t="n">
-        <v>-8305.9154680596</v>
+        <v>-72843.2370129756</v>
       </c>
       <c r="H15" t="n">
-        <v>1116.51035213464</v>
+        <v>-17740.0601333397</v>
       </c>
       <c r="I15" t="n">
-        <v>242502.372055104</v>
+        <v>159635.690033202</v>
       </c>
       <c r="J15" t="n">
-        <v>945999.055840767</v>
+        <v>622387.340412096</v>
       </c>
       <c r="K15" t="s">
         <v>159</v>
@@ -4122,28 +4122,28 @@
         <v>8.33745714440349</v>
       </c>
       <c r="C16" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
       <c r="D16" t="n">
-        <v>225987.265499007</v>
+        <v>157837.666023331</v>
       </c>
       <c r="E16" t="n">
-        <v>954296.196292996</v>
+        <v>695232.237012976</v>
       </c>
       <c r="F16" t="n">
-        <v>945990.280824936</v>
+        <v>622389</v>
       </c>
       <c r="G16" t="n">
-        <v>-8305.9154680596</v>
+        <v>-72843.2370129756</v>
       </c>
       <c r="H16" t="n">
-        <v>4240.55922871543</v>
+        <v>-13448.1949991398</v>
       </c>
       <c r="I16" t="n">
-        <v>230227.824727722</v>
+        <v>144389.471024191</v>
       </c>
       <c r="J16" t="n">
-        <v>945999.055840767</v>
+        <v>622387.340412096</v>
       </c>
       <c r="K16" t="s">
         <v>160</v>
@@ -4157,28 +4157,28 @@
         <v>9.36893046970783</v>
       </c>
       <c r="C17" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
       <c r="D17" t="n">
-        <v>240516.97539679</v>
+        <v>176273.287738398</v>
       </c>
       <c r="E17" t="n">
-        <v>954296.196292996</v>
+        <v>695232.237012976</v>
       </c>
       <c r="F17" t="n">
-        <v>945990.280824936</v>
+        <v>622389</v>
       </c>
       <c r="G17" t="n">
-        <v>-8305.9154680596</v>
+        <v>-72843.2370129756</v>
       </c>
       <c r="H17" t="n">
-        <v>-2141.03170166814</v>
+        <v>-14390.5230329002</v>
       </c>
       <c r="I17" t="n">
-        <v>238375.943695122</v>
+        <v>161882.764705498</v>
       </c>
       <c r="J17" t="n">
-        <v>945999.055840767</v>
+        <v>622387.340412096</v>
       </c>
       <c r="K17" t="s">
         <v>161</v>
@@ -4192,28 +4192,28 @@
         <v>9.74751579800055</v>
       </c>
       <c r="C18" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
       <c r="D18" t="n">
-        <v>249627.454935649</v>
+        <v>187520.868956491</v>
       </c>
       <c r="E18" t="n">
-        <v>1012857.78194781</v>
+        <v>768288.491993403</v>
       </c>
       <c r="F18" t="n">
-        <v>930722.715178974</v>
+        <v>686246</v>
       </c>
       <c r="G18" t="n">
-        <v>-82135.0667688329</v>
+        <v>-82042.4919934028</v>
       </c>
       <c r="H18" t="n">
-        <v>-18028.2624390161</v>
+        <v>-20567.0442346209</v>
       </c>
       <c r="I18" t="n">
-        <v>231599.192496633</v>
+        <v>166953.82472187</v>
       </c>
       <c r="J18" t="n">
-        <v>930730.036593114</v>
+        <v>686244.954164662</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -4227,28 +4227,28 @@
         <v>9.67083034417807</v>
       </c>
       <c r="C19" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
       <c r="D19" t="n">
-        <v>248547.23563178</v>
+        <v>186150.262482201</v>
       </c>
       <c r="E19" t="n">
-        <v>1012857.78194781</v>
+        <v>768288.491993403</v>
       </c>
       <c r="F19" t="n">
-        <v>930722.715178974</v>
+        <v>686246</v>
       </c>
       <c r="G19" t="n">
-        <v>-82135.0667688329</v>
+        <v>-82042.4919934028</v>
       </c>
       <c r="H19" t="n">
-        <v>-25384.6242938181</v>
+        <v>-23015.188804335</v>
       </c>
       <c r="I19" t="n">
-        <v>223162.611337962</v>
+        <v>163135.073677866</v>
       </c>
       <c r="J19" t="n">
-        <v>930730.036593114</v>
+        <v>686244.954164662</v>
       </c>
       <c r="K19" t="s">
         <v>163</v>
@@ -4262,28 +4262,28 @@
         <v>8.76118531638173</v>
       </c>
       <c r="C20" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
       <c r="D20" t="n">
-        <v>235733.643617714</v>
+        <v>169892.08961816</v>
       </c>
       <c r="E20" t="n">
-        <v>1012857.78194781</v>
+        <v>768288.491993403</v>
       </c>
       <c r="F20" t="n">
-        <v>930722.715178974</v>
+        <v>686246</v>
       </c>
       <c r="G20" t="n">
-        <v>-82135.0667688329</v>
+        <v>-82042.4919934028</v>
       </c>
       <c r="H20" t="n">
-        <v>-24210.1172660742</v>
+        <v>-21734.9567420423</v>
       </c>
       <c r="I20" t="n">
-        <v>211523.52635164</v>
+        <v>148157.132876117</v>
       </c>
       <c r="J20" t="n">
-        <v>930730.036593114</v>
+        <v>686244.954164662</v>
       </c>
       <c r="K20" t="s">
         <v>164</v>
@@ -4297,28 +4297,28 @@
         <v>11.8291026747245</v>
       </c>
       <c r="C21" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
       <c r="D21" t="n">
-        <v>278949.447762663</v>
+        <v>224725.270936551</v>
       </c>
       <c r="E21" t="n">
-        <v>1012857.78194781</v>
+        <v>768288.491993403</v>
       </c>
       <c r="F21" t="n">
-        <v>930722.715178974</v>
+        <v>686246</v>
       </c>
       <c r="G21" t="n">
-        <v>-82135.0667688329</v>
+        <v>-82042.4919934028</v>
       </c>
       <c r="H21" t="n">
-        <v>-14504.7413557843</v>
+        <v>-16726.3480477429</v>
       </c>
       <c r="I21" t="n">
-        <v>264444.706406879</v>
+        <v>207998.922888808</v>
       </c>
       <c r="J21" t="n">
-        <v>930730.036593114</v>
+        <v>686244.954164662</v>
       </c>
       <c r="K21" t="s">
         <v>165</v>
@@ -4332,28 +4332,28 @@
         <v>10.8405558524574</v>
       </c>
       <c r="C22" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
       <c r="D22" t="n">
-        <v>251249.958696362</v>
+        <v>207633.732888299</v>
       </c>
       <c r="E22" t="n">
-        <v>991855.115538037</v>
+        <v>813856.617030688</v>
       </c>
       <c r="F22" t="n">
-        <v>1057337.6441697</v>
+        <v>819599</v>
       </c>
       <c r="G22" t="n">
-        <v>65482.5286316602</v>
+        <v>5742.38296931167</v>
       </c>
       <c r="H22" t="n">
-        <v>3731.50343705146</v>
+        <v>-7989.36272143691</v>
       </c>
       <c r="I22" t="n">
-        <v>254981.462133413</v>
+        <v>199644.370166862</v>
       </c>
       <c r="J22" t="n">
-        <v>1057350.26594292</v>
+        <v>819598.033173513</v>
       </c>
       <c r="K22" t="s">
         <v>166</v>
@@ -4367,28 +4367,28 @@
         <v>10.4064097033053</v>
       </c>
       <c r="C23" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
       <c r="D23" t="n">
-        <v>245134.417513017</v>
+        <v>199874.197107322</v>
       </c>
       <c r="E23" t="n">
-        <v>991855.115538037</v>
+        <v>813856.617030688</v>
       </c>
       <c r="F23" t="n">
-        <v>1057337.6441697</v>
+        <v>819599</v>
       </c>
       <c r="G23" t="n">
-        <v>65482.5286316602</v>
+        <v>5742.38296931167</v>
       </c>
       <c r="H23" t="n">
-        <v>16082.9150198534</v>
+        <v>-724.681888057268</v>
       </c>
       <c r="I23" t="n">
-        <v>261217.332532871</v>
+        <v>199149.515219265</v>
       </c>
       <c r="J23" t="n">
-        <v>1057350.26594292</v>
+        <v>819598.033173513</v>
       </c>
       <c r="K23" t="s">
         <v>167</v>
@@ -4402,28 +4402,28 @@
         <v>9.30124144311374</v>
       </c>
       <c r="C24" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
       <c r="D24" t="n">
-        <v>229566.613853061</v>
+        <v>180121.418749841</v>
       </c>
       <c r="E24" t="n">
-        <v>991855.115538037</v>
+        <v>813856.617030688</v>
       </c>
       <c r="F24" t="n">
-        <v>1057337.6441697</v>
+        <v>819599</v>
       </c>
       <c r="G24" t="n">
-        <v>65482.5286316602</v>
+        <v>5742.38296931167</v>
       </c>
       <c r="H24" t="n">
-        <v>22549.4933926214</v>
+        <v>5067.69445239598</v>
       </c>
       <c r="I24" t="n">
-        <v>252116.107245682</v>
+        <v>185189.113202237</v>
       </c>
       <c r="J24" t="n">
-        <v>1057350.26594292</v>
+        <v>819598.033173513</v>
       </c>
       <c r="K24" t="s">
         <v>168</v>
@@ -4437,28 +4437,28 @@
         <v>11.8808644507488</v>
       </c>
       <c r="C25" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
       <c r="D25" t="n">
-        <v>265904.125475598</v>
+        <v>226227.268285226</v>
       </c>
       <c r="E25" t="n">
-        <v>991855.115538037</v>
+        <v>813856.617030688</v>
       </c>
       <c r="F25" t="n">
-        <v>1057337.6441697</v>
+        <v>819599</v>
       </c>
       <c r="G25" t="n">
-        <v>65482.5286316602</v>
+        <v>5742.38296931167</v>
       </c>
       <c r="H25" t="n">
-        <v>23131.2385553555</v>
+        <v>9387.76629992282</v>
       </c>
       <c r="I25" t="n">
-        <v>289035.364030953</v>
+        <v>235615.034585149</v>
       </c>
       <c r="J25" t="n">
-        <v>1057350.26594292</v>
+        <v>819598.033173513</v>
       </c>
       <c r="K25" t="s">
         <v>169</v>
@@ -4472,28 +4472,28 @@
         <v>11.4067396261152</v>
       </c>
       <c r="C26" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
       <c r="D26" t="n">
-        <v>280929.034807574</v>
+        <v>223709.579920741</v>
       </c>
       <c r="E26" t="n">
-        <v>1047703.61261214</v>
+        <v>798391.921496259</v>
       </c>
       <c r="F26" t="n">
-        <v>1117902.7684626</v>
+        <v>870647</v>
       </c>
       <c r="G26" t="n">
-        <v>70199.1558504644</v>
+        <v>72255.0785037408</v>
       </c>
       <c r="H26" t="n">
-        <v>17828.1505080558</v>
+        <v>12235.5336545233</v>
       </c>
       <c r="I26" t="n">
-        <v>298757.185315629</v>
+        <v>235945.113575264</v>
       </c>
       <c r="J26" t="n">
-        <v>1117907.03877095</v>
+        <v>870646.848990708</v>
       </c>
       <c r="K26" t="s">
         <v>146</v>
@@ -4507,28 +4507,28 @@
         <v>9.28905311211552</v>
       </c>
       <c r="C27" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
       <c r="D27" t="n">
-        <v>251098.529308283</v>
+        <v>185859.96565982</v>
       </c>
       <c r="E27" t="n">
-        <v>1047703.61261214</v>
+        <v>798391.921496259</v>
       </c>
       <c r="F27" t="n">
-        <v>1117902.7684626</v>
+        <v>870647</v>
       </c>
       <c r="G27" t="n">
-        <v>70199.1558504644</v>
+        <v>72255.0785037408</v>
       </c>
       <c r="H27" t="n">
-        <v>15595.997701795</v>
+        <v>15705.9198839991</v>
       </c>
       <c r="I27" t="n">
-        <v>266694.527010078</v>
+        <v>201565.885543819</v>
       </c>
       <c r="J27" t="n">
-        <v>1117907.03877095</v>
+        <v>870646.848990708</v>
       </c>
       <c r="K27" t="s">
         <v>147</v>
@@ -4542,28 +4542,28 @@
         <v>9.01117566522454</v>
       </c>
       <c r="C28" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
       <c r="D28" t="n">
-        <v>247184.246125758</v>
+        <v>180893.435388647</v>
       </c>
       <c r="E28" t="n">
-        <v>1047703.61261214</v>
+        <v>798391.921496259</v>
       </c>
       <c r="F28" t="n">
-        <v>1117902.7684626</v>
+        <v>870647</v>
       </c>
       <c r="G28" t="n">
-        <v>70199.1558504644</v>
+        <v>72255.0785037408</v>
       </c>
       <c r="H28" t="n">
-        <v>16434.7801365734</v>
+        <v>19798.9249883502</v>
       </c>
       <c r="I28" t="n">
-        <v>263619.026262331</v>
+        <v>200692.360376997</v>
       </c>
       <c r="J28" t="n">
-        <v>1117907.03877095</v>
+        <v>870646.848990708</v>
       </c>
       <c r="K28" t="s">
         <v>148</v>
@@ -4577,28 +4577,28 @@
         <v>10.5238126035059</v>
       </c>
       <c r="C29" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
       <c r="D29" t="n">
-        <v>268491.802370524</v>
+        <v>207928.940527052</v>
       </c>
       <c r="E29" t="n">
-        <v>1047703.61261214</v>
+        <v>798391.921496259</v>
       </c>
       <c r="F29" t="n">
-        <v>1117902.7684626</v>
+        <v>870647</v>
       </c>
       <c r="G29" t="n">
-        <v>70199.1558504644</v>
+        <v>72255.0785037408</v>
       </c>
       <c r="H29" t="n">
-        <v>20344.4978123907</v>
+        <v>24514.5489675767</v>
       </c>
       <c r="I29" t="n">
-        <v>288836.300182915</v>
+        <v>232443.489494629</v>
       </c>
       <c r="J29" t="n">
-        <v>1117907.03877095</v>
+        <v>870646.848990708</v>
       </c>
       <c r="K29" t="s">
         <v>149</v>
@@ -4612,28 +4612,28 @@
         <v>11.9127471155729</v>
       </c>
       <c r="C30" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
       <c r="D30" t="n">
-        <v>309528.508707786</v>
+        <v>238726.152220231</v>
       </c>
       <c r="E30" t="n">
-        <v>1167932.78653597</v>
+        <v>865857.067383995</v>
       </c>
       <c r="F30" t="n">
-        <v>1256432.56392952</v>
+        <v>990331</v>
       </c>
       <c r="G30" t="n">
-        <v>88499.7773935541</v>
+        <v>124473.932616005</v>
       </c>
       <c r="H30" t="n">
-        <v>27325.150729247</v>
+        <v>29852.7918216785</v>
       </c>
       <c r="I30" t="n">
-        <v>336853.659437033</v>
+        <v>268578.944041909</v>
       </c>
       <c r="J30" t="n">
-        <v>1256428.57202152</v>
+        <v>990331.667035198</v>
       </c>
       <c r="K30" t="s">
         <v>150</v>
@@ -4647,28 +4647,28 @@
         <v>10.8348612881606</v>
       </c>
       <c r="C31" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
       <c r="D31" t="n">
-        <v>294345.015358007</v>
+        <v>219460.995401616</v>
       </c>
       <c r="E31" t="n">
-        <v>1167932.78653597</v>
+        <v>865857.067383995</v>
       </c>
       <c r="F31" t="n">
-        <v>1256432.56392952</v>
+        <v>990331</v>
       </c>
       <c r="G31" t="n">
-        <v>88499.7773935541</v>
+        <v>124473.932616005</v>
       </c>
       <c r="H31" t="n">
-        <v>28036.9301528459</v>
+        <v>32494.4321997681</v>
       </c>
       <c r="I31" t="n">
-        <v>322381.945510853</v>
+        <v>251955.427601384</v>
       </c>
       <c r="J31" t="n">
-        <v>1256428.57202152</v>
+        <v>990331.667035198</v>
       </c>
       <c r="K31" t="s">
         <v>151</v>
@@ -4682,28 +4682,28 @@
         <v>9.02929647186484</v>
       </c>
       <c r="C32" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
       <c r="D32" t="n">
-        <v>268911.170062318</v>
+        <v>187189.962192451</v>
       </c>
       <c r="E32" t="n">
-        <v>1167932.78653597</v>
+        <v>865857.067383995</v>
       </c>
       <c r="F32" t="n">
-        <v>1256432.56392952</v>
+        <v>990331</v>
       </c>
       <c r="G32" t="n">
-        <v>88499.7773935541</v>
+        <v>124473.932616005</v>
       </c>
       <c r="H32" t="n">
-        <v>22479.8360831872</v>
+        <v>32439.4701018454</v>
       </c>
       <c r="I32" t="n">
-        <v>291391.006145506</v>
+        <v>219629.432294297</v>
       </c>
       <c r="J32" t="n">
-        <v>1256428.57202152</v>
+        <v>990331.667035198</v>
       </c>
       <c r="K32" t="s">
         <v>152</v>
@@ -4717,28 +4717,28 @@
         <v>10.8918722375126</v>
       </c>
       <c r="C33" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
       <c r="D33" t="n">
-        <v>295148.092407855</v>
+        <v>220479.957569698</v>
       </c>
       <c r="E33" t="n">
-        <v>1167932.78653597</v>
+        <v>865857.067383995</v>
       </c>
       <c r="F33" t="n">
-        <v>1256432.56392952</v>
+        <v>990331</v>
       </c>
       <c r="G33" t="n">
-        <v>88499.7773935541</v>
+        <v>124473.932616005</v>
       </c>
       <c r="H33" t="n">
-        <v>10653.868520271</v>
+        <v>29687.9055279105</v>
       </c>
       <c r="I33" t="n">
-        <v>305801.960928126</v>
+        <v>250167.863097608</v>
       </c>
       <c r="J33" t="n">
-        <v>1256428.57202152</v>
+        <v>990331.667035198</v>
       </c>
       <c r="K33" t="s">
         <v>153</v>
@@ -4752,28 +4752,28 @@
         <v>10.2441206518659</v>
       </c>
       <c r="C34" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
       <c r="D34" t="n">
-        <v>310464.240388893</v>
+        <v>213934.556226983</v>
       </c>
       <c r="E34" t="n">
-        <v>1265147.25400358</v>
+        <v>885289.470199509</v>
       </c>
       <c r="F34" t="n">
-        <v>1189856.47084328</v>
+        <v>953418</v>
       </c>
       <c r="G34" t="n">
-        <v>-75290.7831603053</v>
+        <v>68128.5298004912</v>
       </c>
       <c r="H34" t="n">
-        <v>-7440.97253590271</v>
+        <v>24239.7384779633</v>
       </c>
       <c r="I34" t="n">
-        <v>303023.26785299</v>
+        <v>238174.294704946</v>
       </c>
       <c r="J34" t="n">
-        <v>1189843.07427986</v>
+        <v>953419.35623298</v>
       </c>
       <c r="K34" t="s">
         <v>154</v>
@@ -4787,28 +4787,28 @@
         <v>10.4852423350932</v>
       </c>
       <c r="C35" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
       <c r="D35" t="n">
-        <v>313860.768463261</v>
+        <v>218244.147207407</v>
       </c>
       <c r="E35" t="n">
-        <v>1265147.25400358</v>
+        <v>885289.470199509</v>
       </c>
       <c r="F35" t="n">
-        <v>1189856.47084328</v>
+        <v>953418</v>
       </c>
       <c r="G35" t="n">
-        <v>-75290.7831603053</v>
+        <v>68128.5298004912</v>
       </c>
       <c r="H35" t="n">
-        <v>-19232.9379163831</v>
+        <v>19177.5648701462</v>
       </c>
       <c r="I35" t="n">
-        <v>294627.830546878</v>
+        <v>237421.712077554</v>
       </c>
       <c r="J35" t="n">
-        <v>1189843.07427986</v>
+        <v>953419.35623298</v>
       </c>
       <c r="K35" t="s">
         <v>155</v>
@@ -4822,28 +4822,28 @@
         <v>10.721518519552</v>
       </c>
       <c r="C36" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
       <c r="D36" t="n">
-        <v>317189.041072666</v>
+        <v>222467.134123407</v>
       </c>
       <c r="E36" t="n">
-        <v>1265147.25400358</v>
+        <v>885289.470199509</v>
       </c>
       <c r="F36" t="n">
-        <v>1189856.47084328</v>
+        <v>953418</v>
       </c>
       <c r="G36" t="n">
-        <v>-75290.7831603053</v>
+        <v>68128.5298004912</v>
       </c>
       <c r="H36" t="n">
-        <v>-24722.0276211702</v>
+        <v>14501.3847044592</v>
       </c>
       <c r="I36" t="n">
-        <v>292467.013451496</v>
+        <v>236968.518827866</v>
       </c>
       <c r="J36" t="n">
-        <v>1189843.07427986</v>
+        <v>953419.35623298</v>
       </c>
       <c r="K36" t="s">
         <v>156</v>
@@ -4857,28 +4857,28 @@
         <v>11.1789937404245</v>
       </c>
       <c r="C37" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
       <c r="D37" t="n">
-        <v>323633.204078762</v>
+        <v>230643.632641712</v>
       </c>
       <c r="E37" t="n">
-        <v>1265147.25400358</v>
+        <v>885289.470199509</v>
       </c>
       <c r="F37" t="n">
-        <v>1189856.47084328</v>
+        <v>953418</v>
       </c>
       <c r="G37" t="n">
-        <v>-75290.7831603053</v>
+        <v>68128.5298004912</v>
       </c>
       <c r="H37" t="n">
-        <v>-23908.2416502639</v>
+        <v>10211.1979809023</v>
       </c>
       <c r="I37" t="n">
-        <v>299724.962428498</v>
+        <v>240854.830622614</v>
       </c>
       <c r="J37" t="n">
-        <v>1189843.07427986</v>
+        <v>953419.35623298</v>
       </c>
       <c r="K37" t="s">
         <v>157</v>
@@ -4892,28 +4892,28 @@
         <v>11.3312759206842</v>
       </c>
       <c r="C38" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
       <c r="D38" t="n">
-        <v>310289.205980295</v>
+        <v>230970.878033098</v>
       </c>
       <c r="E38" t="n">
-        <v>1272457.7640826</v>
+        <v>963598.846863893</v>
       </c>
       <c r="F38" t="n">
-        <v>1236989.16620272</v>
+        <v>985082</v>
       </c>
       <c r="G38" t="n">
-        <v>-35468.597879885</v>
+        <v>21483.1531361069</v>
       </c>
       <c r="H38" t="n">
-        <v>-16791.5800036643</v>
+        <v>6307.00469947543</v>
       </c>
       <c r="I38" t="n">
-        <v>293497.62597663</v>
+        <v>237277.882732574</v>
       </c>
       <c r="J38" t="n">
-        <v>1236981.72978649</v>
+        <v>985083.028269016</v>
       </c>
       <c r="K38" t="s">
         <v>158</v>
@@ -4927,28 +4927,28 @@
         <v>12.1178813133434</v>
       </c>
       <c r="C39" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
       <c r="D39" t="n">
-        <v>321369.616766484</v>
+        <v>245029.951692436</v>
       </c>
       <c r="E39" t="n">
-        <v>1272457.7640826</v>
+        <v>963598.846863893</v>
       </c>
       <c r="F39" t="n">
-        <v>1236989.16620272</v>
+        <v>985082</v>
       </c>
       <c r="G39" t="n">
-        <v>-35468.597879885</v>
+        <v>21483.1531361069</v>
       </c>
       <c r="H39" t="n">
-        <v>-10775.8867731703</v>
+        <v>4370.94364762681</v>
       </c>
       <c r="I39" t="n">
-        <v>310593.729993313</v>
+        <v>249400.895340063</v>
       </c>
       <c r="J39" t="n">
-        <v>1236981.72978649</v>
+        <v>985083.028269016</v>
       </c>
       <c r="K39" t="s">
         <v>159</v>
@@ -4962,28 +4962,28 @@
         <v>10.4589062836713</v>
       </c>
       <c r="C40" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
       <c r="D40" t="n">
-        <v>298000.688731735</v>
+        <v>215378.931805176</v>
       </c>
       <c r="E40" t="n">
-        <v>1272457.7640826</v>
+        <v>963598.846863893</v>
       </c>
       <c r="F40" t="n">
-        <v>1236989.16620272</v>
+        <v>985082</v>
       </c>
       <c r="G40" t="n">
-        <v>-35468.597879885</v>
+        <v>21483.1531361069</v>
       </c>
       <c r="H40" t="n">
-        <v>-5861.16195878177</v>
+        <v>4403.01482535643</v>
       </c>
       <c r="I40" t="n">
-        <v>292139.526772953</v>
+        <v>219781.946630533</v>
       </c>
       <c r="J40" t="n">
-        <v>1236981.72978649</v>
+        <v>985083.028269016</v>
       </c>
       <c r="K40" t="s">
         <v>160</v>
@@ -4997,28 +4997,28 @@
         <v>13.6391137687502</v>
       </c>
       <c r="C41" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
       <c r="D41" t="n">
-        <v>342798.252604092</v>
+        <v>272219.085333182</v>
       </c>
       <c r="E41" t="n">
-        <v>1272457.7640826</v>
+        <v>963598.846863893</v>
       </c>
       <c r="F41" t="n">
-        <v>1236989.16620272</v>
+        <v>985082</v>
       </c>
       <c r="G41" t="n">
-        <v>-35468.597879885</v>
+        <v>21483.1531361069</v>
       </c>
       <c r="H41" t="n">
-        <v>-2047.40556049882</v>
+        <v>6403.21823266427</v>
       </c>
       <c r="I41" t="n">
-        <v>340750.847043593</v>
+        <v>278622.303565847</v>
       </c>
       <c r="J41" t="n">
-        <v>1236981.72978649</v>
+        <v>985083.028269016</v>
       </c>
       <c r="K41" t="s">
         <v>161</v>
@@ -5032,28 +5032,28 @@
         <v>11.6428691387851</v>
       </c>
       <c r="C42" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
       <c r="D42" t="n">
-        <v>309486.10114168</v>
+        <v>232822.841217781</v>
       </c>
       <c r="E42" t="n">
-        <v>1322462.78725154</v>
+        <v>1038530.18396031</v>
       </c>
       <c r="F42" t="n">
-        <v>1302568.21047313</v>
+        <v>1083865</v>
       </c>
       <c r="G42" t="n">
-        <v>-19894.5767784093</v>
+        <v>45334.8160396934</v>
       </c>
       <c r="H42" t="n">
-        <v>665.382421678591</v>
+        <v>10371.5538695503</v>
       </c>
       <c r="I42" t="n">
-        <v>310151.483563359</v>
+        <v>243194.395087331</v>
       </c>
       <c r="J42" t="n">
-        <v>1302562.77204223</v>
+        <v>1083865.51914637</v>
       </c>
       <c r="K42" t="s">
         <v>162</v>
@@ -5067,28 +5067,28 @@
         <v>12.3919304064259</v>
       </c>
       <c r="C43" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
       <c r="D43" t="n">
-        <v>320037.651673804</v>
+        <v>246210.885128233</v>
       </c>
       <c r="E43" t="n">
-        <v>1322462.78725154</v>
+        <v>1038530.18396031</v>
       </c>
       <c r="F43" t="n">
-        <v>1302568.21047313</v>
+        <v>1083865</v>
       </c>
       <c r="G43" t="n">
-        <v>-19894.5767784093</v>
+        <v>45334.8160396934</v>
       </c>
       <c r="H43" t="n">
-        <v>-505.656875053147</v>
+        <v>12343.8000950913</v>
       </c>
       <c r="I43" t="n">
-        <v>319531.994798751</v>
+        <v>258554.685223324</v>
       </c>
       <c r="J43" t="n">
-        <v>1302562.77204223</v>
+        <v>1083865.51914637</v>
       </c>
       <c r="K43" t="s">
         <v>163</v>
@@ -5102,28 +5102,28 @@
         <v>11.7483984681507</v>
       </c>
       <c r="C44" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
       <c r="D44" t="n">
-        <v>310972.625808653</v>
+        <v>234708.977047279</v>
       </c>
       <c r="E44" t="n">
-        <v>1322462.78725154</v>
+        <v>1038530.18396031</v>
       </c>
       <c r="F44" t="n">
-        <v>1302568.21047313</v>
+        <v>1083865</v>
       </c>
       <c r="G44" t="n">
-        <v>-19894.5767784093</v>
+        <v>45334.8160396934</v>
       </c>
       <c r="H44" t="n">
-        <v>-5560.52345069403</v>
+        <v>12319.9569092871</v>
       </c>
       <c r="I44" t="n">
-        <v>305412.102357959</v>
+        <v>247028.933956566</v>
       </c>
       <c r="J44" t="n">
-        <v>1302562.77204223</v>
+        <v>1083865.51914637</v>
       </c>
       <c r="K44" t="s">
         <v>164</v>
@@ -5137,28 +5137,28 @@
         <v>16.7882921587443</v>
       </c>
       <c r="C45" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
       <c r="D45" t="n">
-        <v>381966.408627403</v>
+        <v>324787.480567014</v>
       </c>
       <c r="E45" t="n">
-        <v>1322462.78725154</v>
+        <v>1038530.18396031</v>
       </c>
       <c r="F45" t="n">
-        <v>1302568.21047313</v>
+        <v>1083865</v>
       </c>
       <c r="G45" t="n">
-        <v>-19894.5767784093</v>
+        <v>45334.8160396934</v>
       </c>
       <c r="H45" t="n">
-        <v>-14499.2173052441</v>
+        <v>10300.0243121377</v>
       </c>
       <c r="I45" t="n">
-        <v>367467.191322159</v>
+        <v>335087.504879152</v>
       </c>
       <c r="J45" t="n">
-        <v>1302562.77204223</v>
+        <v>1083865.51914637</v>
       </c>
       <c r="K45" t="s">
         <v>165</v>
@@ -5172,28 +5172,28 @@
         <v>12.7515959096748</v>
       </c>
       <c r="C46" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
       <c r="D46" t="n">
-        <v>323885.308937493</v>
+        <v>253233.124328741</v>
       </c>
       <c r="E46" t="n">
-        <v>1364656.18346314</v>
+        <v>1100627.092724</v>
       </c>
       <c r="F46" t="n">
-        <v>1237643.03956075</v>
+        <v>1118119</v>
       </c>
       <c r="G46" t="n">
-        <v>-127013.143902397</v>
+        <v>17491.907276002</v>
       </c>
       <c r="H46" t="n">
-        <v>-27321.7384387032</v>
+        <v>6284.00230364317</v>
       </c>
       <c r="I46" t="n">
-        <v>296563.57049879</v>
+        <v>259517.126632385</v>
       </c>
       <c r="J46" t="n">
-        <v>1237638.07008958</v>
+        <v>1118119.60049034</v>
       </c>
       <c r="K46" t="s">
         <v>166</v>
@@ -5207,28 +5207,28 @@
         <v>14.4607563865404</v>
       </c>
       <c r="C47" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
       <c r="D47" t="n">
-        <v>347961.167506387</v>
+        <v>283781.113529085</v>
       </c>
       <c r="E47" t="n">
-        <v>1364656.18346314</v>
+        <v>1100627.092724</v>
       </c>
       <c r="F47" t="n">
-        <v>1237643.03956075</v>
+        <v>1118119</v>
       </c>
       <c r="G47" t="n">
-        <v>-127013.143902397</v>
+        <v>17491.907276002</v>
       </c>
       <c r="H47" t="n">
-        <v>-34223.8628539616</v>
+        <v>3913.24335542228</v>
       </c>
       <c r="I47" t="n">
-        <v>313737.304652425</v>
+        <v>287694.356884507</v>
       </c>
       <c r="J47" t="n">
-        <v>1237638.07008958</v>
+        <v>1118119.60049034</v>
       </c>
       <c r="K47" t="s">
         <v>167</v>
@@ -5242,28 +5242,28 @@
         <v>12.94756273816</v>
       </c>
       <c r="C48" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
       <c r="D48" t="n">
-        <v>326645.769239884</v>
+        <v>256735.658257661</v>
       </c>
       <c r="E48" t="n">
-        <v>1364656.18346314</v>
+        <v>1100627.092724</v>
       </c>
       <c r="F48" t="n">
-        <v>1237643.03956075</v>
+        <v>1118119</v>
       </c>
       <c r="G48" t="n">
-        <v>-127013.143902397</v>
+        <v>17491.907276002</v>
       </c>
       <c r="H48" t="n">
-        <v>-35205.5905510192</v>
+        <v>3187.74746747501</v>
       </c>
       <c r="I48" t="n">
-        <v>291440.178688865</v>
+        <v>259923.405725136</v>
       </c>
       <c r="J48" t="n">
-        <v>1237638.07008958</v>
+        <v>1118119.60049034</v>
       </c>
       <c r="K48" t="s">
         <v>168</v>
@@ -5277,28 +5277,28 @@
         <v>15.7529825985791</v>
       </c>
       <c r="C49" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
       <c r="D49" t="n">
-        <v>366163.937779378</v>
+        <v>306877.19660851</v>
       </c>
       <c r="E49" t="n">
-        <v>1364656.18346314</v>
+        <v>1100627.092724</v>
       </c>
       <c r="F49" t="n">
-        <v>1237643.03956075</v>
+        <v>1118119</v>
       </c>
       <c r="G49" t="n">
-        <v>-127013.143902397</v>
+        <v>17491.907276002</v>
       </c>
       <c r="H49" t="n">
-        <v>-30266.9215298759</v>
+        <v>4107.51463980135</v>
       </c>
       <c r="I49" t="n">
-        <v>335897.016249502</v>
+        <v>310984.711248312</v>
       </c>
       <c r="J49" t="n">
-        <v>1237638.07008958</v>
+        <v>1118119.60049034</v>
       </c>
       <c r="K49" t="s">
         <v>169</v>
@@ -5312,28 +5312,28 @@
         <v>13.3986549446632</v>
       </c>
       <c r="C50" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
       <c r="D50" t="n">
-        <v>306728.208537358</v>
+        <v>263114.319714484</v>
       </c>
       <c r="E50" t="n">
-        <v>1329316.61163501</v>
+        <v>1182389.48791093</v>
       </c>
       <c r="F50" t="n">
-        <v>1254727.22090894</v>
+        <v>1187401</v>
       </c>
       <c r="G50" t="n">
-        <v>-74589.3907260667</v>
+        <v>5011.51208907412</v>
       </c>
       <c r="H50" t="n">
-        <v>-19407.8557905319</v>
+        <v>6672.5448724013</v>
       </c>
       <c r="I50" t="n">
-        <v>287320.352746826</v>
+        <v>269786.864586886</v>
       </c>
       <c r="J50" t="n">
-        <v>1254732.36073082</v>
+        <v>1187401.36987507</v>
       </c>
       <c r="K50" t="s">
         <v>146</v>
@@ -5347,28 +5347,28 @@
         <v>16.7879730089583</v>
       </c>
       <c r="C51" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
       <c r="D51" t="n">
-        <v>354471.380384281</v>
+        <v>323691.926689394</v>
       </c>
       <c r="E51" t="n">
-        <v>1329316.61163501</v>
+        <v>1182389.48791093</v>
       </c>
       <c r="F51" t="n">
-        <v>1254727.22090894</v>
+        <v>1187401</v>
       </c>
       <c r="G51" t="n">
-        <v>-74589.3907260667</v>
+        <v>5011.51208907412</v>
       </c>
       <c r="H51" t="n">
-        <v>-14759.5122690005</v>
+        <v>5530.72721289523</v>
       </c>
       <c r="I51" t="n">
-        <v>339711.86811528</v>
+        <v>329222.653902289</v>
       </c>
       <c r="J51" t="n">
-        <v>1254732.36073082</v>
+        <v>1187401.36987507</v>
       </c>
       <c r="K51" t="s">
         <v>147</v>
@@ -5382,28 +5382,28 @@
         <v>13.3007279982884</v>
       </c>
       <c r="C52" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
       <c r="D52" t="n">
-        <v>305348.773813167</v>
+        <v>261364.062005643</v>
       </c>
       <c r="E52" t="n">
-        <v>1329316.61163501</v>
+        <v>1182389.48791093</v>
       </c>
       <c r="F52" t="n">
-        <v>1254727.22090894</v>
+        <v>1187401</v>
       </c>
       <c r="G52" t="n">
-        <v>-74589.3907260667</v>
+        <v>5011.51208907412</v>
       </c>
       <c r="H52" t="n">
-        <v>-16321.8909652817</v>
+        <v>682.061661283153</v>
       </c>
       <c r="I52" t="n">
-        <v>289026.882847885</v>
+        <v>262046.123666926</v>
       </c>
       <c r="J52" t="n">
-        <v>1254732.36073082</v>
+        <v>1187401.36987507</v>
       </c>
       <c r="K52" t="s">
         <v>148</v>
@@ -5417,28 +5417,28 @@
         <v>17.3769729695861</v>
       </c>
       <c r="C53" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
       <c r="D53" t="n">
-        <v>362768.2489002</v>
+        <v>334219.179501405</v>
       </c>
       <c r="E53" t="n">
-        <v>1329316.61163501</v>
+        <v>1182389.48791093</v>
       </c>
       <c r="F53" t="n">
-        <v>1254727.22090894</v>
+        <v>1187401</v>
       </c>
       <c r="G53" t="n">
-        <v>-74589.3907260667</v>
+        <v>5011.51208907412</v>
       </c>
       <c r="H53" t="n">
-        <v>-24094.9918793757</v>
+        <v>-7873.45178243496</v>
       </c>
       <c r="I53" t="n">
-        <v>338673.257020824</v>
+        <v>326345.72771897</v>
       </c>
       <c r="J53" t="n">
-        <v>1254732.36073082</v>
+        <v>1187401.36987507</v>
       </c>
       <c r="K53" t="s">
         <v>149</v>
@@ -5452,28 +5452,28 @@
         <v>16.0192758607371</v>
       </c>
       <c r="C54" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
       <c r="D54" t="n">
-        <v>331289.249566075</v>
+        <v>308682.515367374</v>
       </c>
       <c r="E54" t="n">
-        <v>1337281.47219022</v>
+        <v>1250113.86585135</v>
       </c>
       <c r="F54" t="n">
-        <v>1206495.87003594</v>
+        <v>1155632</v>
       </c>
       <c r="G54" t="n">
-        <v>-130785.602154276</v>
+        <v>-94481.8658513452</v>
       </c>
       <c r="H54" t="n">
-        <v>-38078.8150112822</v>
+        <v>-20135.8131182591</v>
       </c>
       <c r="I54" t="n">
-        <v>293210.434554792</v>
+        <v>288546.702249115</v>
       </c>
       <c r="J54" t="n">
-        <v>1206505.76362333</v>
+        <v>1155632.19587285</v>
       </c>
       <c r="K54" t="s">
         <v>150</v>
@@ -5487,28 +5487,28 @@
         <v>18.0480441521233</v>
       </c>
       <c r="C55" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
       <c r="D55" t="n">
-        <v>359867.220513568</v>
+        <v>344942.885703645</v>
       </c>
       <c r="E55" t="n">
-        <v>1337281.47219022</v>
+        <v>1250113.86585135</v>
       </c>
       <c r="F55" t="n">
-        <v>1206495.87003594</v>
+        <v>1155632</v>
       </c>
       <c r="G55" t="n">
-        <v>-130785.602154276</v>
+        <v>-94481.8658513452</v>
       </c>
       <c r="H55" t="n">
-        <v>-41518.3891162213</v>
+        <v>-26434.599403135</v>
       </c>
       <c r="I55" t="n">
-        <v>318348.831397347</v>
+        <v>318508.28630051</v>
       </c>
       <c r="J55" t="n">
-        <v>1206505.76362333</v>
+        <v>1155632.19587285</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
@@ -5522,28 +5522,28 @@
         <v>14.8314652467803</v>
       </c>
       <c r="C56" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
       <c r="D56" t="n">
-        <v>314557.31553452</v>
+        <v>287452.662291349</v>
       </c>
       <c r="E56" t="n">
-        <v>1337281.47219022</v>
+        <v>1250113.86585135</v>
       </c>
       <c r="F56" t="n">
-        <v>1206495.87003594</v>
+        <v>1155632</v>
       </c>
       <c r="G56" t="n">
-        <v>-130785.602154276</v>
+        <v>-94481.8658513452</v>
       </c>
       <c r="H56" t="n">
-        <v>-34413.7141941929</v>
+        <v>-26769.8106370625</v>
       </c>
       <c r="I56" t="n">
-        <v>280143.601340327</v>
+        <v>260682.851654286</v>
       </c>
       <c r="J56" t="n">
-        <v>1206505.76362333</v>
+        <v>1155632.19587285</v>
       </c>
       <c r="K56" t="s">
         <v>152</v>
@@ -5557,28 +5557,28 @@
         <v>16.0390422807548</v>
       </c>
       <c r="C57" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
       <c r="D57" t="n">
-        <v>331567.686576057</v>
+        <v>309035.802488977</v>
       </c>
       <c r="E57" t="n">
-        <v>1337281.47219022</v>
+        <v>1250113.86585135</v>
       </c>
       <c r="F57" t="n">
-        <v>1206495.87003594</v>
+        <v>1155632</v>
       </c>
       <c r="G57" t="n">
-        <v>-130785.602154276</v>
+        <v>-94481.8658513452</v>
       </c>
       <c r="H57" t="n">
-        <v>-16764.790245197</v>
+        <v>-21141.4468200418</v>
       </c>
       <c r="I57" t="n">
-        <v>314802.89633086</v>
+        <v>287894.355668935</v>
       </c>
       <c r="J57" t="n">
-        <v>1206505.76362333</v>
+        <v>1155632.19587285</v>
       </c>
       <c r="K57" t="s">
         <v>153</v>
@@ -5592,28 +5592,28 @@
         <v>0.0977424856544318</v>
       </c>
       <c r="C58" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
       <c r="D58" t="n">
-        <v>82237.8577484115</v>
+        <v>17201.5150973069</v>
       </c>
       <c r="E58" t="n">
-        <v>1014301.34077203</v>
+        <v>938393.393379142</v>
       </c>
       <c r="F58" t="n">
-        <v>1112020.85445878</v>
+        <v>929833</v>
       </c>
       <c r="G58" t="n">
-        <v>97719.5136867524</v>
+        <v>-8560.39337914228</v>
       </c>
       <c r="H58" t="n">
-        <v>11428.3827307664</v>
+        <v>-9549.50795207289</v>
       </c>
       <c r="I58" t="n">
-        <v>93666.240479178</v>
+        <v>7652.00714523399</v>
       </c>
       <c r="J58" t="n">
-        <v>1112040.28131805</v>
+        <v>929832.248909377</v>
       </c>
       <c r="K58" t="s">
         <v>154</v>
@@ -5627,28 +5627,28 @@
         <v>14.0447704192465</v>
       </c>
       <c r="C59" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
       <c r="D59" t="n">
-        <v>278700.785911458</v>
+        <v>266478.083599282</v>
       </c>
       <c r="E59" t="n">
-        <v>1014301.34077203</v>
+        <v>938393.393379142</v>
       </c>
       <c r="F59" t="n">
-        <v>1112020.85445878</v>
+        <v>929833</v>
       </c>
       <c r="G59" t="n">
-        <v>97719.5136867524</v>
+        <v>-8560.39337914228</v>
       </c>
       <c r="H59" t="n">
-        <v>27908.1928834472</v>
+        <v>-1949.04367103264</v>
       </c>
       <c r="I59" t="n">
-        <v>306608.978794906</v>
+        <v>264529.039928249</v>
       </c>
       <c r="J59" t="n">
-        <v>1112040.28131805</v>
+        <v>929832.248909377</v>
       </c>
       <c r="K59" t="s">
         <v>155</v>
@@ -5662,28 +5662,28 @@
         <v>17.2785456875479</v>
       </c>
       <c r="C60" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
       <c r="D60" t="n">
-        <v>324252.925138308</v>
+        <v>324275.659256759</v>
       </c>
       <c r="E60" t="n">
-        <v>1014301.34077203</v>
+        <v>938393.393379142</v>
       </c>
       <c r="F60" t="n">
-        <v>1112020.85445878</v>
+        <v>929833</v>
       </c>
       <c r="G60" t="n">
-        <v>97719.5136867524</v>
+        <v>-8560.39337914228</v>
       </c>
       <c r="H60" t="n">
-        <v>32674.6402128452</v>
+        <v>1659.94602307889</v>
       </c>
       <c r="I60" t="n">
-        <v>356927.565351153</v>
+        <v>325935.605279838</v>
       </c>
       <c r="J60" t="n">
-        <v>1112040.28131805</v>
+        <v>929832.248909377</v>
       </c>
       <c r="K60" t="s">
         <v>156</v>
@@ -5697,28 +5697,28 @@
         <v>17.6233363262596</v>
       </c>
       <c r="C61" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
       <c r="D61" t="n">
-        <v>329109.771973851</v>
+        <v>330438.135425795</v>
       </c>
       <c r="E61" t="n">
-        <v>1014301.34077203</v>
+        <v>938393.393379142</v>
       </c>
       <c r="F61" t="n">
-        <v>1112020.85445878</v>
+        <v>929833</v>
       </c>
       <c r="G61" t="n">
-        <v>97719.5136867524</v>
+        <v>-8560.39337914228</v>
       </c>
       <c r="H61" t="n">
-        <v>25727.7247189606</v>
+        <v>1277.46113026171</v>
       </c>
       <c r="I61" t="n">
-        <v>354837.496692812</v>
+        <v>331715.596556057</v>
       </c>
       <c r="J61" t="n">
-        <v>1112040.28131805</v>
+        <v>929832.248909377</v>
       </c>
       <c r="K61" t="s">
         <v>157</v>
@@ -5732,28 +5732,28 @@
         <v>17.868151976636</v>
       </c>
       <c r="C62" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
       <c r="D62" t="n">
-        <v>362914.764073711</v>
+        <v>338665.95553136</v>
       </c>
       <c r="E62" t="n">
-        <v>1499171.97140343</v>
+        <v>1414949.27418774</v>
       </c>
       <c r="F62" t="n">
-        <v>1462620.59665899</v>
+        <v>1403276</v>
       </c>
       <c r="G62" t="n">
-        <v>-36551.3747444397</v>
+        <v>-11673.2741877406</v>
       </c>
       <c r="H62" t="n">
-        <v>7067.44640179338</v>
+        <v>-3096.49834948418</v>
       </c>
       <c r="I62" t="n">
-        <v>369982.210475505</v>
+        <v>335569.457181876</v>
       </c>
       <c r="J62" t="n">
-        <v>1462628.34247922</v>
+        <v>1403275.77652698</v>
       </c>
       <c r="K62" t="s">
         <v>158</v>
@@ -5767,28 +5767,28 @@
         <v>19.0161167301949</v>
       </c>
       <c r="C63" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
       <c r="D63" t="n">
-        <v>379085.414766175</v>
+        <v>359183.639721204</v>
       </c>
       <c r="E63" t="n">
-        <v>1499171.97140343</v>
+        <v>1414949.27418774</v>
       </c>
       <c r="F63" t="n">
-        <v>1462620.59665899</v>
+        <v>1403276</v>
       </c>
       <c r="G63" t="n">
-        <v>-36551.3747444397</v>
+        <v>-11673.2741877406</v>
       </c>
       <c r="H63" t="n">
-        <v>-6878.00637821198</v>
+        <v>-4774.83256766452</v>
       </c>
       <c r="I63" t="n">
-        <v>372207.408387963</v>
+        <v>354408.807153539</v>
       </c>
       <c r="J63" t="n">
-        <v>1462628.34247922</v>
+        <v>1403275.77652698</v>
       </c>
       <c r="K63" t="s">
         <v>159</v>
@@ -5802,28 +5802,28 @@
         <v>19.6337210138089</v>
       </c>
       <c r="C64" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
       <c r="D64" t="n">
-        <v>387785.214220409</v>
+        <v>370222.140342589</v>
       </c>
       <c r="E64" t="n">
-        <v>1499171.97140343</v>
+        <v>1414949.27418774</v>
       </c>
       <c r="F64" t="n">
-        <v>1462620.59665899</v>
+        <v>1403276</v>
       </c>
       <c r="G64" t="n">
-        <v>-36551.3747444397</v>
+        <v>-11673.2741877406</v>
       </c>
       <c r="H64" t="n">
-        <v>-16108.6336210554</v>
+        <v>-3757.54152427931</v>
       </c>
       <c r="I64" t="n">
-        <v>371676.580599354</v>
+        <v>366464.59881831</v>
       </c>
       <c r="J64" t="n">
-        <v>1462628.34247922</v>
+        <v>1403275.77652698</v>
       </c>
       <c r="K64" t="s">
         <v>160</v>
@@ -5837,28 +5837,28 @@
         <v>18.3275901782376</v>
       </c>
       <c r="C65" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
       <c r="D65" t="n">
-        <v>369386.578343131</v>
+        <v>346877.538592588</v>
       </c>
       <c r="E65" t="n">
-        <v>1499171.97140343</v>
+        <v>1414949.27418774</v>
       </c>
       <c r="F65" t="n">
-        <v>1462620.59665899</v>
+        <v>1403276</v>
       </c>
       <c r="G65" t="n">
-        <v>-36551.3747444397</v>
+        <v>-11673.2741877406</v>
       </c>
       <c r="H65" t="n">
-        <v>-20624.435326737</v>
+        <v>-44.625219328545</v>
       </c>
       <c r="I65" t="n">
-        <v>348762.143016394</v>
+        <v>346832.91337326</v>
       </c>
       <c r="J65" t="n">
-        <v>1462628.34247922</v>
+        <v>1403275.77652698</v>
       </c>
       <c r="K65" t="s">
         <v>161</v>
@@ -5872,28 +5872,28 @@
         <v>18.0671285639402</v>
       </c>
       <c r="C66" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
       <c r="D66" t="n">
-        <v>362704.356634217</v>
+        <v>343035.221157341</v>
       </c>
       <c r="E66" t="n">
-        <v>1566523.40111169</v>
+        <v>1518951.21962168</v>
       </c>
       <c r="F66" t="n">
-        <v>1486238.45438762</v>
+        <v>1590431</v>
       </c>
       <c r="G66" t="n">
-        <v>-80284.9467240777</v>
+        <v>71479.7803783151</v>
       </c>
       <c r="H66" t="n">
-        <v>-20425.4114952566</v>
+        <v>6363.91634718777</v>
       </c>
       <c r="I66" t="n">
-        <v>342278.945138961</v>
+        <v>349399.137504528</v>
       </c>
       <c r="J66" t="n">
-        <v>1486247.35970053</v>
+        <v>1590430.88787107</v>
       </c>
       <c r="K66" t="s">
         <v>162</v>
@@ -5907,28 +5907,28 @@
         <v>20.8122714076788</v>
       </c>
       <c r="C67" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
       <c r="D67" t="n">
-        <v>401373.441106884</v>
+        <v>392099.422605359</v>
       </c>
       <c r="E67" t="n">
-        <v>1566523.40111169</v>
+        <v>1518951.21962168</v>
       </c>
       <c r="F67" t="n">
-        <v>1486238.45438762</v>
+        <v>1590431</v>
       </c>
       <c r="G67" t="n">
-        <v>-80284.9467240777</v>
+        <v>71479.7803783151</v>
       </c>
       <c r="H67" t="n">
-        <v>-20203.2415056779</v>
+        <v>13529.7332598573</v>
       </c>
       <c r="I67" t="n">
-        <v>381170.199601206</v>
+        <v>405629.155865216</v>
       </c>
       <c r="J67" t="n">
-        <v>1486247.35970053</v>
+        <v>1590430.88787107</v>
       </c>
       <c r="K67" t="s">
         <v>163</v>
@@ -5942,28 +5942,28 @@
         <v>19.5955177898177</v>
       </c>
       <c r="C68" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
       <c r="D68" t="n">
-        <v>384233.805353935</v>
+        <v>370352.268443415</v>
       </c>
       <c r="E68" t="n">
-        <v>1566523.40111169</v>
+        <v>1518951.21962168</v>
       </c>
       <c r="F68" t="n">
-        <v>1486238.45438762</v>
+        <v>1590431</v>
       </c>
       <c r="G68" t="n">
-        <v>-80284.9467240777</v>
+        <v>71479.7803783151</v>
       </c>
       <c r="H68" t="n">
-        <v>-19957.925358001</v>
+        <v>21452.8255186802</v>
       </c>
       <c r="I68" t="n">
-        <v>364275.879995934</v>
+        <v>391805.093962095</v>
       </c>
       <c r="J68" t="n">
-        <v>1486247.35970053</v>
+        <v>1590430.88787107</v>
       </c>
       <c r="K68" t="s">
         <v>164</v>
@@ -5977,28 +5977,28 @@
         <v>22.00763704929</v>
       </c>
       <c r="C69" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
       <c r="D69" t="n">
-        <v>418211.798016659</v>
+        <v>413464.30741557</v>
       </c>
       <c r="E69" t="n">
-        <v>1566523.40111169</v>
+        <v>1518951.21962168</v>
       </c>
       <c r="F69" t="n">
-        <v>1486238.45438762</v>
+        <v>1590431</v>
       </c>
       <c r="G69" t="n">
-        <v>-80284.9467240777</v>
+        <v>71479.7803783151</v>
       </c>
       <c r="H69" t="n">
-        <v>-19689.4630522257</v>
+        <v>30133.1931236562</v>
       </c>
       <c r="I69" t="n">
-        <v>398522.334964433</v>
+        <v>443597.500539226</v>
       </c>
       <c r="J69" t="n">
-        <v>1486247.35970053</v>
+        <v>1590430.88787107</v>
       </c>
       <c r="K69" t="s">
         <v>165</v>
@@ -6012,28 +6012,28 @@
         <v>19.4336483530636</v>
       </c>
       <c r="C70" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
       <c r="D70" t="n">
-        <v>368867.03400298</v>
+        <v>373171.755039121</v>
       </c>
       <c r="E70" t="n">
-        <v>1616617.90545549</v>
+        <v>1671781.01259937</v>
       </c>
       <c r="F70" t="n">
-        <v>1605684.7941305</v>
+        <v>1834812</v>
       </c>
       <c r="G70" t="n">
-        <v>-10933.1113249906</v>
+        <v>163030.987400634</v>
       </c>
       <c r="H70" t="n">
-        <v>-19397.8545883522</v>
+        <v>39570.8360747855</v>
       </c>
       <c r="I70" t="n">
-        <v>349469.179414627</v>
+        <v>412742.591113907</v>
       </c>
       <c r="J70" t="n">
-        <v>1605698.73512496</v>
+        <v>1834812.67029679</v>
       </c>
       <c r="K70" t="s">
         <v>166</v>
@@ -6047,28 +6047,28 @@
         <v>23.7715703226929</v>
       </c>
       <c r="C71" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
       <c r="D71" t="n">
-        <v>429972.586838615</v>
+        <v>450703.850634489</v>
       </c>
       <c r="E71" t="n">
-        <v>1616617.90545549</v>
+        <v>1671781.01259937</v>
       </c>
       <c r="F71" t="n">
-        <v>1605684.7941305</v>
+        <v>1834812</v>
       </c>
       <c r="G71" t="n">
-        <v>-10933.1113249906</v>
+        <v>163030.987400634</v>
       </c>
       <c r="H71" t="n">
-        <v>-12613.9864005148</v>
+        <v>43820.7245950659</v>
       </c>
       <c r="I71" t="n">
-        <v>417358.6004381</v>
+        <v>494524.575229555</v>
       </c>
       <c r="J71" t="n">
-        <v>1605698.73512496</v>
+        <v>1834812.67029679</v>
       </c>
       <c r="K71" t="s">
         <v>167</v>
@@ -6082,28 +6082,28 @@
         <v>20.6653025217431</v>
       </c>
       <c r="C72" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
       <c r="D72" t="n">
-        <v>386216.564355621</v>
+        <v>395185.22817558</v>
       </c>
       <c r="E72" t="n">
-        <v>1616617.90545549</v>
+        <v>1671781.01259937</v>
       </c>
       <c r="F72" t="n">
-        <v>1605684.7941305</v>
+        <v>1834812</v>
       </c>
       <c r="G72" t="n">
-        <v>-10933.1113249906</v>
+        <v>163030.987400634</v>
       </c>
       <c r="H72" t="n">
-        <v>662.141511286611</v>
+        <v>42882.8586844974</v>
       </c>
       <c r="I72" t="n">
-        <v>386878.705866908</v>
+        <v>438068.086860078</v>
       </c>
       <c r="J72" t="n">
-        <v>1605698.73512496</v>
+        <v>1834812.67029679</v>
       </c>
       <c r="K72" t="s">
         <v>168</v>
@@ -6117,28 +6117,28 @@
         <v>23.8843839125212</v>
       </c>
       <c r="C73" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
       <c r="D73" t="n">
-        <v>431561.720258278</v>
+        <v>452720.178750176</v>
       </c>
       <c r="E73" t="n">
-        <v>1616617.90545549</v>
+        <v>1671781.01259937</v>
       </c>
       <c r="F73" t="n">
-        <v>1605684.7941305</v>
+        <v>1834812</v>
       </c>
       <c r="G73" t="n">
-        <v>-10933.1113249906</v>
+        <v>163030.987400634</v>
       </c>
       <c r="H73" t="n">
-        <v>20430.5291470519</v>
+        <v>36757.23834308</v>
       </c>
       <c r="I73" t="n">
-        <v>451992.24940533</v>
+        <v>489477.417093256</v>
       </c>
       <c r="J73" t="n">
-        <v>1605698.73512496</v>
+        <v>1834812.67029679</v>
       </c>
       <c r="K73" t="s">
         <v>169</v>
@@ -6152,28 +6152,28 @@
         <v>22.8865176364712</v>
       </c>
       <c r="C74" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
       <c r="D74" t="n">
-        <v>421494.586890047</v>
+        <v>442448.8014648</v>
       </c>
       <c r="E74" t="n">
-        <v>1805063.48476272</v>
+        <v>1920893.09816383</v>
       </c>
       <c r="F74" t="n">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
       <c r="G74" t="n">
-        <v>194719.515237284</v>
+        <v>79106.901836168</v>
       </c>
       <c r="H74" t="n">
-        <v>46691.1765067812</v>
+        <v>25443.8635708138</v>
       </c>
       <c r="I74" t="n">
-        <v>468185.763396828</v>
+        <v>467892.665035613</v>
       </c>
       <c r="J74" t="n">
-        <v>1999795.4059749</v>
+        <v>2000001.70624314</v>
       </c>
       <c r="K74" t="s">
         <v>146</v>
@@ -6187,28 +6187,28 @@
         <v>26.7654547629451</v>
       </c>
       <c r="C75" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
       <c r="D75" t="n">
-        <v>476134.711628878</v>
+        <v>511777.416917949</v>
       </c>
       <c r="E75" t="n">
-        <v>1805063.48476272</v>
+        <v>1920893.09816383</v>
       </c>
       <c r="F75" t="n">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
       <c r="G75" t="n">
-        <v>194719.515237284</v>
+        <v>79106.901836168</v>
       </c>
       <c r="H75" t="n">
-        <v>57992.1569691786</v>
+        <v>18651.8290415128</v>
       </c>
       <c r="I75" t="n">
-        <v>534126.868598056</v>
+        <v>530429.245959462</v>
       </c>
       <c r="J75" t="n">
-        <v>1999795.4059749</v>
+        <v>2000001.70624314</v>
       </c>
       <c r="K75" t="s">
         <v>147</v>
@@ -6222,28 +6222,28 @@
         <v>23.742438811814</v>
       </c>
       <c r="C76" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
       <c r="D76" t="n">
-        <v>433551.405101444</v>
+        <v>457746.762759028</v>
       </c>
       <c r="E76" t="n">
-        <v>1805063.48476272</v>
+        <v>1920893.09816383</v>
       </c>
       <c r="F76" t="n">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
       <c r="G76" t="n">
-        <v>194719.515237284</v>
+        <v>79106.901836168</v>
       </c>
       <c r="H76" t="n">
-        <v>54333.4705342441</v>
+        <v>16381.1347551772</v>
       </c>
       <c r="I76" t="n">
-        <v>487884.875635688</v>
+        <v>474127.897514206</v>
       </c>
       <c r="J76" t="n">
-        <v>1999795.4059749</v>
+        <v>2000001.70624314</v>
       </c>
       <c r="K76" t="s">
         <v>148</v>
@@ -6257,28 +6257,28 @@
         <v>26.6055887887697</v>
       </c>
       <c r="C77" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
       <c r="D77" t="n">
-        <v>473882.781142347</v>
+        <v>508920.117022055</v>
       </c>
       <c r="E77" t="n">
-        <v>1805063.48476272</v>
+        <v>1920893.09816383</v>
       </c>
       <c r="F77" t="n">
-        <v>1999783</v>
+        <v>2000000</v>
       </c>
       <c r="G77" t="n">
-        <v>194719.515237284</v>
+        <v>79106.901836168</v>
       </c>
       <c r="H77" t="n">
-        <v>35715.1172019776</v>
+        <v>18631.780711807</v>
       </c>
       <c r="I77" t="n">
-        <v>509597.898344325</v>
+        <v>527551.897733862</v>
       </c>
       <c r="J77" t="n">
-        <v>1999795.4059749</v>
+        <v>2000001.70624314</v>
       </c>
       <c r="K77" t="s">
         <v>149</v>
@@ -6292,28 +6292,28 @@
         <v>27.5104125266935</v>
       </c>
       <c r="C78" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
       <c r="D78" t="n">
-        <v>538614.337115009</v>
+        <v>521543.779377174</v>
       </c>
       <c r="E78" t="n">
-        <v>2136166.30965842</v>
+        <v>2062967.03734092</v>
       </c>
       <c r="F78" t="n">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
       <c r="G78" t="n">
-        <v>-97930.3096584165</v>
+        <v>17032.9626590803</v>
       </c>
       <c r="H78" t="n">
-        <v>2137.09697237922</v>
+        <v>25403.766911402</v>
       </c>
       <c r="I78" t="n">
-        <v>540751.434087388</v>
+        <v>546947.546288576</v>
       </c>
       <c r="J78" t="n">
-        <v>2038228.40200585</v>
+        <v>2080001.22024474</v>
       </c>
       <c r="K78" t="s">
         <v>150</v>
@@ -6327,28 +6327,28 @@
         <v>29.6083132872694</v>
       </c>
       <c r="C79" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
       <c r="D79" t="n">
-        <v>568166.133266899</v>
+        <v>559039.76096867</v>
       </c>
       <c r="E79" t="n">
-        <v>2136166.30965842</v>
+        <v>2062967.03734092</v>
       </c>
       <c r="F79" t="n">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
       <c r="G79" t="n">
-        <v>-97930.3096584165</v>
+        <v>17032.9626590803</v>
       </c>
       <c r="H79" t="n">
-        <v>-21942.7406736681</v>
+        <v>19654.4729170614</v>
       </c>
       <c r="I79" t="n">
-        <v>546223.39259323</v>
+        <v>578694.233885731</v>
       </c>
       <c r="J79" t="n">
-        <v>2038228.40200585</v>
+        <v>2080001.22024474</v>
       </c>
       <c r="K79" t="s">
         <v>151</v>
@@ -6362,28 +6362,28 @@
         <v>25.2792692907187</v>
       </c>
       <c r="C80" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
       <c r="D80" t="n">
-        <v>507185.638801798</v>
+        <v>481666.342237995</v>
       </c>
       <c r="E80" t="n">
-        <v>2136166.30965842</v>
+        <v>2062967.03734092</v>
       </c>
       <c r="F80" t="n">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
       <c r="G80" t="n">
-        <v>-97930.3096584165</v>
+        <v>17032.9626590803</v>
       </c>
       <c r="H80" t="n">
-        <v>-36524.3957361645</v>
+        <v>1383.89872878499</v>
       </c>
       <c r="I80" t="n">
-        <v>470661.243065634</v>
+        <v>483050.24096678</v>
       </c>
       <c r="J80" t="n">
-        <v>2038228.40200585</v>
+        <v>2080001.22024474</v>
       </c>
       <c r="K80" t="s">
         <v>152</v>
@@ -6397,28 +6397,28 @@
         <v>26.3451625511966</v>
       </c>
       <c r="C81" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
       <c r="D81" t="n">
-        <v>522200.200474711</v>
+        <v>500717.154757081</v>
       </c>
       <c r="E81" t="n">
-        <v>2136166.30965842</v>
+        <v>2062967.03734092</v>
       </c>
       <c r="F81" t="n">
-        <v>2038236</v>
+        <v>2080000</v>
       </c>
       <c r="G81" t="n">
-        <v>-97930.3096584165</v>
+        <v>17032.9626590803</v>
       </c>
       <c r="H81" t="n">
-        <v>-41607.8682151098</v>
+        <v>-29407.9556534271</v>
       </c>
       <c r="I81" t="n">
-        <v>480592.332259601</v>
+        <v>471309.199103654</v>
       </c>
       <c r="J81" t="n">
-        <v>2038228.40200585</v>
+        <v>2080001.22024474</v>
       </c>
       <c r="K81" t="s">
         <v>153</v>
@@ -6432,28 +6432,28 @@
         <v>36.4266988798614</v>
       </c>
       <c r="C82" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
       <c r="D82" t="n">
-        <v>644341.704574726</v>
+        <v>675863.060912484</v>
       </c>
       <c r="E82" t="n">
-        <v>2489417.55572671</v>
+        <v>2591860.24722972</v>
       </c>
       <c r="F82" t="n">
-        <v>2451701.34578281</v>
+        <v>2287000</v>
       </c>
       <c r="G82" t="n">
-        <v>-37716.2099439004</v>
+        <v>-304860.24722972</v>
       </c>
       <c r="H82" t="n">
-        <v>-37193.1581105042</v>
+        <v>-72721.090229575</v>
       </c>
       <c r="I82" t="n">
-        <v>607148.546464222</v>
+        <v>603141.970682909</v>
       </c>
       <c r="J82" t="n">
-        <v>2451701.39395791</v>
+        <v>2287000.52961772</v>
       </c>
       <c r="K82" t="s">
         <v>154</v>
@@ -6467,28 +6467,28 @@
         <v>36.6392201947552</v>
       </c>
       <c r="C83" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
       <c r="D83" t="n">
-        <v>647335.357417461</v>
+        <v>679661.47476542</v>
       </c>
       <c r="E83" t="n">
-        <v>2489417.55572671</v>
+        <v>2591860.24722972</v>
       </c>
       <c r="F83" t="n">
-        <v>2451701.34578281</v>
+        <v>2287000</v>
       </c>
       <c r="G83" t="n">
-        <v>-37716.2099439004</v>
+        <v>-304860.24722972</v>
       </c>
       <c r="H83" t="n">
-        <v>-24321.6270013404</v>
+        <v>-91443.8797294046</v>
       </c>
       <c r="I83" t="n">
-        <v>623013.73041612</v>
+        <v>588217.595036016</v>
       </c>
       <c r="J83" t="n">
-        <v>2451701.39395791</v>
+        <v>2287000.52961772</v>
       </c>
       <c r="K83" t="s">
         <v>155</v>
@@ -6502,28 +6502,28 @@
         <v>34.1124802191808</v>
       </c>
       <c r="C84" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
       <c r="D84" t="n">
-        <v>611742.775494516</v>
+        <v>634500.808736287</v>
       </c>
       <c r="E84" t="n">
-        <v>2489417.55572671</v>
+        <v>2591860.24722972</v>
       </c>
       <c r="F84" t="n">
-        <v>2451701.34578281</v>
+        <v>2287000</v>
       </c>
       <c r="G84" t="n">
-        <v>-37716.2099439004</v>
+        <v>-304860.24722972</v>
       </c>
       <c r="H84" t="n">
-        <v>-2993.27488761857</v>
+        <v>-85576.3241529158</v>
       </c>
       <c r="I84" t="n">
-        <v>608749.500606898</v>
+        <v>548924.484583371</v>
       </c>
       <c r="J84" t="n">
-        <v>2451701.39395791</v>
+        <v>2287000.52961772</v>
       </c>
       <c r="K84" t="s">
         <v>156</v>
@@ -6537,28 +6537,28 @@
         <v>32.2848222684526</v>
       </c>
       <c r="C85" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
       <c r="D85" t="n">
-        <v>585997.718240009</v>
+        <v>601834.90281553</v>
       </c>
       <c r="E85" t="n">
-        <v>2489417.55572671</v>
+        <v>2591860.24722972</v>
       </c>
       <c r="F85" t="n">
-        <v>2451701.34578281</v>
+        <v>2287000</v>
       </c>
       <c r="G85" t="n">
-        <v>-37716.2099439004</v>
+        <v>-304860.24722972</v>
       </c>
       <c r="H85" t="n">
-        <v>26791.8982306614</v>
+        <v>-55118.4235001089</v>
       </c>
       <c r="I85" t="n">
-        <v>612789.61647067</v>
+        <v>546716.479315421</v>
       </c>
       <c r="J85" t="n">
-        <v>2451701.39395791</v>
+        <v>2287000.52961772</v>
       </c>
       <c r="K85" t="s">
         <v>157</v>
@@ -6572,28 +6572,28 @@
         <v>29.0529285723371</v>
       </c>
       <c r="C86" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
       <c r="D86" t="n">
-        <v>535951.967553948</v>
+        <v>521455.718996872</v>
       </c>
       <c r="E86" t="n">
-        <v>2257950.56335662</v>
+        <v>2230649.68444321</v>
       </c>
       <c r="F86" t="n">
-        <v>2600850.2537296</v>
+        <v>2411000</v>
       </c>
       <c r="G86" t="n">
-        <v>342899.690372978</v>
+        <v>180350.315556793</v>
       </c>
       <c r="H86" t="n">
-        <v>65033.8923534995</v>
+        <v>-70.1777709835878</v>
       </c>
       <c r="I86" t="n">
-        <v>600985.859907447</v>
+        <v>521385.541225889</v>
       </c>
       <c r="J86" t="n">
-        <v>2600852.04122819</v>
+        <v>2410997.43212084</v>
       </c>
       <c r="K86" t="s">
         <v>158</v>
@@ -6607,28 +6607,28 @@
         <v>34.5333055575326</v>
       </c>
       <c r="C87" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
       <c r="D87" t="n">
-        <v>613150.558900827</v>
+        <v>619407.022706271</v>
       </c>
       <c r="E87" t="n">
-        <v>2257950.56335662</v>
+        <v>2230649.68444321</v>
       </c>
       <c r="F87" t="n">
-        <v>2600850.2537296</v>
+        <v>2411000</v>
       </c>
       <c r="G87" t="n">
-        <v>342899.690372978</v>
+        <v>180350.315556793</v>
       </c>
       <c r="H87" t="n">
-        <v>88607.2808483926</v>
+        <v>40011.9663968235</v>
       </c>
       <c r="I87" t="n">
-        <v>701757.83974922</v>
+        <v>659418.989103094</v>
       </c>
       <c r="J87" t="n">
-        <v>2600852.04122819</v>
+        <v>2410997.43212084</v>
       </c>
       <c r="K87" t="s">
         <v>159</v>
@@ -6642,28 +6642,28 @@
         <v>28.5551821718171</v>
       </c>
       <c r="C88" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
       <c r="D88" t="n">
-        <v>528940.530006509</v>
+        <v>512559.449820629</v>
       </c>
       <c r="E88" t="n">
-        <v>2257950.56335662</v>
+        <v>2230649.68444321</v>
       </c>
       <c r="F88" t="n">
-        <v>2600850.2537296</v>
+        <v>2411000</v>
       </c>
       <c r="G88" t="n">
-        <v>342899.690372978</v>
+        <v>180350.315556793</v>
       </c>
       <c r="H88" t="n">
-        <v>97512.0637153408</v>
+        <v>65128.0090033126</v>
       </c>
       <c r="I88" t="n">
-        <v>626452.59372185</v>
+        <v>577687.458823942</v>
       </c>
       <c r="J88" t="n">
-        <v>2600852.04122819</v>
+        <v>2410997.43212084</v>
       </c>
       <c r="K88" t="s">
         <v>160</v>
@@ -6677,28 +6677,28 @@
         <v>32.1733602016653</v>
       </c>
       <c r="C89" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
       <c r="D89" t="n">
-        <v>579907.506895333</v>
+        <v>577227.492919435</v>
       </c>
       <c r="E89" t="n">
-        <v>2257950.56335662</v>
+        <v>2230649.68444321</v>
       </c>
       <c r="F89" t="n">
-        <v>2600850.2537296</v>
+        <v>2411000</v>
       </c>
       <c r="G89" t="n">
-        <v>342899.690372978</v>
+        <v>180350.315556793</v>
       </c>
       <c r="H89" t="n">
-        <v>91748.2409543439</v>
+        <v>75277.9500484834</v>
       </c>
       <c r="I89" t="n">
-        <v>671655.747849677</v>
+        <v>652505.442967918</v>
       </c>
       <c r="J89" t="n">
-        <v>2600852.04122819</v>
+        <v>2410997.43212084</v>
       </c>
       <c r="K89" t="s">
         <v>161</v>
@@ -6712,28 +6712,28 @@
         <v>31.0258876982051</v>
       </c>
       <c r="C90" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
       <c r="D90" t="n">
-        <v>648788.599864995</v>
+        <v>582817.206844805</v>
       </c>
       <c r="E90" t="n">
-        <v>2748580.93879852</v>
+        <v>2525939.86074438</v>
       </c>
       <c r="F90" t="n">
-        <v>3002201.81394542</v>
+        <v>2714431</v>
       </c>
       <c r="G90" t="n">
-        <v>253620.875146902</v>
+        <v>188491.139255621</v>
       </c>
       <c r="H90" t="n">
-        <v>71315.812565402</v>
+        <v>70461.7895323362</v>
       </c>
       <c r="I90" t="n">
-        <v>720104.412430397</v>
+        <v>653278.996377141</v>
       </c>
       <c r="J90" t="n">
-        <v>3002170.87652349</v>
+        <v>2714432.00671658</v>
       </c>
       <c r="K90" t="s">
         <v>162</v>
@@ -6747,28 +6747,28 @@
         <v>36.8614010323591</v>
       </c>
       <c r="C91" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
       <c r="D91" t="n">
-        <v>730989.77149964</v>
+        <v>687115.896595172</v>
       </c>
       <c r="E91" t="n">
-        <v>2748580.93879852</v>
+        <v>2525939.86074438</v>
       </c>
       <c r="F91" t="n">
-        <v>3002201.81394542</v>
+        <v>2714431</v>
       </c>
       <c r="G91" t="n">
-        <v>253620.875146902</v>
+        <v>188491.139255621</v>
       </c>
       <c r="H91" t="n">
-        <v>59975.5099561616</v>
+        <v>59199.8241101629</v>
       </c>
       <c r="I91" t="n">
-        <v>790965.281455801</v>
+        <v>746315.720705335</v>
       </c>
       <c r="J91" t="n">
-        <v>3002170.87652349</v>
+        <v>2714432.00671658</v>
       </c>
       <c r="K91" t="s">
         <v>163</v>
@@ -6782,28 +6782,28 @@
         <v>32.5631140019535</v>
       </c>
       <c r="C92" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
       <c r="D92" t="n">
-        <v>670442.530890419</v>
+        <v>610292.200071602</v>
       </c>
       <c r="E92" t="n">
-        <v>2748580.93879852</v>
+        <v>2525939.86074438</v>
       </c>
       <c r="F92" t="n">
-        <v>3002201.81394542</v>
+        <v>2714431</v>
       </c>
       <c r="G92" t="n">
-        <v>253620.875146902</v>
+        <v>188491.139255621</v>
       </c>
       <c r="H92" t="n">
-        <v>57727.3331266225</v>
+        <v>41492.0537819636</v>
       </c>
       <c r="I92" t="n">
-        <v>728169.864017042</v>
+        <v>651784.253853565</v>
       </c>
       <c r="J92" t="n">
-        <v>3002170.87652349</v>
+        <v>2714432.00671658</v>
       </c>
       <c r="K92" t="s">
         <v>164</v>
@@ -6817,28 +6817,28 @@
         <v>34.5449954429963</v>
       </c>
       <c r="C93" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
       <c r="D93" t="n">
-        <v>698360.036543467</v>
+        <v>645714.557232799</v>
       </c>
       <c r="E93" t="n">
-        <v>2748580.93879852</v>
+        <v>2525939.86074438</v>
       </c>
       <c r="F93" t="n">
-        <v>3002201.81394542</v>
+        <v>2714431</v>
       </c>
       <c r="G93" t="n">
-        <v>253620.875146902</v>
+        <v>188491.139255621</v>
       </c>
       <c r="H93" t="n">
-        <v>64571.2820767848</v>
+        <v>17338.4785477381</v>
       </c>
       <c r="I93" t="n">
-        <v>762931.318620251</v>
+        <v>663053.035780537</v>
       </c>
       <c r="J93" t="n">
-        <v>3002170.87652349</v>
+        <v>2714432.00671658</v>
       </c>
       <c r="K93" t="s">
         <v>165</v>
@@ -6852,28 +6852,28 @@
         <v>33.723091474282</v>
       </c>
       <c r="C94" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
       <c r="D94" t="n">
-        <v>745639.481430938</v>
+        <v>638464.777953499</v>
       </c>
       <c r="E94" t="n">
-        <v>3037826.77150489</v>
+        <v>2623985.46262331</v>
       </c>
       <c r="F94" t="n">
-        <v>3415686.04569097</v>
+        <v>2463842</v>
       </c>
       <c r="G94" t="n">
-        <v>377859.274186087</v>
+        <v>-160143.462623307</v>
       </c>
       <c r="H94" t="n">
-        <v>80507.3568066484</v>
+        <v>-13260.9015925134</v>
       </c>
       <c r="I94" t="n">
-        <v>826146.838237586</v>
+        <v>625203.876360985</v>
       </c>
       <c r="J94" t="n">
-        <v>3415632.460286</v>
+        <v>2463844.02576237</v>
       </c>
       <c r="K94" t="s">
         <v>166</v>
@@ -6887,28 +6887,28 @@
         <v>30.0723120741627</v>
       </c>
       <c r="C95" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
       <c r="D95" t="n">
-        <v>694213.26973624</v>
+        <v>573214.047435671</v>
       </c>
       <c r="E95" t="n">
-        <v>3037826.77150489</v>
+        <v>2623985.46262331</v>
       </c>
       <c r="F95" t="n">
-        <v>3415686.04569097</v>
+        <v>2463842</v>
       </c>
       <c r="G95" t="n">
-        <v>377859.274186087</v>
+        <v>-160143.462623307</v>
       </c>
       <c r="H95" t="n">
-        <v>92459.4128540462</v>
+        <v>-36210.4366977021</v>
       </c>
       <c r="I95" t="n">
-        <v>786672.682590286</v>
+        <v>537003.610737969</v>
       </c>
       <c r="J95" t="n">
-        <v>3415632.460286</v>
+        <v>2463844.02576237</v>
       </c>
       <c r="K95" t="s">
         <v>167</v>
@@ -6922,28 +6922,28 @@
         <v>35.992825760095</v>
       </c>
       <c r="C96" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
       <c r="D96" t="n">
-        <v>777611.787363507</v>
+        <v>679031.956629324</v>
       </c>
       <c r="E96" t="n">
-        <v>3037826.77150489</v>
+        <v>2623985.46262331</v>
       </c>
       <c r="F96" t="n">
-        <v>3415686.04569097</v>
+        <v>2463842</v>
       </c>
       <c r="G96" t="n">
-        <v>377859.274186087</v>
+        <v>-160143.462623307</v>
       </c>
       <c r="H96" t="n">
-        <v>100427.450218978</v>
+        <v>-51510.1267678278</v>
       </c>
       <c r="I96" t="n">
-        <v>878039.237582485</v>
+        <v>627521.829861496</v>
       </c>
       <c r="J96" t="n">
-        <v>3415632.460286</v>
+        <v>2463844.02576237</v>
       </c>
       <c r="K96" t="s">
         <v>168</v>
@@ -6957,28 +6957,28 @@
         <v>39.0277070208032</v>
       </c>
       <c r="C97" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
       <c r="D97" t="n">
-        <v>820362.232974203</v>
+        <v>733274.680604814</v>
       </c>
       <c r="E97" t="n">
-        <v>3037826.77150489</v>
+        <v>2623985.46262331</v>
       </c>
       <c r="F97" t="n">
-        <v>3415686.04569097</v>
+        <v>2463842</v>
       </c>
       <c r="G97" t="n">
-        <v>377859.274186087</v>
+        <v>-160143.462623307</v>
       </c>
       <c r="H97" t="n">
-        <v>104411.468901444</v>
+        <v>-59159.9718028907</v>
       </c>
       <c r="I97" t="n">
-        <v>924773.701875647</v>
+        <v>674114.708801923</v>
       </c>
       <c r="J97" t="n">
-        <v>3415632.460286</v>
+        <v>2463844.02576237</v>
       </c>
       <c r="K97" t="s">
         <v>169</v>
@@ -7017,13 +7017,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>258013.949237456</v>
+        <v>158976.24949317</v>
       </c>
       <c r="C2" t="n">
         <v>9.23693404109287</v>
       </c>
       <c r="D2" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7031,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>266479.233262062</v>
+        <v>167863.759123018</v>
       </c>
       <c r="C3" t="n">
         <v>9.61533075382236</v>
       </c>
       <c r="D3" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7045,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>263611.788326039</v>
+        <v>160518.615580187</v>
       </c>
       <c r="C4" t="n">
         <v>8.96665067485753</v>
       </c>
       <c r="D4" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7059,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>298430.733118788</v>
+        <v>199137.375803625</v>
       </c>
       <c r="C5" t="n">
         <v>10.7707921444785</v>
       </c>
       <c r="D5" t="n">
-        <v>-183040.570789557</v>
+        <v>-11990.1067252746</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7073,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>272899.864033571</v>
+        <v>177927.251417037</v>
       </c>
       <c r="C6" t="n">
         <v>9.39376000248317</v>
       </c>
       <c r="D6" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7087,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>282322.500619949</v>
+        <v>186717.608258595</v>
       </c>
       <c r="C7" t="n">
         <v>9.77858118766171</v>
       </c>
       <c r="D7" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7101,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>268493.428329449</v>
+        <v>170254.109991386</v>
       </c>
       <c r="C8" t="n">
         <v>9.11888772735565</v>
       </c>
       <c r="D8" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7115,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>281264.019322242</v>
+        <v>191789.295419521</v>
       </c>
       <c r="C9" t="n">
         <v>10.9536601638319</v>
       </c>
       <c r="D9" t="n">
-        <v>-262644.188961056</v>
+        <v>-89066.4903749989</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7129,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>248325.937099972</v>
+        <v>158716.094239957</v>
       </c>
       <c r="C10" t="n">
         <v>9.99617052517854</v>
       </c>
       <c r="D10" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7143,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>242320.002939513</v>
+        <v>154949.248673669</v>
       </c>
       <c r="C11" t="n">
         <v>10.3276944445079</v>
       </c>
       <c r="D11" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7157,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>215874.882206094</v>
+        <v>119522.315539505</v>
       </c>
       <c r="C12" t="n">
         <v>8.43179753569241</v>
       </c>
       <c r="D12" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7171,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>257179.881541653</v>
+        <v>164331.864555832</v>
       </c>
       <c r="C13" t="n">
         <v>10.5690946367562</v>
       </c>
       <c r="D13" t="n">
-        <v>-253425.958802696</v>
+        <v>-60583.6116020968</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7185,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>234892.915362819</v>
+        <v>156479.414649205</v>
       </c>
       <c r="C14" t="n">
         <v>9.78700271451556</v>
       </c>
       <c r="D14" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7199,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>242502.372055104</v>
+        <v>159635.690033202</v>
       </c>
       <c r="C15" t="n">
         <v>9.43061325992536</v>
       </c>
       <c r="D15" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7213,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>230227.824727722</v>
+        <v>144389.471024191</v>
       </c>
       <c r="C16" t="n">
         <v>8.33745714440349</v>
       </c>
       <c r="D16" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7227,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>238375.943695122</v>
+        <v>161882.764705498</v>
       </c>
       <c r="C17" t="n">
         <v>9.36893046970783</v>
       </c>
       <c r="D17" t="n">
-        <v>-395829.285888271</v>
+        <v>-191180.101116321</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7241,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>231599.192496633</v>
+        <v>166953.82472187</v>
       </c>
       <c r="C18" t="n">
         <v>9.74751579800055</v>
       </c>
       <c r="D18" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7255,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>223162.611337962</v>
+        <v>163135.073677866</v>
       </c>
       <c r="C19" t="n">
         <v>9.67083034417807</v>
       </c>
       <c r="D19" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7269,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>211523.52635164</v>
+        <v>148157.132876117</v>
       </c>
       <c r="C20" t="n">
         <v>8.76118531638173</v>
       </c>
       <c r="D20" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7283,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>264444.706406879</v>
+        <v>207998.922888808</v>
       </c>
       <c r="C21" t="n">
         <v>11.8291026747245</v>
       </c>
       <c r="D21" t="n">
-        <v>-379725.896950618</v>
+        <v>-123402.202496089</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7297,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>254981.462133413</v>
+        <v>199644.370166862</v>
       </c>
       <c r="C22" t="n">
         <v>10.8405558524574</v>
       </c>
       <c r="D22" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7311,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>261217.332532871</v>
+        <v>199149.515219265</v>
       </c>
       <c r="C23" t="n">
         <v>10.4064097033053</v>
       </c>
       <c r="D23" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7325,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>252116.107245682</v>
+        <v>185189.113202237</v>
       </c>
       <c r="C24" t="n">
         <v>9.30124144311374</v>
       </c>
       <c r="D24" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7339,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>289035.364030953</v>
+        <v>235615.034585149</v>
       </c>
       <c r="C25" t="n">
         <v>11.8808644507488</v>
       </c>
       <c r="D25" t="n">
-        <v>-438444.694787758</v>
+        <v>-114677.100198489</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7353,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>298757.185315629</v>
+        <v>235945.113575264</v>
       </c>
       <c r="C26" t="n">
         <v>11.4067396261152</v>
       </c>
       <c r="D26" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7367,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>266694.527010078</v>
+        <v>201565.885543819</v>
       </c>
       <c r="C27" t="n">
         <v>9.28905311211552</v>
       </c>
       <c r="D27" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7381,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>263619.026262331</v>
+        <v>200692.360376997</v>
       </c>
       <c r="C28" t="n">
         <v>9.01117566522454</v>
       </c>
       <c r="D28" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7395,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>288836.300182915</v>
+        <v>232443.489494629</v>
       </c>
       <c r="C29" t="n">
         <v>10.5238126035059</v>
       </c>
       <c r="D29" t="n">
-        <v>-345924.929646101</v>
+        <v>-24584.8085991836</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7409,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>336853.659437033</v>
+        <v>268578.944041909</v>
       </c>
       <c r="C30" t="n">
         <v>11.9127471155729</v>
       </c>
       <c r="D30" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7423,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>322381.945510853</v>
+        <v>251955.427601384</v>
       </c>
       <c r="C31" t="n">
         <v>10.8348612881606</v>
       </c>
       <c r="D31" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7437,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>291391.006145506</v>
+        <v>219629.432294297</v>
       </c>
       <c r="C32" t="n">
         <v>9.02929647186484</v>
       </c>
       <c r="D32" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7451,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>305801.960928126</v>
+        <v>250167.863097608</v>
       </c>
       <c r="C33" t="n">
         <v>10.8918722375126</v>
       </c>
       <c r="D33" t="n">
-        <v>-254393.8834826</v>
+        <v>65753.4474128627</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7465,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>303023.26785299</v>
+        <v>238174.294704946</v>
       </c>
       <c r="C34" t="n">
         <v>10.2441206518659</v>
       </c>
       <c r="D34" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7479,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>294627.830546878</v>
+        <v>237421.712077554</v>
       </c>
       <c r="C35" t="n">
         <v>10.4852423350932</v>
       </c>
       <c r="D35" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7493,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>292467.013451496</v>
+        <v>236968.518827866</v>
       </c>
       <c r="C36" t="n">
         <v>10.721518519552</v>
       </c>
       <c r="D36" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7507,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>299724.962428498</v>
+        <v>240854.830622614</v>
       </c>
       <c r="C37" t="n">
         <v>11.1789937404245</v>
       </c>
       <c r="D37" t="n">
-        <v>-150206.591389512</v>
+        <v>141862.909077106</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7521,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>293497.62597663</v>
+        <v>237277.882732574</v>
       </c>
       <c r="C38" t="n">
         <v>11.3312759206842</v>
       </c>
       <c r="D38" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7535,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>310593.729993313</v>
+        <v>249400.895340063</v>
       </c>
       <c r="C39" t="n">
         <v>12.1178813133434</v>
       </c>
       <c r="D39" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7549,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>292139.526772953</v>
+        <v>219781.946630533</v>
       </c>
       <c r="C40" t="n">
         <v>10.4589062836713</v>
       </c>
       <c r="D40" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7563,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>340750.847043593</v>
+        <v>278622.303565847</v>
       </c>
       <c r="C41" t="n">
         <v>13.6391137687502</v>
       </c>
       <c r="D41" t="n">
-        <v>-216234.698583982</v>
+        <v>105645.205863966</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7577,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>310151.483563359</v>
+        <v>243194.395087331</v>
       </c>
       <c r="C42" t="n">
         <v>11.6428691387851</v>
       </c>
       <c r="D42" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>319531.994798751</v>
+        <v>258554.685223324</v>
       </c>
       <c r="C43" t="n">
         <v>12.3919304064259</v>
       </c>
       <c r="D43" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7605,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>305412.102357959</v>
+        <v>247028.933956566</v>
       </c>
       <c r="C44" t="n">
         <v>11.7483984681507</v>
       </c>
       <c r="D44" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7619,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>367467.191322159</v>
+        <v>335087.504879152</v>
       </c>
       <c r="C45" t="n">
         <v>16.7882921587443</v>
       </c>
       <c r="D45" t="n">
-        <v>-238368.91528242</v>
+        <v>49421.7946868968</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7633,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>296563.57049879</v>
+        <v>259517.126632385</v>
       </c>
       <c r="C46" t="n">
         <v>12.7515959096748</v>
       </c>
       <c r="D46" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7647,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>313737.304652425</v>
+        <v>287694.356884507</v>
       </c>
       <c r="C47" t="n">
         <v>14.4607563865404</v>
       </c>
       <c r="D47" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7661,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>291440.178688865</v>
+        <v>259923.405725136</v>
       </c>
       <c r="C48" t="n">
         <v>12.94756273816</v>
       </c>
       <c r="D48" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7675,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>335897.016249502</v>
+        <v>310984.711248312</v>
       </c>
       <c r="C49" t="n">
         <v>15.7529825985791</v>
       </c>
       <c r="D49" t="n">
-        <v>-243564.176923166</v>
+        <v>58404.7683888033</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7689,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>287320.352746826</v>
+        <v>269786.864586886</v>
       </c>
       <c r="C50" t="n">
         <v>13.3986549446632</v>
       </c>
       <c r="D50" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +7703,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>339711.86811528</v>
+        <v>329222.653902289</v>
       </c>
       <c r="C51" t="n">
         <v>16.7879730089583</v>
       </c>
       <c r="D51" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +7717,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>289026.882847885</v>
+        <v>262046.123666926</v>
       </c>
       <c r="C52" t="n">
         <v>13.3007279982884</v>
       </c>
       <c r="D52" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +7731,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>338673.257020824</v>
+        <v>326345.72771897</v>
       </c>
       <c r="C53" t="n">
         <v>17.3769729695861</v>
       </c>
       <c r="D53" t="n">
-        <v>-355557.633427995</v>
+        <v>32937.4722264153</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +7745,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>293210.434554792</v>
+        <v>288546.702249115</v>
       </c>
       <c r="C54" t="n">
         <v>16.0192758607371</v>
       </c>
       <c r="D54" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +7759,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>318348.831397347</v>
+        <v>318508.28630051</v>
       </c>
       <c r="C55" t="n">
         <v>18.0480441521233</v>
       </c>
       <c r="D55" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +7773,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>280143.601340327</v>
+        <v>260682.851654286</v>
       </c>
       <c r="C56" t="n">
         <v>14.8314652467803</v>
       </c>
       <c r="D56" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +7787,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>314802.89633086</v>
+        <v>287894.355668935</v>
       </c>
       <c r="C57" t="n">
         <v>16.0390422807548</v>
       </c>
       <c r="D57" t="n">
-        <v>-408221.121201625</v>
+        <v>13722.0657066975</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +7801,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>93666.240479178</v>
+        <v>7652.00714523399</v>
       </c>
       <c r="C58" t="n">
         <v>0.0977424856544318</v>
       </c>
       <c r="D58" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +7815,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>306608.978794906</v>
+        <v>264529.039928249</v>
       </c>
       <c r="C59" t="n">
         <v>14.0447704192465</v>
       </c>
       <c r="D59" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +7829,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>356927.565351153</v>
+        <v>325935.605279838</v>
       </c>
       <c r="C60" t="n">
         <v>17.2785456875479</v>
       </c>
       <c r="D60" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +7843,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>354837.496692812</v>
+        <v>331715.596556057</v>
       </c>
       <c r="C61" t="n">
         <v>17.6233363262596</v>
       </c>
       <c r="D61" t="n">
-        <v>-513833.261038956</v>
+        <v>-90852.9659691353</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +7857,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>369982.210475505</v>
+        <v>335569.457181876</v>
       </c>
       <c r="C62" t="n">
         <v>17.868151976636</v>
       </c>
       <c r="D62" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>372207.408387963</v>
+        <v>354408.807153539</v>
       </c>
       <c r="C63" t="n">
         <v>19.0161167301949</v>
       </c>
       <c r="D63" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +7885,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>371676.580599354</v>
+        <v>366464.59881831</v>
       </c>
       <c r="C64" t="n">
         <v>19.6337210138089</v>
       </c>
       <c r="D64" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +7899,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>348762.143016394</v>
+        <v>346832.91337326</v>
       </c>
       <c r="C65" t="n">
         <v>18.3275901782376</v>
       </c>
       <c r="D65" t="n">
-        <v>-384427.581296213</v>
+        <v>-32587.1197154633</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +7913,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>342278.945138961</v>
+        <v>349399.137504528</v>
       </c>
       <c r="C66" t="n">
         <v>18.0671285639402</v>
       </c>
       <c r="D66" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +7927,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>381170.199601206</v>
+        <v>405629.155865216</v>
       </c>
       <c r="C67" t="n">
         <v>20.8122714076788</v>
       </c>
       <c r="D67" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +7941,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>364275.879995934</v>
+        <v>391805.093962095</v>
       </c>
       <c r="C68" t="n">
         <v>19.5955177898177</v>
       </c>
       <c r="D68" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +7955,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>398522.334964433</v>
+        <v>443597.500539226</v>
       </c>
       <c r="C69" t="n">
         <v>22.00763704929</v>
       </c>
       <c r="D69" t="n">
-        <v>-397272.751905823</v>
+        <v>-20291.174540695</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +7969,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>349469.179414627</v>
+        <v>412742.591113907</v>
       </c>
       <c r="C70" t="n">
         <v>19.4336483530636</v>
       </c>
       <c r="D70" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +7983,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>417358.6004381</v>
+        <v>494524.575229555</v>
       </c>
       <c r="C71" t="n">
         <v>23.7715703226929</v>
       </c>
       <c r="D71" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +7997,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>386878.705866908</v>
+        <v>438068.086860078</v>
       </c>
       <c r="C72" t="n">
         <v>20.6653025217431</v>
       </c>
       <c r="D72" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8011,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>451992.24940533</v>
+        <v>489477.417093256</v>
       </c>
       <c r="C73" t="n">
         <v>23.8843839125212</v>
       </c>
       <c r="D73" t="n">
-        <v>-453059.3810999</v>
+        <v>66113.6319809428</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8025,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>468185.763396828</v>
+        <v>467892.665035613</v>
       </c>
       <c r="C74" t="n">
         <v>22.8865176364712</v>
       </c>
       <c r="D74" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8039,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>534126.868598056</v>
+        <v>530429.245959462</v>
       </c>
       <c r="C75" t="n">
         <v>26.7654547629451</v>
       </c>
       <c r="D75" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8053,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>487884.875635688</v>
+        <v>474127.897514206</v>
       </c>
       <c r="C76" t="n">
         <v>23.742438811814</v>
       </c>
       <c r="D76" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8067,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>509597.898344325</v>
+        <v>527551.897733862</v>
       </c>
       <c r="C77" t="n">
         <v>26.6055887887697</v>
       </c>
       <c r="D77" t="n">
-        <v>-436054.023136763</v>
+        <v>180515.21728528</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8081,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>540751.434087388</v>
+        <v>546947.546288576</v>
       </c>
       <c r="C78" t="n">
         <v>27.5104125266935</v>
       </c>
       <c r="D78" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8095,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>546223.39259323</v>
+        <v>578694.233885731</v>
       </c>
       <c r="C79" t="n">
         <v>29.6083132872694</v>
       </c>
       <c r="D79" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8109,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>470661.243065634</v>
+        <v>483050.24096678</v>
       </c>
       <c r="C80" t="n">
         <v>25.2792692907187</v>
       </c>
       <c r="D80" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8123,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>480592.332259601</v>
+        <v>471309.199103654</v>
       </c>
       <c r="C81" t="n">
         <v>26.3451625511966</v>
       </c>
       <c r="D81" t="n">
-        <v>-214444.695125279</v>
+        <v>126845.461375637</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8137,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>607148.546464222</v>
+        <v>603141.970682909</v>
       </c>
       <c r="C82" t="n">
         <v>36.4266988798614</v>
       </c>
       <c r="D82" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8151,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>623013.73041612</v>
+        <v>588217.595036016</v>
       </c>
       <c r="C83" t="n">
         <v>36.6392201947552</v>
       </c>
       <c r="D83" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8165,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>608749.500606898</v>
+        <v>548924.484583371</v>
       </c>
       <c r="C84" t="n">
         <v>34.1124802191808</v>
       </c>
       <c r="D84" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8179,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>612789.61647067</v>
+        <v>546716.479315421</v>
       </c>
       <c r="C85" t="n">
         <v>32.2848222684526</v>
       </c>
       <c r="D85" t="n">
-        <v>-299151.006388133</v>
+        <v>50578.1656688766</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8193,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>600985.859907447</v>
+        <v>521385.541225889</v>
       </c>
       <c r="C86" t="n">
         <v>29.0529285723371</v>
       </c>
       <c r="D86" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8207,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>701757.83974922</v>
+        <v>659418.989103094</v>
       </c>
       <c r="C87" t="n">
         <v>34.5333055575326</v>
       </c>
       <c r="D87" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8221,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>626452.59372185</v>
+        <v>577687.458823942</v>
       </c>
       <c r="C88" t="n">
         <v>28.5551821718171</v>
       </c>
       <c r="D88" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8235,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>671655.747849677</v>
+        <v>652505.442967918</v>
       </c>
       <c r="C89" t="n">
         <v>32.1733602016653</v>
       </c>
       <c r="D89" t="n">
-        <v>-318419.69807472</v>
+        <v>-291484.484180532</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8249,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>720104.412430397</v>
+        <v>653278.996377141</v>
       </c>
       <c r="C90" t="n">
         <v>31.0258876982051</v>
       </c>
       <c r="D90" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8263,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>790965.281455801</v>
+        <v>746315.720705335</v>
       </c>
       <c r="C91" t="n">
         <v>36.8614010323591</v>
       </c>
       <c r="D91" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8277,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>728169.864017042</v>
+        <v>651784.253853565</v>
       </c>
       <c r="C92" t="n">
         <v>32.5631140019535</v>
       </c>
       <c r="D92" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8291,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>762931.318620251</v>
+        <v>663053.035780537</v>
       </c>
       <c r="C93" t="n">
         <v>34.5449954429963</v>
       </c>
       <c r="D93" t="n">
-        <v>44115.738353882</v>
+        <v>103265.127880383</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8305,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>826146.838237586</v>
+        <v>625203.876360985</v>
       </c>
       <c r="C94" t="n">
         <v>33.723091474282</v>
       </c>
       <c r="D94" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8319,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>786672.682590286</v>
+        <v>537003.610737969</v>
       </c>
       <c r="C95" t="n">
         <v>30.0723120741627</v>
       </c>
       <c r="D95" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8333,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>878039.237582485</v>
+        <v>627521.829861496</v>
       </c>
       <c r="C96" t="n">
         <v>35.992825760095</v>
       </c>
       <c r="D96" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8347,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>924773.701875647</v>
+        <v>674114.708801923</v>
       </c>
       <c r="C97" t="n">
         <v>39.0277070208032</v>
       </c>
       <c r="D97" t="n">
-        <v>295016.161717772</v>
+        <v>215800.351907083</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8361,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>864264.514080132</v>
+        <v>660843.845601949</v>
       </c>
       <c r="C98" t="n">
         <v>36.1547459288834</v>
       </c>
       <c r="D98" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8375,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>868116.66496398</v>
+        <v>665731.54101938</v>
       </c>
       <c r="C99" t="n">
         <v>36.4282125644659</v>
       </c>
       <c r="D99" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8389,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>871968.815847827</v>
+        <v>670619.23643681</v>
       </c>
       <c r="C100" t="n">
         <v>36.7016792000484</v>
       </c>
       <c r="D100" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8403,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>875820.966731675</v>
+        <v>675506.93185424</v>
       </c>
       <c r="C101" t="n">
         <v>36.9751458356309</v>
       </c>
       <c r="D101" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8417,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>879673.117615523</v>
+        <v>680394.62727167</v>
       </c>
       <c r="C102" t="n">
         <v>37.2486124712134</v>
       </c>
       <c r="D102" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8431,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>883525.268499371</v>
+        <v>685282.3226891</v>
       </c>
       <c r="C103" t="n">
         <v>37.5220791067959</v>
       </c>
       <c r="D103" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8445,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>887377.419383219</v>
+        <v>690170.01810653</v>
       </c>
       <c r="C104" t="n">
         <v>37.7955457423784</v>
       </c>
       <c r="D104" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8459,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>891229.570267067</v>
+        <v>695057.713523961</v>
       </c>
       <c r="C105" t="n">
         <v>38.0690123779609</v>
       </c>
       <c r="D105" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8473,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>895081.721150914</v>
+        <v>699945.408941391</v>
       </c>
       <c r="C106" t="n">
         <v>38.3424790135435</v>
       </c>
       <c r="D106" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8487,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>898933.872034762</v>
+        <v>704833.104358821</v>
       </c>
       <c r="C107" t="n">
         <v>38.615945649126</v>
       </c>
       <c r="D107" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8501,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>902786.02291861</v>
+        <v>709720.799776251</v>
       </c>
       <c r="C108" t="n">
         <v>38.8894122847085</v>
       </c>
       <c r="D108" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8515,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>906638.173802458</v>
+        <v>714608.495193681</v>
       </c>
       <c r="C109" t="n">
         <v>39.162878920291</v>
       </c>
       <c r="D109" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8529,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>910490.324686306</v>
+        <v>719496.190611111</v>
       </c>
       <c r="C110" t="n">
         <v>39.4363455558735</v>
       </c>
       <c r="D110" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8543,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>914342.475570153</v>
+        <v>724383.886028541</v>
       </c>
       <c r="C111" t="n">
         <v>39.709812191456</v>
       </c>
       <c r="D111" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8557,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>918194.626454001</v>
+        <v>729271.581445972</v>
       </c>
       <c r="C112" t="n">
         <v>39.9832788270385</v>
       </c>
       <c r="D112" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8571,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>922046.777337849</v>
+        <v>734159.276863402</v>
       </c>
       <c r="C113" t="n">
         <v>40.256745462621</v>
       </c>
       <c r="D113" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8585,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>925898.928221697</v>
+        <v>739046.972280832</v>
       </c>
       <c r="C114" t="n">
         <v>40.5302120982035</v>
       </c>
       <c r="D114" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8599,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>929751.079105545</v>
+        <v>743934.667698262</v>
       </c>
       <c r="C115" t="n">
         <v>40.8036787337861</v>
       </c>
       <c r="D115" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8613,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>933603.229989393</v>
+        <v>748822.363115693</v>
       </c>
       <c r="C116" t="n">
         <v>41.0771453693686</v>
       </c>
       <c r="D116" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8627,13 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>937455.380873241</v>
+        <v>753710.058533123</v>
       </c>
       <c r="C117" t="n">
         <v>41.3506120049511</v>
       </c>
       <c r="D117" t="n">
-        <v>654682.897977278</v>
+        <v>-103073.493104484</v>
       </c>
     </row>
   </sheetData>
@@ -8663,7 +8663,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>258013.949237456</v>
+        <v>158976.24949317</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +8671,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>266479.233262062</v>
+        <v>167863.759123018</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +8679,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>263611.788326039</v>
+        <v>160518.615580187</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +8687,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>298430.733118788</v>
+        <v>199137.375803625</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>272899.864033571</v>
+        <v>177927.251417037</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +8703,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>282322.500619949</v>
+        <v>186717.608258595</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +8711,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>268493.428329449</v>
+        <v>170254.109991386</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +8719,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>281264.019322242</v>
+        <v>191789.295419521</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>248325.937099972</v>
+        <v>158716.094239957</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +8735,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>242320.002939513</v>
+        <v>154949.248673669</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +8743,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>215874.882206094</v>
+        <v>119522.315539505</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +8751,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>257179.881541653</v>
+        <v>164331.864555832</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +8759,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>234892.915362819</v>
+        <v>156479.414649205</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +8767,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>242502.372055104</v>
+        <v>159635.690033202</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +8775,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>230227.824727722</v>
+        <v>144389.471024191</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +8783,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>238375.943695122</v>
+        <v>161882.764705498</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>231599.192496633</v>
+        <v>166953.82472187</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +8799,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>223162.611337962</v>
+        <v>163135.073677866</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +8807,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>211523.52635164</v>
+        <v>148157.132876117</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +8815,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>264444.706406879</v>
+        <v>207998.922888808</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +8823,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>254981.462133413</v>
+        <v>199644.370166862</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +8831,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>261217.332532871</v>
+        <v>199149.515219265</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +8839,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>252116.107245682</v>
+        <v>185189.113202237</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +8847,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>289035.364030953</v>
+        <v>235615.034585149</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +8855,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>298757.185315629</v>
+        <v>235945.113575264</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +8863,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>266694.527010078</v>
+        <v>201565.885543819</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +8871,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>263619.026262331</v>
+        <v>200692.360376997</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +8879,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>288836.300182915</v>
+        <v>232443.489494629</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +8887,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>336853.659437033</v>
+        <v>268578.944041909</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +8895,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>322381.945510853</v>
+        <v>251955.427601384</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>291391.006145506</v>
+        <v>219629.432294297</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +8911,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>305801.960928126</v>
+        <v>250167.863097608</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +8919,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>303023.26785299</v>
+        <v>238174.294704946</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +8927,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>294627.830546878</v>
+        <v>237421.712077554</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +8935,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>292467.013451496</v>
+        <v>236968.518827866</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +8943,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>299724.962428498</v>
+        <v>240854.830622614</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>293497.62597663</v>
+        <v>237277.882732574</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +8959,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>310593.729993313</v>
+        <v>249400.895340063</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +8967,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>292139.526772953</v>
+        <v>219781.946630533</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +8975,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>340750.847043593</v>
+        <v>278622.303565847</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +8983,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>310151.483563359</v>
+        <v>243194.395087331</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +8991,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>319531.994798751</v>
+        <v>258554.685223324</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +8999,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>305412.102357959</v>
+        <v>247028.933956566</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9007,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>367467.191322159</v>
+        <v>335087.504879152</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9015,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>296563.57049879</v>
+        <v>259517.126632385</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9023,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>313737.304652425</v>
+        <v>287694.356884507</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9031,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>291440.178688865</v>
+        <v>259923.405725136</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9039,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>335897.016249502</v>
+        <v>310984.711248312</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9047,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>287320.352746826</v>
+        <v>269786.864586886</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9055,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>339711.86811528</v>
+        <v>329222.653902289</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9063,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>289026.882847885</v>
+        <v>262046.123666926</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9071,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>338673.257020824</v>
+        <v>326345.72771897</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9079,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>293210.434554792</v>
+        <v>288546.702249115</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9087,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>318348.831397347</v>
+        <v>318508.28630051</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9095,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>280143.601340327</v>
+        <v>260682.851654286</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9103,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>314802.89633086</v>
+        <v>287894.355668935</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9111,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>93666.240479178</v>
+        <v>7652.00714523399</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>306608.978794906</v>
+        <v>264529.039928249</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9127,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>356927.565351153</v>
+        <v>325935.605279838</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9135,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>354837.496692812</v>
+        <v>331715.596556057</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9143,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>369982.210475505</v>
+        <v>335569.457181876</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9151,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>372207.408387963</v>
+        <v>354408.807153539</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9159,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>371676.580599354</v>
+        <v>366464.59881831</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9167,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>348762.143016394</v>
+        <v>346832.91337326</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9175,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>342278.945138961</v>
+        <v>349399.137504528</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9183,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>381170.199601206</v>
+        <v>405629.155865216</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9191,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>364275.879995934</v>
+        <v>391805.093962095</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9199,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>398522.334964433</v>
+        <v>443597.500539226</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9207,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>349469.179414627</v>
+        <v>412742.591113907</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9215,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>417358.6004381</v>
+        <v>494524.575229555</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9223,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>386878.705866908</v>
+        <v>438068.086860078</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9231,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>451992.24940533</v>
+        <v>489477.417093256</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9239,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>468185.763396828</v>
+        <v>467892.665035613</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9247,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>534126.868598056</v>
+        <v>530429.245959462</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9255,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>487884.875635688</v>
+        <v>474127.897514206</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9263,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>509597.898344325</v>
+        <v>527551.897733862</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9271,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>540751.434087388</v>
+        <v>546947.546288576</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9279,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>546223.39259323</v>
+        <v>578694.233885731</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9287,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>470661.243065634</v>
+        <v>483050.24096678</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9295,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>480592.332259601</v>
+        <v>471309.199103654</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9303,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>607148.546464222</v>
+        <v>603141.970682909</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9311,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>623013.73041612</v>
+        <v>588217.595036016</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9319,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>608749.500606898</v>
+        <v>548924.484583371</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9327,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>612789.61647067</v>
+        <v>546716.479315421</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9335,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>600985.859907447</v>
+        <v>521385.541225889</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9343,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>701757.83974922</v>
+        <v>659418.989103094</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9351,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>626452.59372185</v>
+        <v>577687.458823942</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9359,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>671655.747849677</v>
+        <v>652505.442967918</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9367,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>720104.412430397</v>
+        <v>653278.996377141</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9375,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>790965.281455801</v>
+        <v>746315.720705335</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9383,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>728169.864017042</v>
+        <v>651784.253853565</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9391,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>762931.318620251</v>
+        <v>663053.035780537</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9399,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>826146.838237586</v>
+        <v>625203.876360985</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9407,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>786672.682590286</v>
+        <v>537003.610737969</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9415,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>878039.237582485</v>
+        <v>627521.829861496</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9423,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>924773.701875647</v>
+        <v>674114.708801923</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9431,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>864264.514080132</v>
+        <v>660843.845601949</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9439,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>868116.66496398</v>
+        <v>665731.54101938</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9447,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>871968.815847827</v>
+        <v>670619.23643681</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9455,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>875820.966731675</v>
+        <v>675506.93185424</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9463,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>879673.117615523</v>
+        <v>680394.62727167</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9471,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>883525.268499371</v>
+        <v>685282.3226891</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +9479,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>887377.419383219</v>
+        <v>690170.01810653</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +9487,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>891229.570267067</v>
+        <v>695057.713523961</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +9495,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>895081.721150914</v>
+        <v>699945.408941391</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +9503,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>898933.872034762</v>
+        <v>704833.104358821</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +9511,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>902786.02291861</v>
+        <v>709720.799776251</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +9519,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>906638.173802458</v>
+        <v>714608.495193681</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +9527,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>910490.324686306</v>
+        <v>719496.190611111</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +9535,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>914342.475570153</v>
+        <v>724383.886028541</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +9543,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>918194.626454001</v>
+        <v>729271.581445972</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +9551,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>922046.777337849</v>
+        <v>734159.276863402</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +9559,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>925898.928221697</v>
+        <v>739046.972280832</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +9567,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>929751.079105545</v>
+        <v>743934.667698262</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +9575,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>933603.229989393</v>
+        <v>748822.363115693</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +9583,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>937455.380873241</v>
+        <v>753710.058533123</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_DTX.xlsx
+++ b/VA_result_DTX.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -342,54 +342,6 @@
   </si>
   <si>
     <t xml:space="preserve">2021-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">VA_CST</t>
@@ -2257,182 +2209,6 @@
         <v>147.900583342524</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1087.16451075113</v>
-      </c>
-      <c r="C106" t="n">
-        <v>148.994449884854</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1095.14610258383</v>
-      </c>
-      <c r="C107" t="n">
-        <v>150.088316427184</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1103.12769441654</v>
-      </c>
-      <c r="C108" t="n">
-        <v>151.182182969514</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1111.10928624924</v>
-      </c>
-      <c r="C109" t="n">
-        <v>152.276049511844</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1119.09087808195</v>
-      </c>
-      <c r="C110" t="n">
-        <v>153.369916054174</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1127.07246991465</v>
-      </c>
-      <c r="C111" t="n">
-        <v>154.463782596504</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1135.05406174736</v>
-      </c>
-      <c r="C112" t="n">
-        <v>155.557649138834</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1143.03565358006</v>
-      </c>
-      <c r="C113" t="n">
-        <v>156.651515681164</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1151.01724541277</v>
-      </c>
-      <c r="C114" t="n">
-        <v>157.745382223494</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1158.99883724547</v>
-      </c>
-      <c r="C115" t="n">
-        <v>158.839248765824</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1166.98042907818</v>
-      </c>
-      <c r="C116" t="n">
-        <v>159.933115308154</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1174.96202091088</v>
-      </c>
-      <c r="C117" t="n">
-        <v>161.026981850484</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1182.94361274359</v>
-      </c>
-      <c r="C118" t="n">
-        <v>162.120848392814</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1190.92520457629</v>
-      </c>
-      <c r="C119" t="n">
-        <v>163.214714935144</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1198.90679640899</v>
-      </c>
-      <c r="C120" t="n">
-        <v>164.308581477474</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1206.8883882417</v>
-      </c>
-      <c r="C121" t="n">
-        <v>165.402448019804</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2452,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2274,7 @@
         <v>1.35768668041547</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -2518,7 +2294,7 @@
         <v>1.69781402240843</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2314,7 @@
         <v>0.203512005441353</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -2558,7 +2334,7 @@
         <v>-6.10494184339282</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -2578,7 +2354,7 @@
         <v>8.35399806344113</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -2598,7 +2374,7 @@
         <v>6.04978742407691</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2394,7 @@
         <v>-5.18109486622648</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2638,7 +2414,7 @@
         <v>6.06002678826414</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2658,7 +2434,7 @@
         <v>-0.0911717391667732</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -2678,7 +2454,7 @@
         <v>11.5348731635496</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2698,7 +2474,7 @@
         <v>10.5670055982247</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2494,7 @@
         <v>6.35593065729985</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -2738,7 +2514,7 @@
         <v>8.85561560598367</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -2758,7 +2534,7 @@
         <v>6.69275204554327</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -2778,7 +2554,7 @@
         <v>-24.4748449766053</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +2574,7 @@
         <v>52.6078158838226</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -2818,7 +2594,7 @@
         <v>7.53147336083886</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -2838,7 +2614,7 @@
         <v>9.03593370811444</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -2858,7 +2634,7 @@
         <v>13.9537440951331</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +2654,7 @@
         <v>8.74315765587814</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2898,7 +2674,7 @@
         <v>28.2501120701192</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -2918,7 +2694,7 @@
         <v>-10.8619641000738</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -2938,7 +2714,7 @@
         <v>8.59159463788595</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2958,7 +2734,7 @@
         <v>2.83012473422362</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -2978,87 +2754,7 @@
         <v>5.36238662254527</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2750904.68159126</v>
-      </c>
-      <c r="C28" t="n">
-        <v>150.635249698349</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.92599547956063</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.99157161575574</v>
-      </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2829107.80827014</v>
-      </c>
-      <c r="C29" t="n">
-        <v>155.010715867669</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.84281484568365</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.9046761485656</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2907310.93494903</v>
-      </c>
-      <c r="C30" t="n">
-        <v>159.386182036989</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.7642328245773</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.82268625419126</v>
-      </c>
-      <c r="F30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2985514.06162791</v>
-      </c>
-      <c r="C31" t="n">
-        <v>163.761648206309</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.68987832497711</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.74519792958261</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +2776,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -3594,34 +3290,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -3656,7 +3352,7 @@
         <v>686496</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -3691,7 +3387,7 @@
         <v>686496</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -3726,7 +3422,7 @@
         <v>686496</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -3761,7 +3457,7 @@
         <v>686496</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -3796,7 +3492,7 @@
         <v>726688.265086538</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -3831,7 +3527,7 @@
         <v>726688.265086538</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3866,7 +3562,7 @@
         <v>726688.265086538</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -3901,7 +3597,7 @@
         <v>726688.265086538</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -3936,7 +3632,7 @@
         <v>597519.523008963</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -3971,7 +3667,7 @@
         <v>597519.523008963</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -4006,7 +3702,7 @@
         <v>597519.523008963</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -4041,7 +3737,7 @@
         <v>597519.523008963</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -4076,7 +3772,7 @@
         <v>622387.340412096</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -4111,7 +3807,7 @@
         <v>622387.340412096</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -4146,7 +3842,7 @@
         <v>622387.340412096</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -4181,7 +3877,7 @@
         <v>622387.340412096</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -4216,7 +3912,7 @@
         <v>686244.954164662</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
@@ -4251,7 +3947,7 @@
         <v>686244.954164662</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
@@ -4286,7 +3982,7 @@
         <v>686244.954164662</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -4321,7 +4017,7 @@
         <v>686244.954164662</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -4356,7 +4052,7 @@
         <v>819598.033173513</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
@@ -4391,7 +4087,7 @@
         <v>819598.033173513</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4426,7 +4122,7 @@
         <v>819598.033173513</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
@@ -4461,7 +4157,7 @@
         <v>819598.033173513</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -4496,7 +4192,7 @@
         <v>870646.848990708</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4531,7 +4227,7 @@
         <v>870646.848990708</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
@@ -4566,7 +4262,7 @@
         <v>870646.848990708</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -4601,7 +4297,7 @@
         <v>870646.848990708</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -4636,7 +4332,7 @@
         <v>990331.667035198</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
@@ -4671,7 +4367,7 @@
         <v>990331.667035198</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -4706,7 +4402,7 @@
         <v>990331.667035198</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33">
@@ -4741,7 +4437,7 @@
         <v>990331.667035198</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -4776,7 +4472,7 @@
         <v>953419.35623298</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35">
@@ -4811,7 +4507,7 @@
         <v>953419.35623298</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
@@ -4846,7 +4542,7 @@
         <v>953419.35623298</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
@@ -4881,7 +4577,7 @@
         <v>953419.35623298</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
@@ -4916,7 +4612,7 @@
         <v>985083.028269016</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -4951,7 +4647,7 @@
         <v>985083.028269016</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -4986,7 +4682,7 @@
         <v>985083.028269016</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -5021,7 +4717,7 @@
         <v>985083.028269016</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -5056,7 +4752,7 @@
         <v>1083865.51914637</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43">
@@ -5091,7 +4787,7 @@
         <v>1083865.51914637</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
@@ -5126,7 +4822,7 @@
         <v>1083865.51914637</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
@@ -5161,7 +4857,7 @@
         <v>1083865.51914637</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46">
@@ -5196,7 +4892,7 @@
         <v>1118119.60049034</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -5231,7 +4927,7 @@
         <v>1118119.60049034</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
@@ -5266,7 +4962,7 @@
         <v>1118119.60049034</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -5301,7 +4997,7 @@
         <v>1118119.60049034</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -5336,7 +5032,7 @@
         <v>1187401.36987507</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -5371,7 +5067,7 @@
         <v>1187401.36987507</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -5406,7 +5102,7 @@
         <v>1187401.36987507</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -5441,7 +5137,7 @@
         <v>1187401.36987507</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -5476,7 +5172,7 @@
         <v>1155632.19587285</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -5511,7 +5207,7 @@
         <v>1155632.19587285</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -5546,7 +5242,7 @@
         <v>1155632.19587285</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -5581,7 +5277,7 @@
         <v>1155632.19587285</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -5616,7 +5312,7 @@
         <v>929832.248909377</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -5651,7 +5347,7 @@
         <v>929832.248909377</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -5686,7 +5382,7 @@
         <v>929832.248909377</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -5721,7 +5417,7 @@
         <v>929832.248909377</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
@@ -5756,7 +5452,7 @@
         <v>1403275.77652698</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
@@ -5791,7 +5487,7 @@
         <v>1403275.77652698</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -5826,7 +5522,7 @@
         <v>1403275.77652698</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65">
@@ -5861,7 +5557,7 @@
         <v>1403275.77652698</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
@@ -5896,7 +5592,7 @@
         <v>1590430.88787107</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67">
@@ -5931,7 +5627,7 @@
         <v>1590430.88787107</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
@@ -5966,7 +5662,7 @@
         <v>1590430.88787107</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69">
@@ -6001,7 +5697,7 @@
         <v>1590430.88787107</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70">
@@ -6036,7 +5732,7 @@
         <v>1834812.67029679</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71">
@@ -6071,7 +5767,7 @@
         <v>1834812.67029679</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
@@ -6106,7 +5802,7 @@
         <v>1834812.67029679</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
@@ -6141,7 +5837,7 @@
         <v>1834812.67029679</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74">
@@ -6176,7 +5872,7 @@
         <v>2000001.70624314</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -6211,7 +5907,7 @@
         <v>2000001.70624314</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -6246,7 +5942,7 @@
         <v>2000001.70624314</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
@@ -6281,7 +5977,7 @@
         <v>2000001.70624314</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
@@ -6316,7 +6012,7 @@
         <v>2080001.22024474</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
@@ -6351,7 +6047,7 @@
         <v>2080001.22024474</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -6386,7 +6082,7 @@
         <v>2080001.22024474</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -6421,7 +6117,7 @@
         <v>2080001.22024474</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
@@ -6456,7 +6152,7 @@
         <v>2287000.52961772</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -6491,7 +6187,7 @@
         <v>2287000.52961772</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -6526,7 +6222,7 @@
         <v>2287000.52961772</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -6561,7 +6257,7 @@
         <v>2287000.52961772</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -6596,7 +6292,7 @@
         <v>2410997.43212084</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -6631,7 +6327,7 @@
         <v>2410997.43212084</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -6666,7 +6362,7 @@
         <v>2410997.43212084</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
@@ -6701,7 +6397,7 @@
         <v>2410997.43212084</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
@@ -6736,7 +6432,7 @@
         <v>2714432.00671658</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
@@ -6771,7 +6467,7 @@
         <v>2714432.00671658</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -6806,7 +6502,7 @@
         <v>2714432.00671658</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
@@ -6841,7 +6537,7 @@
         <v>2714432.00671658</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
@@ -6876,7 +6572,7 @@
         <v>2463844.02576237</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
@@ -6911,7 +6607,7 @@
         <v>2463844.02576237</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
@@ -6946,7 +6642,7 @@
         <v>2463844.02576237</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
@@ -6981,7 +6677,7 @@
         <v>2463844.02576237</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +6699,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -8409,230 +8105,6 @@
         <v>36.9751458356309</v>
       </c>
       <c r="D101" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" t="n">
-        <v>680394.62727167</v>
-      </c>
-      <c r="C102" t="n">
-        <v>37.2486124712134</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" t="n">
-        <v>685282.3226891</v>
-      </c>
-      <c r="C103" t="n">
-        <v>37.5220791067959</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" t="n">
-        <v>690170.01810653</v>
-      </c>
-      <c r="C104" t="n">
-        <v>37.7955457423784</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" t="n">
-        <v>695057.713523961</v>
-      </c>
-      <c r="C105" t="n">
-        <v>38.0690123779609</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" t="n">
-        <v>699945.408941391</v>
-      </c>
-      <c r="C106" t="n">
-        <v>38.3424790135435</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" t="n">
-        <v>704833.104358821</v>
-      </c>
-      <c r="C107" t="n">
-        <v>38.615945649126</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" t="n">
-        <v>709720.799776251</v>
-      </c>
-      <c r="C108" t="n">
-        <v>38.8894122847085</v>
-      </c>
-      <c r="D108" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" t="n">
-        <v>714608.495193681</v>
-      </c>
-      <c r="C109" t="n">
-        <v>39.162878920291</v>
-      </c>
-      <c r="D109" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" t="n">
-        <v>719496.190611111</v>
-      </c>
-      <c r="C110" t="n">
-        <v>39.4363455558735</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" t="n">
-        <v>724383.886028541</v>
-      </c>
-      <c r="C111" t="n">
-        <v>39.709812191456</v>
-      </c>
-      <c r="D111" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="n">
-        <v>729271.581445972</v>
-      </c>
-      <c r="C112" t="n">
-        <v>39.9832788270385</v>
-      </c>
-      <c r="D112" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" t="n">
-        <v>734159.276863402</v>
-      </c>
-      <c r="C113" t="n">
-        <v>40.256745462621</v>
-      </c>
-      <c r="D113" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" t="n">
-        <v>739046.972280832</v>
-      </c>
-      <c r="C114" t="n">
-        <v>40.5302120982035</v>
-      </c>
-      <c r="D114" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" t="n">
-        <v>743934.667698262</v>
-      </c>
-      <c r="C115" t="n">
-        <v>40.8036787337861</v>
-      </c>
-      <c r="D115" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" t="n">
-        <v>748822.363115693</v>
-      </c>
-      <c r="C116" t="n">
-        <v>41.0771453693686</v>
-      </c>
-      <c r="D116" t="n">
-        <v>-103073.493104484</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" t="n">
-        <v>753710.058533123</v>
-      </c>
-      <c r="C117" t="n">
-        <v>41.3506120049511</v>
-      </c>
-      <c r="D117" t="n">
         <v>-103073.493104484</v>
       </c>
     </row>
@@ -8655,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -9456,134 +8928,6 @@
       </c>
       <c r="B101" t="n">
         <v>675506.93185424</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" t="n">
-        <v>680394.62727167</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" t="n">
-        <v>685282.3226891</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" t="n">
-        <v>690170.01810653</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" t="n">
-        <v>695057.713523961</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" t="n">
-        <v>699945.408941391</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" t="n">
-        <v>704833.104358821</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" t="n">
-        <v>709720.799776251</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" t="n">
-        <v>714608.495193681</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" t="n">
-        <v>719496.190611111</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" t="n">
-        <v>724383.886028541</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="n">
-        <v>729271.581445972</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" t="n">
-        <v>734159.276863402</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" t="n">
-        <v>739046.972280832</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" t="n">
-        <v>743934.667698262</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" t="n">
-        <v>748822.363115693</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" t="n">
-        <v>753710.058533123</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_DTX.xlsx
+++ b/VA_result_DTX.xlsx
@@ -410,76 +410,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.734913461608812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.476991037023254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.659587903996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04583533830009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.966826487099752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.151009291526861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667035197839141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35623298003338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0282690160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.519146373029798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600490339798853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369875070406124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195872846990824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.751090622623451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.223473015706986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.112128933891654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670296794967726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70624314295128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22024474106729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.529617716558278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.56787915714085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00671657919884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02576237358153</t>
+    <t xml:space="preserve">-1.16415321826935e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397623859113082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331716393120587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638999423012137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.475628299522214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460200334782712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252307501854375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0362107169348747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.138766771764494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.053650225745514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0867005768232048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0738685147371143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139281924348325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192649583797902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445325928507373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879850855097175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.295728541444987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101818807423115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15523684117943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00879390444606543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185014750808477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.561434888746589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0868083294481039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.160230788867921</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -1730,10 +1730,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>2.8527817426279</v>
+        <v>402.236592037867</v>
       </c>
       <c r="C62" t="n">
-        <v>0.390969942617727</v>
+        <v>55.1259898217553</v>
       </c>
     </row>
     <row r="63">
@@ -1994,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>1063.17555577697</v>
+        <v>815.71788570508</v>
       </c>
       <c r="C86" t="n">
-        <v>145.706795519446</v>
+        <v>111.793051042379</v>
       </c>
     </row>
     <row r="87">
@@ -2005,10 +2005,10 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1069.37835410964</v>
+        <v>996.95605531911</v>
       </c>
       <c r="C87" t="n">
-        <v>146.556880779021</v>
+        <v>136.631501077069</v>
       </c>
     </row>
     <row r="88">
@@ -2170,10 +2170,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>1055.23814342031</v>
+        <v>1034.19428305756</v>
       </c>
       <c r="C102" t="n">
-        <v>144.618983715533</v>
+        <v>141.734950648602</v>
       </c>
     </row>
     <row r="103">
@@ -2181,10 +2181,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>1063.21973525302</v>
+        <v>1055.08248324619</v>
       </c>
       <c r="C103" t="n">
-        <v>145.712850257863</v>
+        <v>144.597650695753</v>
       </c>
     </row>
     <row r="104">
@@ -2192,10 +2192,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1071.20132708572</v>
+        <v>1071.76834092635</v>
       </c>
       <c r="C104" t="n">
-        <v>146.806716800194</v>
+        <v>146.884425292723</v>
       </c>
     </row>
     <row r="105">
@@ -2203,10 +2203,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1079.18291891842</v>
+        <v>1115.50947977574</v>
       </c>
       <c r="C105" t="n">
-        <v>147.900583342524</v>
+        <v>152.879090180835</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2268,7 @@
         <v>38.5897076142512</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.445640682803317</v>
+        <v>-0.445640682803328</v>
       </c>
       <c r="E3" t="n">
         <v>1.35768668041547</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>726688.265086538</v>
+        <v>726689.397623859</v>
       </c>
       <c r="C4" t="n">
         <v>39.2448890813324</v>
       </c>
       <c r="D4" t="n">
-        <v>5.85469763648125</v>
+        <v>5.85486261010395</v>
       </c>
       <c r="E4" t="n">
         <v>1.69781402240843</v>
@@ -2302,13 +2302,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>597519.523008963</v>
+        <v>597520.331716393</v>
       </c>
       <c r="C5" t="n">
         <v>39.324757142135</v>
       </c>
       <c r="D5" t="n">
-        <v>-17.7749866460542</v>
+        <v>-17.7750035062883</v>
       </c>
       <c r="E5" t="n">
         <v>0.203512005441353</v>
@@ -2322,13 +2322,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>622387.340412096</v>
+        <v>622389.638999423</v>
       </c>
       <c r="C6" t="n">
         <v>36.9240035885522</v>
       </c>
       <c r="D6" t="n">
-        <v>4.16184182198847</v>
+        <v>4.162085532988</v>
       </c>
       <c r="E6" t="n">
         <v>-6.10494184339282</v>
@@ -2342,13 +2342,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>686244.954164662</v>
+        <v>686246.4756283</v>
       </c>
       <c r="C7" t="n">
         <v>40.0086341332848</v>
       </c>
       <c r="D7" t="n">
-        <v>10.260108071974</v>
+        <v>10.2599453184239</v>
       </c>
       <c r="E7" t="n">
         <v>8.35399806344113</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>819598.033173513</v>
+        <v>819599.460200335</v>
       </c>
       <c r="C8" t="n">
         <v>42.4290714496252</v>
       </c>
       <c r="D8" t="n">
-        <v>19.4322855417096</v>
+        <v>19.4322286974141</v>
       </c>
       <c r="E8" t="n">
         <v>6.04978742407691</v>
@@ -2382,13 +2382,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>870646.848990708</v>
+        <v>870647.252307502</v>
       </c>
       <c r="C9" t="n">
         <v>40.2307810069611</v>
       </c>
       <c r="D9" t="n">
-        <v>6.22851858484004</v>
+        <v>6.22838283650033</v>
       </c>
       <c r="E9" t="n">
         <v>-5.18109486622648</v>
@@ -2402,13 +2402,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>990331.667035198</v>
+        <v>990331.036210717</v>
       </c>
       <c r="C10" t="n">
         <v>42.6687771131109</v>
       </c>
       <c r="D10" t="n">
-        <v>13.7466549362963</v>
+        <v>13.7465297898792</v>
       </c>
       <c r="E10" t="n">
         <v>6.06002678826414</v>
@@ -2422,13 +2422,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>953419.35623298</v>
+        <v>953417.861233228</v>
       </c>
       <c r="C11" t="n">
         <v>42.6298752469356</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.72726754388496</v>
+        <v>-3.72735717934569</v>
       </c>
       <c r="E11" t="n">
         <v>-0.0911717391667732</v>
@@ -2442,13 +2442,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>985083.028269016</v>
+        <v>985081.946349774</v>
       </c>
       <c r="C12" t="n">
         <v>47.5471772864491</v>
       </c>
       <c r="D12" t="n">
-        <v>3.32106452727594</v>
+        <v>3.32111306112821</v>
       </c>
       <c r="E12" t="n">
         <v>11.5348731635496</v>
@@ -2462,13 +2462,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1083865.51914637</v>
+        <v>1083865.08670058</v>
       </c>
       <c r="C13" t="n">
         <v>52.571490172106</v>
       </c>
       <c r="D13" t="n">
-        <v>10.0278340040978</v>
+        <v>10.0279109486113</v>
       </c>
       <c r="E13" t="n">
         <v>10.5670055982247</v>
@@ -2482,13 +2482,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1118119.60049034</v>
+        <v>1118119.07386851</v>
       </c>
       <c r="C14" t="n">
         <v>55.9128976329543</v>
       </c>
       <c r="D14" t="n">
-        <v>3.1603626777374</v>
+        <v>3.16035524976743</v>
       </c>
       <c r="E14" t="n">
         <v>6.35593065729985</v>
@@ -2502,13 +2502,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1187401.36987507</v>
+        <v>1187401.13928192</v>
       </c>
       <c r="C15" t="n">
         <v>60.8643289214959</v>
       </c>
       <c r="D15" t="n">
-        <v>6.19627536753204</v>
+        <v>6.19630476150492</v>
       </c>
       <c r="E15" t="n">
         <v>8.85561560598367</v>
@@ -2522,13 +2522,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1155632.19587285</v>
+        <v>1155632.19264958</v>
       </c>
       <c r="C16" t="n">
         <v>64.9378275403955</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.67552108395882</v>
+        <v>-2.67550245501302</v>
       </c>
       <c r="E16" t="n">
         <v>6.69275204554327</v>
@@ -2542,16 +2542,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>929832.248909377</v>
+        <v>929833.445325929</v>
       </c>
       <c r="C17" t="n">
-        <v>49.0443949187084</v>
+        <v>62.7281498884928</v>
       </c>
       <c r="D17" t="n">
-        <v>-19.5390841281402</v>
+        <v>-19.5389803745389</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.4748449766053</v>
+        <v>-3.40275881654358</v>
       </c>
       <c r="F17" t="s">
         <v>114</v>
@@ -2562,16 +2562,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1403275.77652698</v>
+        <v>1403276.87985086</v>
       </c>
       <c r="C18" t="n">
         <v>74.8455798988774</v>
       </c>
       <c r="D18" t="n">
-        <v>50.9170904937875</v>
+        <v>50.9170149670163</v>
       </c>
       <c r="E18" t="n">
-        <v>52.6078158838226</v>
+        <v>19.3173719166353</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2582,13 +2582,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1590430.88787107</v>
+        <v>1590431.29572854</v>
       </c>
       <c r="C19" t="n">
         <v>80.4825548107267</v>
       </c>
       <c r="D19" t="n">
-        <v>13.3370157509081</v>
+        <v>13.3369557045348</v>
       </c>
       <c r="E19" t="n">
         <v>7.53147336083886</v>
@@ -2602,13 +2602,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1834812.67029679</v>
+        <v>1834812.10181881</v>
       </c>
       <c r="C20" t="n">
         <v>87.7549051100208</v>
       </c>
       <c r="D20" t="n">
-        <v>15.3657593227994</v>
+        <v>15.3656939942395</v>
       </c>
       <c r="E20" t="n">
         <v>9.03593370811444</v>
@@ -2622,13 +2622,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>2000001.70624314</v>
+        <v>1999999.84476316</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>9.00304639381129</v>
+        <v>9.00297871267606</v>
       </c>
       <c r="E21" t="n">
         <v>13.9537440951331</v>
@@ -2642,13 +2642,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>2080001.22024474</v>
+        <v>2079999.9912061</v>
       </c>
       <c r="C22" t="n">
         <v>108.743157655878</v>
       </c>
       <c r="D22" t="n">
-        <v>3.99997228761726</v>
+        <v>4.00000763262112</v>
       </c>
       <c r="E22" t="n">
         <v>8.74315765587814</v>
@@ -2662,16 +2662,16 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>2287000.52961772</v>
+        <v>2287000.18501475</v>
       </c>
       <c r="C23" t="n">
-        <v>139.46322156225</v>
+        <v>128.503440517496</v>
       </c>
       <c r="D23" t="n">
-        <v>9.95188403536702</v>
+        <v>9.95193243672206</v>
       </c>
       <c r="E23" t="n">
-        <v>28.2501120701192</v>
+        <v>18.1715183626997</v>
       </c>
       <c r="F23" t="s">
         <v>114</v>
@@ -2682,16 +2682,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2410997.43212084</v>
+        <v>2411000.56143489</v>
       </c>
       <c r="C24" t="n">
         <v>124.314776503352</v>
       </c>
       <c r="D24" t="n">
-        <v>5.42181345816535</v>
+        <v>5.42196617353305</v>
       </c>
       <c r="E24" t="n">
-        <v>-10.8619641000738</v>
+        <v>-3.25957343809267</v>
       </c>
       <c r="F24" t="s">
         <v>113</v>
@@ -2702,13 +2702,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>2714432.00671658</v>
+        <v>2714431.08680833</v>
       </c>
       <c r="C25" t="n">
         <v>134.995398175514</v>
       </c>
       <c r="D25" t="n">
-        <v>12.5854374854651</v>
+        <v>12.5852532026312</v>
       </c>
       <c r="E25" t="n">
         <v>8.59159463788595</v>
@@ -2722,13 +2722,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>2463844.02576237</v>
+        <v>2463841.83976921</v>
       </c>
       <c r="C26" t="n">
         <v>138.815936329343</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.23169120958461</v>
+        <v>-9.23174098089795</v>
       </c>
       <c r="E26" t="n">
         <v>2.83012473422362</v>
@@ -2742,16 +2742,16 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>2672701.55491238</v>
+        <v>2696241.2036218</v>
       </c>
       <c r="C27" t="n">
-        <v>146.259783529029</v>
+        <v>146.524029204478</v>
       </c>
       <c r="D27" t="n">
-        <v>8.47689735901116</v>
+        <v>9.43239781472147</v>
       </c>
       <c r="E27" t="n">
-        <v>5.36238662254527</v>
+        <v>5.5527434954209</v>
       </c>
       <c r="F27" t="s">
         <v>114</v>
@@ -2799,16 +2799,16 @@
         <v>686496</v>
       </c>
       <c r="C2" t="n">
-        <v>772391.619617413</v>
+        <v>743686.726313586</v>
       </c>
       <c r="D2" t="n">
-        <v>-85895.6196174133</v>
+        <v>-57190.7263135864</v>
       </c>
       <c r="E2" t="n">
         <v>38.5897076142512</v>
       </c>
       <c r="F2" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
     </row>
     <row r="3">
@@ -2819,16 +2819,16 @@
         <v>726689</v>
       </c>
       <c r="C3" t="n">
-        <v>763719.066617821</v>
+        <v>736508.124509027</v>
       </c>
       <c r="D3" t="n">
-        <v>-37030.0666178206</v>
+        <v>-9819.12450902722</v>
       </c>
       <c r="E3" t="n">
         <v>39.2448890813324</v>
       </c>
       <c r="F3" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
     </row>
     <row r="4">
@@ -2839,16 +2839,16 @@
         <v>597520</v>
       </c>
       <c r="C4" t="n">
-        <v>772678.802253347</v>
+        <v>748948.419738235</v>
       </c>
       <c r="D4" t="n">
-        <v>-175158.802253347</v>
+        <v>-151428.419738235</v>
       </c>
       <c r="E4" t="n">
         <v>39.324757142135</v>
       </c>
       <c r="F4" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
     </row>
     <row r="5">
@@ -2859,16 +2859,16 @@
         <v>622389</v>
       </c>
       <c r="C5" t="n">
-        <v>695233.89660088</v>
+        <v>653270.195205025</v>
       </c>
       <c r="D5" t="n">
-        <v>-72844.8966008796</v>
+        <v>-30881.1952050248</v>
       </c>
       <c r="E5" t="n">
         <v>36.9240035885522</v>
       </c>
       <c r="F5" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
     </row>
     <row r="6">
@@ -2879,16 +2879,16 @@
         <v>686246</v>
       </c>
       <c r="C6" t="n">
-        <v>768289.537828741</v>
+        <v>737726.951920272</v>
       </c>
       <c r="D6" t="n">
-        <v>-82043.5378287407</v>
+        <v>-51480.9519202718</v>
       </c>
       <c r="E6" t="n">
         <v>40.0086341332848</v>
       </c>
       <c r="F6" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
     </row>
     <row r="7">
@@ -2899,16 +2899,16 @@
         <v>819599</v>
       </c>
       <c r="C7" t="n">
-        <v>813857.583857175</v>
+        <v>785251.564586519</v>
       </c>
       <c r="D7" t="n">
-        <v>5741.41614282516</v>
+        <v>34347.4354134811</v>
       </c>
       <c r="E7" t="n">
         <v>42.4290714496252</v>
       </c>
       <c r="F7" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
     </row>
     <row r="8">
@@ -2919,16 +2919,16 @@
         <v>870647</v>
       </c>
       <c r="C8" t="n">
-        <v>798392.07250555</v>
+        <v>778979.154787496</v>
       </c>
       <c r="D8" t="n">
-        <v>72254.9274944496</v>
+        <v>91667.8452125039</v>
       </c>
       <c r="E8" t="n">
         <v>40.2307810069611</v>
       </c>
       <c r="F8" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
     </row>
     <row r="9">
@@ -2939,16 +2939,16 @@
         <v>990331</v>
       </c>
       <c r="C9" t="n">
-        <v>865856.400348797</v>
+        <v>860189.969628794</v>
       </c>
       <c r="D9" t="n">
-        <v>124474.599651203</v>
+        <v>130141.030371206</v>
       </c>
       <c r="E9" t="n">
         <v>42.6687771131109</v>
       </c>
       <c r="F9" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
     </row>
     <row r="10">
@@ -2959,16 +2959,16 @@
         <v>953418</v>
       </c>
       <c r="C10" t="n">
-        <v>885288.113966529</v>
+        <v>888556.373591235</v>
       </c>
       <c r="D10" t="n">
-        <v>68129.8860334713</v>
+        <v>64861.6264087645</v>
       </c>
       <c r="E10" t="n">
         <v>42.6298752469356</v>
       </c>
       <c r="F10" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
     </row>
     <row r="11">
@@ -2979,16 +2979,16 @@
         <v>985082</v>
       </c>
       <c r="C11" t="n">
-        <v>963597.818594877</v>
+        <v>965745.481377642</v>
       </c>
       <c r="D11" t="n">
-        <v>21484.1814051231</v>
+        <v>19336.5186223581</v>
       </c>
       <c r="E11" t="n">
         <v>47.5471772864491</v>
       </c>
       <c r="F11" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
     </row>
     <row r="12">
@@ -2999,16 +2999,16 @@
         <v>1083865</v>
       </c>
       <c r="C12" t="n">
-        <v>1038529.66481393</v>
+        <v>1035739.94353629</v>
       </c>
       <c r="D12" t="n">
-        <v>45335.3351860667</v>
+        <v>48125.056463711</v>
       </c>
       <c r="E12" t="n">
         <v>52.571490172106</v>
       </c>
       <c r="F12" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
     </row>
     <row r="13">
@@ -3019,16 +3019,16 @@
         <v>1118119</v>
       </c>
       <c r="C13" t="n">
-        <v>1100626.49223366</v>
+        <v>1099940.09050407</v>
       </c>
       <c r="D13" t="n">
-        <v>17492.5077663423</v>
+        <v>18178.90949593</v>
       </c>
       <c r="E13" t="n">
         <v>55.9128976329543</v>
       </c>
       <c r="F13" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
     </row>
     <row r="14">
@@ -3039,16 +3039,16 @@
         <v>1187401</v>
       </c>
       <c r="C14" t="n">
-        <v>1182389.11803586</v>
+        <v>1181038.685636</v>
       </c>
       <c r="D14" t="n">
-        <v>5011.88196414502</v>
+        <v>6362.31436400034</v>
       </c>
       <c r="E14" t="n">
         <v>60.8643289214959</v>
       </c>
       <c r="F14" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
     </row>
     <row r="15">
@@ -3059,16 +3059,16 @@
         <v>1155632</v>
       </c>
       <c r="C15" t="n">
-        <v>1250113.6699785</v>
+        <v>1247832.15392757</v>
       </c>
       <c r="D15" t="n">
-        <v>-94481.6699784982</v>
+        <v>-92200.1539275652</v>
       </c>
       <c r="E15" t="n">
         <v>64.9378275403955</v>
       </c>
       <c r="F15" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
     </row>
     <row r="16">
@@ -3079,16 +3079,16 @@
         <v>929833</v>
       </c>
       <c r="C16" t="n">
-        <v>938394.144469765</v>
+        <v>1164781.22813021</v>
       </c>
       <c r="D16" t="n">
-        <v>-8561.14446976489</v>
+        <v>-234948.22813021</v>
       </c>
       <c r="E16" t="n">
-        <v>49.0443949187084</v>
+        <v>62.7281498884928</v>
       </c>
       <c r="F16" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
     </row>
     <row r="17">
@@ -3099,16 +3099,16 @@
         <v>1403276</v>
       </c>
       <c r="C17" t="n">
-        <v>1414949.49766076</v>
+        <v>1317626.09433209</v>
       </c>
       <c r="D17" t="n">
-        <v>-11673.4976607564</v>
+        <v>85649.9056679135</v>
       </c>
       <c r="E17" t="n">
         <v>74.8455798988774</v>
       </c>
       <c r="F17" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
     </row>
     <row r="18">
@@ -3119,16 +3119,16 @@
         <v>1590431</v>
       </c>
       <c r="C18" t="n">
-        <v>1518951.33175062</v>
+        <v>1519440.32033808</v>
       </c>
       <c r="D18" t="n">
-        <v>71479.6682493814</v>
+        <v>70990.6796619205</v>
       </c>
       <c r="E18" t="n">
         <v>80.4825548107267</v>
       </c>
       <c r="F18" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
     </row>
     <row r="19">
@@ -3139,16 +3139,16 @@
         <v>1834812</v>
       </c>
       <c r="C19" t="n">
-        <v>1671780.34230257</v>
+        <v>1686761.15008665</v>
       </c>
       <c r="D19" t="n">
-        <v>163031.657697429</v>
+        <v>148050.849913347</v>
       </c>
       <c r="E19" t="n">
         <v>87.7549051100208</v>
       </c>
       <c r="F19" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
     </row>
     <row r="20">
@@ -3159,16 +3159,16 @@
         <v>2000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1920891.39192069</v>
+        <v>1956948.72500351</v>
       </c>
       <c r="D20" t="n">
-        <v>79108.6080793109</v>
+        <v>43051.2749964901</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
     </row>
     <row r="21">
@@ -3179,16 +3179,16 @@
         <v>2080000</v>
       </c>
       <c r="C21" t="n">
-        <v>2062965.81709618</v>
+        <v>2095008.22037324</v>
       </c>
       <c r="D21" t="n">
-        <v>17034.1829038214</v>
+        <v>-15008.2203732369</v>
       </c>
       <c r="E21" t="n">
         <v>108.743157655878</v>
       </c>
       <c r="F21" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
     </row>
     <row r="22">
@@ -3199,16 +3199,16 @@
         <v>2287000</v>
       </c>
       <c r="C22" t="n">
-        <v>2591859.717612</v>
+        <v>2429837.34817306</v>
       </c>
       <c r="D22" t="n">
-        <v>-304859.717612004</v>
+        <v>-142837.348173059</v>
       </c>
       <c r="E22" t="n">
-        <v>139.46322156225</v>
+        <v>128.503440517496</v>
       </c>
       <c r="F22" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
     </row>
     <row r="23">
@@ -3219,16 +3219,16 @@
         <v>2411000</v>
       </c>
       <c r="C23" t="n">
-        <v>2230652.25232236</v>
+        <v>2289454.90537581</v>
       </c>
       <c r="D23" t="n">
-        <v>180347.747677636</v>
+        <v>121545.094624191</v>
       </c>
       <c r="E23" t="n">
         <v>124.314776503352</v>
       </c>
       <c r="F23" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
     </row>
     <row r="24">
@@ -3239,16 +3239,16 @@
         <v>2714431</v>
       </c>
       <c r="C24" t="n">
-        <v>2525938.8540278</v>
+        <v>2566752.19760001</v>
       </c>
       <c r="D24" t="n">
-        <v>188492.1459722</v>
+        <v>147678.802399987</v>
       </c>
       <c r="E24" t="n">
         <v>134.995398175514</v>
       </c>
       <c r="F24" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
     </row>
     <row r="25">
@@ -3259,16 +3259,16 @@
         <v>2463842</v>
       </c>
       <c r="C25" t="n">
-        <v>2623983.43686094</v>
+        <v>2678787.81916307</v>
       </c>
       <c r="D25" t="n">
-        <v>-160141.436860935</v>
+        <v>-214945.819163067</v>
       </c>
       <c r="E25" t="n">
         <v>138.815936329343</v>
       </c>
       <c r="F25" t="n">
-        <v>-103073.493104484</v>
+        <v>-146501.204705833</v>
       </c>
     </row>
   </sheetData>
@@ -3328,25 +3328,25 @@
         <v>9.23693404109287</v>
       </c>
       <c r="C2" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
       <c r="D2" t="n">
-        <v>185761.126585827</v>
+        <v>178296.746398079</v>
       </c>
       <c r="E2" t="n">
-        <v>772391.619617413</v>
+        <v>743686.726313586</v>
       </c>
       <c r="F2" t="n">
         <v>686496</v>
       </c>
       <c r="G2" t="n">
-        <v>-85895.6196174133</v>
+        <v>-57190.7263135863</v>
       </c>
       <c r="H2" t="n">
-        <v>-26784.8770926572</v>
+        <v>-19641.9287629837</v>
       </c>
       <c r="I2" t="n">
-        <v>158976.24949317</v>
+        <v>158654.817635095</v>
       </c>
       <c r="J2" t="n">
         <v>686496</v>
@@ -3363,25 +3363,25 @@
         <v>9.61533075382236</v>
       </c>
       <c r="C3" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
       <c r="D3" t="n">
-        <v>192524.247340353</v>
+        <v>185325.493230964</v>
       </c>
       <c r="E3" t="n">
-        <v>772391.619617413</v>
+        <v>743686.726313586</v>
       </c>
       <c r="F3" t="n">
         <v>686496</v>
       </c>
       <c r="G3" t="n">
-        <v>-85895.6196174133</v>
+        <v>-57190.7263135863</v>
       </c>
       <c r="H3" t="n">
-        <v>-24660.4882173356</v>
+        <v>-17504.2298891489</v>
       </c>
       <c r="I3" t="n">
-        <v>167863.759123018</v>
+        <v>167821.263341816</v>
       </c>
       <c r="J3" t="n">
         <v>686496</v>
@@ -3398,25 +3398,25 @@
         <v>8.96665067485753</v>
       </c>
       <c r="C4" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
       <c r="D4" t="n">
-        <v>180930.32604688</v>
+        <v>173276.212946018</v>
       </c>
       <c r="E4" t="n">
-        <v>772391.619617413</v>
+        <v>743686.726313586</v>
       </c>
       <c r="F4" t="n">
         <v>686496</v>
       </c>
       <c r="G4" t="n">
-        <v>-85895.6196174133</v>
+        <v>-57190.7263135863</v>
       </c>
       <c r="H4" t="n">
-        <v>-20411.7104666925</v>
+        <v>-13228.8321414792</v>
       </c>
       <c r="I4" t="n">
-        <v>160518.615580187</v>
+        <v>160047.380804539</v>
       </c>
       <c r="J4" t="n">
         <v>686496</v>
@@ -3433,25 +3433,25 @@
         <v>10.7707921444785</v>
       </c>
       <c r="C5" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
       <c r="D5" t="n">
-        <v>213175.919644353</v>
+        <v>206788.273738525</v>
       </c>
       <c r="E5" t="n">
-        <v>772391.619617413</v>
+        <v>743686.726313586</v>
       </c>
       <c r="F5" t="n">
         <v>686496</v>
       </c>
       <c r="G5" t="n">
-        <v>-85895.6196174133</v>
+        <v>-57190.7263135863</v>
       </c>
       <c r="H5" t="n">
-        <v>-14038.5438407279</v>
+        <v>-6815.73551997473</v>
       </c>
       <c r="I5" t="n">
-        <v>199137.375803625</v>
+        <v>199972.53821855</v>
       </c>
       <c r="J5" t="n">
         <v>686496</v>
@@ -3468,28 +3468,28 @@
         <v>9.39376000248317</v>
       </c>
       <c r="C6" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
       <c r="D6" t="n">
-        <v>183468.239756479</v>
+        <v>176372.738134213</v>
       </c>
       <c r="E6" t="n">
-        <v>763718.331704359</v>
+        <v>736508.522132886</v>
       </c>
       <c r="F6" t="n">
         <v>726689</v>
       </c>
       <c r="G6" t="n">
-        <v>-37029.331704359</v>
+        <v>-9819.52213288646</v>
       </c>
       <c r="H6" t="n">
-        <v>-5540.98833944173</v>
+        <v>1735.05997536459</v>
       </c>
       <c r="I6" t="n">
-        <v>177927.251417037</v>
+        <v>178107.798109578</v>
       </c>
       <c r="J6" t="n">
-        <v>726688.265086538</v>
+        <v>726689.397623859</v>
       </c>
       <c r="K6" t="s">
         <v>134</v>
@@ -3503,28 +3503,28 @@
         <v>9.77858118766171</v>
       </c>
       <c r="C7" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
       <c r="D7" t="n">
-        <v>190346.185723528</v>
+        <v>183520.820016427</v>
       </c>
       <c r="E7" t="n">
-        <v>763718.331704359</v>
+        <v>736508.522132886</v>
       </c>
       <c r="F7" t="n">
         <v>726689</v>
       </c>
       <c r="G7" t="n">
-        <v>-37029.331704359</v>
+        <v>-9819.52213288646</v>
       </c>
       <c r="H7" t="n">
-        <v>-3628.57746493264</v>
+        <v>3479.44173245175</v>
       </c>
       <c r="I7" t="n">
-        <v>186717.608258595</v>
+        <v>187000.261748878</v>
       </c>
       <c r="J7" t="n">
-        <v>726688.265086538</v>
+        <v>726689.397623859</v>
       </c>
       <c r="K7" t="s">
         <v>135</v>
@@ -3538,28 +3538,28 @@
         <v>9.11888772735565</v>
       </c>
       <c r="C8" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
       <c r="D8" t="n">
-        <v>178555.421208587</v>
+        <v>171266.965361203</v>
       </c>
       <c r="E8" t="n">
-        <v>763718.331704359</v>
+        <v>736508.522132886</v>
       </c>
       <c r="F8" t="n">
         <v>726689</v>
       </c>
       <c r="G8" t="n">
-        <v>-37029.331704359</v>
+        <v>-9819.52213288646</v>
       </c>
       <c r="H8" t="n">
-        <v>-8301.31121720062</v>
+        <v>-1582.59024871324</v>
       </c>
       <c r="I8" t="n">
-        <v>170254.109991386</v>
+        <v>169684.37511249</v>
       </c>
       <c r="J8" t="n">
-        <v>726688.265086538</v>
+        <v>726689.397623859</v>
       </c>
       <c r="K8" t="s">
         <v>136</v>
@@ -3573,28 +3573,28 @@
         <v>10.9536601638319</v>
       </c>
       <c r="C9" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
       <c r="D9" t="n">
-        <v>211348.485015766</v>
+        <v>205347.998621043</v>
       </c>
       <c r="E9" t="n">
-        <v>763718.331704359</v>
+        <v>736508.522132886</v>
       </c>
       <c r="F9" t="n">
         <v>726689</v>
       </c>
       <c r="G9" t="n">
-        <v>-37029.331704359</v>
+        <v>-9819.52213288646</v>
       </c>
       <c r="H9" t="n">
-        <v>-19559.1895962457</v>
+        <v>-13451.0359681304</v>
       </c>
       <c r="I9" t="n">
-        <v>191789.295419521</v>
+        <v>191896.962652913</v>
       </c>
       <c r="J9" t="n">
-        <v>726688.265086538</v>
+        <v>726689.397623859</v>
       </c>
       <c r="K9" t="s">
         <v>137</v>
@@ -3608,28 +3608,28 @@
         <v>9.99617052517854</v>
       </c>
       <c r="C10" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
       <c r="D10" t="n">
-        <v>196118.306842025</v>
+        <v>190301.726551835</v>
       </c>
       <c r="E10" t="n">
-        <v>772678.32526231</v>
+        <v>748948.751454629</v>
       </c>
       <c r="F10" t="n">
         <v>597520</v>
       </c>
       <c r="G10" t="n">
-        <v>-175158.32526231</v>
+        <v>-151428.751454629</v>
       </c>
       <c r="H10" t="n">
-        <v>-37402.2126020678</v>
+        <v>-32125.8954257997</v>
       </c>
       <c r="I10" t="n">
-        <v>158716.094239957</v>
+        <v>158175.831126035</v>
       </c>
       <c r="J10" t="n">
-        <v>597519.523008963</v>
+        <v>597520.331716393</v>
       </c>
       <c r="K10" t="s">
         <v>138</v>
@@ -3643,28 +3643,28 @@
         <v>10.3276944445079</v>
       </c>
       <c r="C11" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
       <c r="D11" t="n">
-        <v>202043.665662573</v>
+        <v>196459.807792033</v>
       </c>
       <c r="E11" t="n">
-        <v>772678.32526231</v>
+        <v>748948.751454629</v>
       </c>
       <c r="F11" t="n">
         <v>597520</v>
       </c>
       <c r="G11" t="n">
-        <v>-175158.32526231</v>
+        <v>-151428.751454629</v>
       </c>
       <c r="H11" t="n">
-        <v>-47094.4169889043</v>
+        <v>-41888.3230123711</v>
       </c>
       <c r="I11" t="n">
-        <v>154949.248673669</v>
+        <v>154571.484779661</v>
       </c>
       <c r="J11" t="n">
-        <v>597519.523008963</v>
+        <v>597520.331716393</v>
       </c>
       <c r="K11" t="s">
         <v>139</v>
@@ -3678,28 +3678,28 @@
         <v>8.43179753569241</v>
       </c>
       <c r="C12" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
       <c r="D12" t="n">
-        <v>168158.11829626</v>
+        <v>161243.382952632</v>
       </c>
       <c r="E12" t="n">
-        <v>772678.32526231</v>
+        <v>748948.751454629</v>
       </c>
       <c r="F12" t="n">
         <v>597520</v>
       </c>
       <c r="G12" t="n">
-        <v>-175158.32526231</v>
+        <v>-151428.751454629</v>
       </c>
       <c r="H12" t="n">
-        <v>-48635.8027567551</v>
+        <v>-42738.3187278445</v>
       </c>
       <c r="I12" t="n">
-        <v>119522.315539505</v>
+        <v>118505.064224788</v>
       </c>
       <c r="J12" t="n">
-        <v>597519.523008963</v>
+        <v>597520.331716393</v>
       </c>
       <c r="K12" t="s">
         <v>140</v>
@@ -3713,28 +3713,28 @@
         <v>10.5690946367562</v>
       </c>
       <c r="C13" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
       <c r="D13" t="n">
-        <v>206358.234461453</v>
+        <v>200943.834158129</v>
       </c>
       <c r="E13" t="n">
-        <v>772678.32526231</v>
+        <v>748948.751454629</v>
       </c>
       <c r="F13" t="n">
         <v>597520</v>
       </c>
       <c r="G13" t="n">
-        <v>-175158.32526231</v>
+        <v>-151428.751454629</v>
       </c>
       <c r="H13" t="n">
-        <v>-42026.3699056203</v>
+        <v>-34675.8825722201</v>
       </c>
       <c r="I13" t="n">
-        <v>164331.864555832</v>
+        <v>166267.951585909</v>
       </c>
       <c r="J13" t="n">
-        <v>597519.523008963</v>
+        <v>597520.331716393</v>
       </c>
       <c r="K13" t="s">
         <v>141</v>
@@ -3748,28 +3748,28 @@
         <v>9.78700271451556</v>
       </c>
       <c r="C14" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
       <c r="D14" t="n">
-        <v>183745.533084705</v>
+        <v>173645.483295192</v>
       </c>
       <c r="E14" t="n">
-        <v>695232.237012976</v>
+        <v>653270.834204448</v>
       </c>
       <c r="F14" t="n">
         <v>622389</v>
       </c>
       <c r="G14" t="n">
-        <v>-72843.2370129756</v>
+        <v>-30881.8342044482</v>
       </c>
       <c r="H14" t="n">
-        <v>-27266.1184354999</v>
+        <v>-17701.0145454978</v>
       </c>
       <c r="I14" t="n">
-        <v>156479.414649205</v>
+        <v>155944.468749695</v>
       </c>
       <c r="J14" t="n">
-        <v>622387.340412096</v>
+        <v>622389.638999423</v>
       </c>
       <c r="K14" t="s">
         <v>142</v>
@@ -3783,28 +3783,28 @@
         <v>9.43061325992536</v>
       </c>
       <c r="C15" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
       <c r="D15" t="n">
-        <v>177375.750166542</v>
+        <v>167025.522904534</v>
       </c>
       <c r="E15" t="n">
-        <v>695232.237012976</v>
+        <v>653270.834204448</v>
       </c>
       <c r="F15" t="n">
         <v>622389</v>
       </c>
       <c r="G15" t="n">
-        <v>-72843.2370129756</v>
+        <v>-30881.8342044482</v>
       </c>
       <c r="H15" t="n">
-        <v>-17740.0601333397</v>
+        <v>-6918.78103711222</v>
       </c>
       <c r="I15" t="n">
-        <v>159635.690033202</v>
+        <v>160106.741867422</v>
       </c>
       <c r="J15" t="n">
-        <v>622387.340412096</v>
+        <v>622389.638999423</v>
       </c>
       <c r="K15" t="s">
         <v>143</v>
@@ -3818,28 +3818,28 @@
         <v>8.33745714440349</v>
       </c>
       <c r="C16" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
       <c r="D16" t="n">
-        <v>157837.666023331</v>
+        <v>146720.067475494</v>
       </c>
       <c r="E16" t="n">
-        <v>695232.237012976</v>
+        <v>653270.834204448</v>
       </c>
       <c r="F16" t="n">
         <v>622389</v>
       </c>
       <c r="G16" t="n">
-        <v>-72843.2370129756</v>
+        <v>-30881.8342044482</v>
       </c>
       <c r="H16" t="n">
-        <v>-13448.1949991398</v>
+        <v>-2329.1820470635</v>
       </c>
       <c r="I16" t="n">
-        <v>144389.471024191</v>
+        <v>144390.885428431</v>
       </c>
       <c r="J16" t="n">
-        <v>622387.340412096</v>
+        <v>622389.638999423</v>
       </c>
       <c r="K16" t="s">
         <v>144</v>
@@ -3853,28 +3853,28 @@
         <v>9.36893046970783</v>
       </c>
       <c r="C17" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
       <c r="D17" t="n">
-        <v>176273.287738398</v>
+        <v>165879.760529228</v>
       </c>
       <c r="E17" t="n">
-        <v>695232.237012976</v>
+        <v>653270.834204448</v>
       </c>
       <c r="F17" t="n">
         <v>622389</v>
       </c>
       <c r="G17" t="n">
-        <v>-72843.2370129756</v>
+        <v>-30881.8342044482</v>
       </c>
       <c r="H17" t="n">
-        <v>-14390.5230329002</v>
+        <v>-3932.21757535159</v>
       </c>
       <c r="I17" t="n">
-        <v>161882.764705498</v>
+        <v>161947.542953876</v>
       </c>
       <c r="J17" t="n">
-        <v>622387.340412096</v>
+        <v>622389.638999423</v>
       </c>
       <c r="K17" t="s">
         <v>145</v>
@@ -3888,28 +3888,28 @@
         <v>9.74751579800055</v>
       </c>
       <c r="C18" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
       <c r="D18" t="n">
-        <v>187520.868956491</v>
+        <v>179701.849307289</v>
       </c>
       <c r="E18" t="n">
-        <v>768288.491993403</v>
+        <v>737727.427548572</v>
       </c>
       <c r="F18" t="n">
         <v>686246</v>
       </c>
       <c r="G18" t="n">
-        <v>-82042.4919934028</v>
+        <v>-51481.4275485722</v>
       </c>
       <c r="H18" t="n">
-        <v>-20567.0442346209</v>
+        <v>-11727.8876219765</v>
       </c>
       <c r="I18" t="n">
-        <v>166953.82472187</v>
+        <v>167973.961685313</v>
       </c>
       <c r="J18" t="n">
-        <v>686244.954164662</v>
+        <v>686246.4756283</v>
       </c>
       <c r="K18" t="s">
         <v>146</v>
@@ -3923,28 +3923,28 @@
         <v>9.67083034417807</v>
       </c>
       <c r="C19" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
       <c r="D19" t="n">
-        <v>186150.262482201</v>
+        <v>178277.411349583</v>
       </c>
       <c r="E19" t="n">
-        <v>768288.491993403</v>
+        <v>737727.427548572</v>
       </c>
       <c r="F19" t="n">
         <v>686246</v>
       </c>
       <c r="G19" t="n">
-        <v>-82042.4919934028</v>
+        <v>-51481.4275485722</v>
       </c>
       <c r="H19" t="n">
-        <v>-23015.188804335</v>
+        <v>-15303.0957838631</v>
       </c>
       <c r="I19" t="n">
-        <v>163135.073677866</v>
+        <v>162974.31556572</v>
       </c>
       <c r="J19" t="n">
-        <v>686244.954164662</v>
+        <v>686246.4756283</v>
       </c>
       <c r="K19" t="s">
         <v>147</v>
@@ -3958,28 +3958,28 @@
         <v>8.76118531638173</v>
       </c>
       <c r="C20" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
       <c r="D20" t="n">
-        <v>169892.08961816</v>
+        <v>161380.687902769</v>
       </c>
       <c r="E20" t="n">
-        <v>768288.491993403</v>
+        <v>737727.427548572</v>
       </c>
       <c r="F20" t="n">
         <v>686246</v>
       </c>
       <c r="G20" t="n">
-        <v>-82042.4919934028</v>
+        <v>-51481.4275485722</v>
       </c>
       <c r="H20" t="n">
-        <v>-21734.9567420423</v>
+        <v>-14657.8420610115</v>
       </c>
       <c r="I20" t="n">
-        <v>148157.132876117</v>
+        <v>146722.845841758</v>
       </c>
       <c r="J20" t="n">
-        <v>686244.954164662</v>
+        <v>686246.4756283</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3993,28 +3993,28 @@
         <v>11.8291026747245</v>
       </c>
       <c r="C21" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
       <c r="D21" t="n">
-        <v>224725.270936551</v>
+        <v>218367.478988931</v>
       </c>
       <c r="E21" t="n">
-        <v>768288.491993403</v>
+        <v>737727.427548572</v>
       </c>
       <c r="F21" t="n">
         <v>686246</v>
       </c>
       <c r="G21" t="n">
-        <v>-82042.4919934028</v>
+        <v>-51481.4275485722</v>
       </c>
       <c r="H21" t="n">
-        <v>-16726.3480477429</v>
+        <v>-9792.12645342154</v>
       </c>
       <c r="I21" t="n">
-        <v>207998.922888808</v>
+        <v>208575.35253551</v>
       </c>
       <c r="J21" t="n">
-        <v>686244.954164662</v>
+        <v>686246.4756283</v>
       </c>
       <c r="K21" t="s">
         <v>149</v>
@@ -4028,28 +4028,28 @@
         <v>10.8405558524574</v>
       </c>
       <c r="C22" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
       <c r="D22" t="n">
-        <v>207633.732888299</v>
+        <v>200646.347808997</v>
       </c>
       <c r="E22" t="n">
-        <v>813856.617030688</v>
+        <v>785252.024786855</v>
       </c>
       <c r="F22" t="n">
         <v>819599</v>
       </c>
       <c r="G22" t="n">
-        <v>5742.38296931167</v>
+        <v>34346.9752131454</v>
       </c>
       <c r="H22" t="n">
-        <v>-7989.36272143691</v>
+        <v>-705.948961093341</v>
       </c>
       <c r="I22" t="n">
-        <v>199644.370166862</v>
+        <v>199940.398847904</v>
       </c>
       <c r="J22" t="n">
-        <v>819598.033173513</v>
+        <v>819599.460200335</v>
       </c>
       <c r="K22" t="s">
         <v>150</v>
@@ -4063,28 +4063,28 @@
         <v>10.4064097033053</v>
       </c>
       <c r="C23" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
       <c r="D23" t="n">
-        <v>199874.197107322</v>
+        <v>192582.051084929</v>
       </c>
       <c r="E23" t="n">
-        <v>813856.617030688</v>
+        <v>785252.024786855</v>
       </c>
       <c r="F23" t="n">
         <v>819599</v>
       </c>
       <c r="G23" t="n">
-        <v>5742.38296931167</v>
+        <v>34346.9752131454</v>
       </c>
       <c r="H23" t="n">
-        <v>-724.681888057268</v>
+        <v>6645.6451616233</v>
       </c>
       <c r="I23" t="n">
-        <v>199149.515219265</v>
+        <v>199227.696246553</v>
       </c>
       <c r="J23" t="n">
-        <v>819598.033173513</v>
+        <v>819599.460200335</v>
       </c>
       <c r="K23" t="s">
         <v>151</v>
@@ -4098,28 +4098,28 @@
         <v>9.30124144311374</v>
       </c>
       <c r="C24" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
       <c r="D24" t="n">
-        <v>180121.418749841</v>
+        <v>172053.469183162</v>
       </c>
       <c r="E24" t="n">
-        <v>813856.617030688</v>
+        <v>785252.024786855</v>
       </c>
       <c r="F24" t="n">
         <v>819599</v>
       </c>
       <c r="G24" t="n">
-        <v>5742.38296931167</v>
+        <v>34346.9752131454</v>
       </c>
       <c r="H24" t="n">
-        <v>5067.69445239598</v>
+        <v>12262.6559147284</v>
       </c>
       <c r="I24" t="n">
-        <v>185189.113202237</v>
+        <v>184316.12509789</v>
       </c>
       <c r="J24" t="n">
-        <v>819598.033173513</v>
+        <v>819599.460200335</v>
       </c>
       <c r="K24" t="s">
         <v>152</v>
@@ -4133,28 +4133,28 @@
         <v>11.8808644507488</v>
       </c>
       <c r="C25" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
       <c r="D25" t="n">
-        <v>226227.268285226</v>
+        <v>219970.156709766</v>
       </c>
       <c r="E25" t="n">
-        <v>813856.617030688</v>
+        <v>785252.024786855</v>
       </c>
       <c r="F25" t="n">
         <v>819599</v>
       </c>
       <c r="G25" t="n">
-        <v>5742.38296931167</v>
+        <v>34346.9752131454</v>
       </c>
       <c r="H25" t="n">
-        <v>9387.76629992282</v>
+        <v>16145.0832982219</v>
       </c>
       <c r="I25" t="n">
-        <v>235615.034585149</v>
+        <v>236115.240007988</v>
       </c>
       <c r="J25" t="n">
-        <v>819598.033173513</v>
+        <v>819599.460200335</v>
       </c>
       <c r="K25" t="s">
         <v>153</v>
@@ -4168,28 +4168,28 @@
         <v>11.4067396261152</v>
       </c>
       <c r="C26" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
       <c r="D26" t="n">
-        <v>223709.579920741</v>
+        <v>219803.450474073</v>
       </c>
       <c r="E26" t="n">
-        <v>798391.921496259</v>
+        <v>778979.407094999</v>
       </c>
       <c r="F26" t="n">
         <v>870647</v>
       </c>
       <c r="G26" t="n">
-        <v>72255.0785037408</v>
+        <v>91667.5929050015</v>
       </c>
       <c r="H26" t="n">
-        <v>12235.5336545233</v>
+        <v>18292.9273121038</v>
       </c>
       <c r="I26" t="n">
-        <v>235945.113575264</v>
+        <v>238096.377786176</v>
       </c>
       <c r="J26" t="n">
-        <v>870646.848990708</v>
+        <v>870647.252307502</v>
       </c>
       <c r="K26" t="s">
         <v>130</v>
@@ -4203,28 +4203,28 @@
         <v>9.28905311211552</v>
       </c>
       <c r="C27" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
       <c r="D27" t="n">
-        <v>185859.96565982</v>
+        <v>180467.267368908</v>
       </c>
       <c r="E27" t="n">
-        <v>798391.921496259</v>
+        <v>778979.407094999</v>
       </c>
       <c r="F27" t="n">
         <v>870647</v>
       </c>
       <c r="G27" t="n">
-        <v>72255.0785037408</v>
+        <v>91667.5929050015</v>
       </c>
       <c r="H27" t="n">
-        <v>15705.9198839991</v>
+        <v>21001.6785140654</v>
       </c>
       <c r="I27" t="n">
-        <v>201565.885543819</v>
+        <v>201468.945882973</v>
       </c>
       <c r="J27" t="n">
-        <v>870646.848990708</v>
+        <v>870647.252307502</v>
       </c>
       <c r="K27" t="s">
         <v>131</v>
@@ -4238,28 +4238,28 @@
         <v>9.01117566522454</v>
       </c>
       <c r="C28" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
       <c r="D28" t="n">
-        <v>180893.435388647</v>
+        <v>175305.673308863</v>
       </c>
       <c r="E28" t="n">
-        <v>798391.921496259</v>
+        <v>778979.407094999</v>
       </c>
       <c r="F28" t="n">
         <v>870647</v>
       </c>
       <c r="G28" t="n">
-        <v>72255.0785037408</v>
+        <v>91667.5929050015</v>
       </c>
       <c r="H28" t="n">
-        <v>19798.9249883502</v>
+        <v>24271.3369041066</v>
       </c>
       <c r="I28" t="n">
-        <v>200692.360376997</v>
+        <v>199577.010212969</v>
       </c>
       <c r="J28" t="n">
-        <v>870646.848990708</v>
+        <v>870647.252307502</v>
       </c>
       <c r="K28" t="s">
         <v>132</v>
@@ -4273,28 +4273,28 @@
         <v>10.5238126035059</v>
       </c>
       <c r="C29" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
       <c r="D29" t="n">
-        <v>207928.940527052</v>
+        <v>203403.015943155</v>
       </c>
       <c r="E29" t="n">
-        <v>798391.921496259</v>
+        <v>778979.407094999</v>
       </c>
       <c r="F29" t="n">
         <v>870647</v>
       </c>
       <c r="G29" t="n">
-        <v>72255.0785037408</v>
+        <v>91667.5929050015</v>
       </c>
       <c r="H29" t="n">
-        <v>24514.5489675767</v>
+        <v>28101.9024822275</v>
       </c>
       <c r="I29" t="n">
-        <v>232443.489494629</v>
+        <v>231504.918425383</v>
       </c>
       <c r="J29" t="n">
-        <v>870646.848990708</v>
+        <v>870647.252307502</v>
       </c>
       <c r="K29" t="s">
         <v>133</v>
@@ -4308,28 +4308,28 @@
         <v>11.9127471155729</v>
       </c>
       <c r="C30" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
       <c r="D30" t="n">
-        <v>238726.152220231</v>
+        <v>238183.73722995</v>
       </c>
       <c r="E30" t="n">
-        <v>865857.067383995</v>
+        <v>860190.005839511</v>
       </c>
       <c r="F30" t="n">
         <v>990331</v>
       </c>
       <c r="G30" t="n">
-        <v>124473.932616005</v>
+        <v>130140.994160489</v>
       </c>
       <c r="H30" t="n">
-        <v>29852.7918216785</v>
+        <v>32493.3752484281</v>
       </c>
       <c r="I30" t="n">
-        <v>268578.944041909</v>
+        <v>270677.112478378</v>
       </c>
       <c r="J30" t="n">
-        <v>990331.667035198</v>
+        <v>990331.036210717</v>
       </c>
       <c r="K30" t="s">
         <v>134</v>
@@ -4343,28 +4343,28 @@
         <v>10.8348612881606</v>
       </c>
       <c r="C31" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
       <c r="D31" t="n">
-        <v>219460.995401616</v>
+        <v>218161.928528212</v>
       </c>
       <c r="E31" t="n">
-        <v>865857.067383995</v>
+        <v>860190.005839511</v>
       </c>
       <c r="F31" t="n">
         <v>990331</v>
       </c>
       <c r="G31" t="n">
-        <v>124473.932616005</v>
+        <v>130140.994160489</v>
       </c>
       <c r="H31" t="n">
-        <v>32494.4321997681</v>
+        <v>34266.7172926576</v>
       </c>
       <c r="I31" t="n">
-        <v>251955.427601384</v>
+        <v>252428.64582087</v>
       </c>
       <c r="J31" t="n">
-        <v>990331.667035198</v>
+        <v>990331.036210717</v>
       </c>
       <c r="K31" t="s">
         <v>135</v>
@@ -4378,28 +4378,28 @@
         <v>9.02929647186484</v>
       </c>
       <c r="C32" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
       <c r="D32" t="n">
-        <v>187189.962192451</v>
+        <v>184623.428966297</v>
       </c>
       <c r="E32" t="n">
-        <v>865857.067383995</v>
+        <v>860190.005839511</v>
       </c>
       <c r="F32" t="n">
         <v>990331</v>
       </c>
       <c r="G32" t="n">
-        <v>124473.932616005</v>
+        <v>130140.994160489</v>
       </c>
       <c r="H32" t="n">
-        <v>32439.4701018454</v>
+        <v>33421.9286149162</v>
       </c>
       <c r="I32" t="n">
-        <v>219629.432294297</v>
+        <v>218045.357581213</v>
       </c>
       <c r="J32" t="n">
-        <v>990331.667035198</v>
+        <v>990331.036210717</v>
       </c>
       <c r="K32" t="s">
         <v>136</v>
@@ -4413,28 +4413,28 @@
         <v>10.8918722375126</v>
       </c>
       <c r="C33" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
       <c r="D33" t="n">
-        <v>220479.957569698</v>
+        <v>219220.911115052</v>
       </c>
       <c r="E33" t="n">
-        <v>865857.067383995</v>
+        <v>860190.005839511</v>
       </c>
       <c r="F33" t="n">
         <v>990331</v>
       </c>
       <c r="G33" t="n">
-        <v>124473.932616005</v>
+        <v>130140.994160489</v>
       </c>
       <c r="H33" t="n">
-        <v>29687.9055279105</v>
+        <v>29959.0092152037</v>
       </c>
       <c r="I33" t="n">
-        <v>250167.863097608</v>
+        <v>249179.920330255</v>
       </c>
       <c r="J33" t="n">
-        <v>990331.667035198</v>
+        <v>990331.036210717</v>
       </c>
       <c r="K33" t="s">
         <v>137</v>
@@ -4448,28 +4448,28 @@
         <v>10.2441206518659</v>
       </c>
       <c r="C34" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
       <c r="D34" t="n">
-        <v>213934.556226983</v>
+        <v>214461.086166147</v>
       </c>
       <c r="E34" t="n">
-        <v>885289.470199509</v>
+        <v>888556.234824464</v>
       </c>
       <c r="F34" t="n">
         <v>953418</v>
       </c>
       <c r="G34" t="n">
-        <v>68128.5298004912</v>
+        <v>64861.7651755358</v>
       </c>
       <c r="H34" t="n">
-        <v>24239.7384779633</v>
+        <v>23877.9590935202</v>
       </c>
       <c r="I34" t="n">
-        <v>238174.294704946</v>
+        <v>238339.045259667</v>
       </c>
       <c r="J34" t="n">
-        <v>953419.35623298</v>
+        <v>953417.861233228</v>
       </c>
       <c r="K34" t="s">
         <v>138</v>
@@ -4483,28 +4483,28 @@
         <v>10.4852423350932</v>
       </c>
       <c r="C35" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
       <c r="D35" t="n">
-        <v>218244.147207407</v>
+        <v>218939.939206649</v>
       </c>
       <c r="E35" t="n">
-        <v>885289.470199509</v>
+        <v>888556.234824464</v>
       </c>
       <c r="F35" t="n">
         <v>953418</v>
       </c>
       <c r="G35" t="n">
-        <v>68128.5298004912</v>
+        <v>64861.7651755358</v>
       </c>
       <c r="H35" t="n">
-        <v>19177.5648701462</v>
+        <v>18380.5180483151</v>
       </c>
       <c r="I35" t="n">
-        <v>237421.712077554</v>
+        <v>237320.457254964</v>
       </c>
       <c r="J35" t="n">
-        <v>953419.35623298</v>
+        <v>953417.861233228</v>
       </c>
       <c r="K35" t="s">
         <v>139</v>
@@ -4518,28 +4518,28 @@
         <v>10.721518519552</v>
       </c>
       <c r="C36" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
       <c r="D36" t="n">
-        <v>222467.134123407</v>
+        <v>223328.786750333</v>
       </c>
       <c r="E36" t="n">
-        <v>885289.470199509</v>
+        <v>888556.234824464</v>
       </c>
       <c r="F36" t="n">
         <v>953418</v>
       </c>
       <c r="G36" t="n">
-        <v>68128.5298004912</v>
+        <v>64861.7651755358</v>
       </c>
       <c r="H36" t="n">
-        <v>14501.3847044592</v>
+        <v>13466.6860795884</v>
       </c>
       <c r="I36" t="n">
-        <v>236968.518827866</v>
+        <v>236795.472829922</v>
       </c>
       <c r="J36" t="n">
-        <v>953419.35623298</v>
+        <v>953417.861233228</v>
       </c>
       <c r="K36" t="s">
         <v>140</v>
@@ -4553,28 +4553,28 @@
         <v>11.1789937404245</v>
       </c>
       <c r="C37" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
       <c r="D37" t="n">
-        <v>230643.632641712</v>
+        <v>231826.422701335</v>
       </c>
       <c r="E37" t="n">
-        <v>885289.470199509</v>
+        <v>888556.234824464</v>
       </c>
       <c r="F37" t="n">
         <v>953418</v>
       </c>
       <c r="G37" t="n">
-        <v>68128.5298004912</v>
+        <v>64861.7651755358</v>
       </c>
       <c r="H37" t="n">
-        <v>10211.1979809023</v>
+        <v>9136.46318734015</v>
       </c>
       <c r="I37" t="n">
-        <v>240854.830622614</v>
+        <v>240962.885888675</v>
       </c>
       <c r="J37" t="n">
-        <v>953419.35623298</v>
+        <v>953417.861233228</v>
       </c>
       <c r="K37" t="s">
         <v>141</v>
@@ -4588,28 +4588,28 @@
         <v>11.3312759206842</v>
       </c>
       <c r="C38" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
       <c r="D38" t="n">
-        <v>230970.878033098</v>
+        <v>231117.561683958</v>
       </c>
       <c r="E38" t="n">
-        <v>963598.846863893</v>
+        <v>965745.427727417</v>
       </c>
       <c r="F38" t="n">
         <v>985082</v>
       </c>
       <c r="G38" t="n">
-        <v>21483.1531361069</v>
+        <v>19336.5722725833</v>
       </c>
       <c r="H38" t="n">
-        <v>6307.00469947543</v>
+        <v>5389.84937157024</v>
       </c>
       <c r="I38" t="n">
-        <v>237277.882732574</v>
+        <v>236507.411055528</v>
       </c>
       <c r="J38" t="n">
-        <v>985083.028269016</v>
+        <v>985081.946349774</v>
       </c>
       <c r="K38" t="s">
         <v>142</v>
@@ -4623,28 +4623,28 @@
         <v>12.1178813133434</v>
       </c>
       <c r="C39" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
       <c r="D39" t="n">
-        <v>245029.951692436</v>
+        <v>245728.814838094</v>
       </c>
       <c r="E39" t="n">
-        <v>963598.846863893</v>
+        <v>965745.427727417</v>
       </c>
       <c r="F39" t="n">
         <v>985082</v>
       </c>
       <c r="G39" t="n">
-        <v>21483.1531361069</v>
+        <v>19336.5722725833</v>
       </c>
       <c r="H39" t="n">
-        <v>4370.94364762681</v>
+        <v>3668.91595886993</v>
       </c>
       <c r="I39" t="n">
-        <v>249400.895340063</v>
+        <v>249397.730796964</v>
       </c>
       <c r="J39" t="n">
-        <v>985083.028269016</v>
+        <v>985081.946349774</v>
       </c>
       <c r="K39" t="s">
         <v>143</v>
@@ -4658,28 +4658,28 @@
         <v>10.4589062836713</v>
       </c>
       <c r="C40" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
       <c r="D40" t="n">
-        <v>215378.931805176</v>
+        <v>214913.231368743</v>
       </c>
       <c r="E40" t="n">
-        <v>963598.846863893</v>
+        <v>965745.427727417</v>
       </c>
       <c r="F40" t="n">
         <v>985082</v>
       </c>
       <c r="G40" t="n">
-        <v>21483.1531361069</v>
+        <v>19336.5722725833</v>
       </c>
       <c r="H40" t="n">
-        <v>4403.01482535643</v>
+        <v>3973.66294923922</v>
       </c>
       <c r="I40" t="n">
-        <v>219781.946630533</v>
+        <v>218886.894317983</v>
       </c>
       <c r="J40" t="n">
-        <v>985083.028269016</v>
+        <v>985081.946349774</v>
       </c>
       <c r="K40" t="s">
         <v>144</v>
@@ -4693,28 +4693,28 @@
         <v>13.6391137687502</v>
       </c>
       <c r="C41" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
       <c r="D41" t="n">
-        <v>272219.085333182</v>
+        <v>273985.819836621</v>
       </c>
       <c r="E41" t="n">
-        <v>963598.846863893</v>
+        <v>965745.427727417</v>
       </c>
       <c r="F41" t="n">
         <v>985082</v>
       </c>
       <c r="G41" t="n">
-        <v>21483.1531361069</v>
+        <v>19336.5722725833</v>
       </c>
       <c r="H41" t="n">
-        <v>6403.21823266427</v>
+        <v>6304.0903426781</v>
       </c>
       <c r="I41" t="n">
-        <v>278622.303565847</v>
+        <v>280289.910179299</v>
       </c>
       <c r="J41" t="n">
-        <v>985083.028269016</v>
+        <v>985081.946349774</v>
       </c>
       <c r="K41" t="s">
         <v>145</v>
@@ -4728,28 +4728,28 @@
         <v>11.6428691387851</v>
       </c>
       <c r="C42" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
       <c r="D42" t="n">
-        <v>232822.841217781</v>
+        <v>231072.333751011</v>
       </c>
       <c r="E42" t="n">
-        <v>1038530.18396031</v>
+        <v>1035740.03023687</v>
       </c>
       <c r="F42" t="n">
         <v>1083865</v>
       </c>
       <c r="G42" t="n">
-        <v>45334.8160396934</v>
+        <v>48124.9697631334</v>
       </c>
       <c r="H42" t="n">
-        <v>10371.5538695503</v>
+        <v>10660.1981391866</v>
       </c>
       <c r="I42" t="n">
-        <v>243194.395087331</v>
+        <v>241732.531890198</v>
       </c>
       <c r="J42" t="n">
-        <v>1083865.51914637</v>
+        <v>1083865.08670058</v>
       </c>
       <c r="K42" t="s">
         <v>146</v>
@@ -4763,28 +4763,28 @@
         <v>12.3919304064259</v>
       </c>
       <c r="C43" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
       <c r="D43" t="n">
-        <v>246210.885128233</v>
+        <v>244986.202015325</v>
       </c>
       <c r="E43" t="n">
-        <v>1038530.18396031</v>
+        <v>1035740.03023687</v>
       </c>
       <c r="F43" t="n">
         <v>1083865</v>
       </c>
       <c r="G43" t="n">
-        <v>45334.8160396934</v>
+        <v>48124.9697631334</v>
       </c>
       <c r="H43" t="n">
-        <v>12343.8000950913</v>
+        <v>12951.0676484864</v>
       </c>
       <c r="I43" t="n">
-        <v>258554.685223324</v>
+        <v>257937.269663811</v>
       </c>
       <c r="J43" t="n">
-        <v>1083865.51914637</v>
+        <v>1083865.08670058</v>
       </c>
       <c r="K43" t="s">
         <v>147</v>
@@ -4798,28 +4798,28 @@
         <v>11.7483984681507</v>
       </c>
       <c r="C44" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
       <c r="D44" t="n">
-        <v>234708.977047279</v>
+        <v>233032.548823189</v>
       </c>
       <c r="E44" t="n">
-        <v>1038530.18396031</v>
+        <v>1035740.03023687</v>
       </c>
       <c r="F44" t="n">
         <v>1083865</v>
       </c>
       <c r="G44" t="n">
-        <v>45334.8160396934</v>
+        <v>48124.9697631334</v>
       </c>
       <c r="H44" t="n">
-        <v>12319.9569092871</v>
+        <v>13176.6988705775</v>
       </c>
       <c r="I44" t="n">
-        <v>247028.933956566</v>
+        <v>246209.247693766</v>
       </c>
       <c r="J44" t="n">
-        <v>1083865.51914637</v>
+        <v>1083865.08670058</v>
       </c>
       <c r="K44" t="s">
         <v>148</v>
@@ -4833,28 +4833,28 @@
         <v>16.7882921587443</v>
       </c>
       <c r="C45" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
       <c r="D45" t="n">
-        <v>324787.480567014</v>
+        <v>326648.945647342</v>
       </c>
       <c r="E45" t="n">
-        <v>1038530.18396031</v>
+        <v>1035740.03023687</v>
       </c>
       <c r="F45" t="n">
         <v>1083865</v>
       </c>
       <c r="G45" t="n">
-        <v>45334.8160396934</v>
+        <v>48124.9697631334</v>
       </c>
       <c r="H45" t="n">
-        <v>10300.0243121377</v>
+        <v>11337.0918054599</v>
       </c>
       <c r="I45" t="n">
-        <v>335087.504879152</v>
+        <v>337986.037452801</v>
       </c>
       <c r="J45" t="n">
-        <v>1083865.51914637</v>
+        <v>1083865.08670058</v>
       </c>
       <c r="K45" t="s">
         <v>149</v>
@@ -4868,28 +4868,28 @@
         <v>12.7515959096748</v>
       </c>
       <c r="C46" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
       <c r="D46" t="n">
-        <v>253233.124328741</v>
+        <v>252200.326310038</v>
       </c>
       <c r="E46" t="n">
-        <v>1100627.092724</v>
+        <v>1099940.16437259</v>
       </c>
       <c r="F46" t="n">
         <v>1118119</v>
       </c>
       <c r="G46" t="n">
-        <v>17491.907276002</v>
+        <v>18178.8356274143</v>
       </c>
       <c r="H46" t="n">
-        <v>6284.00230364317</v>
+        <v>7432.24645313362</v>
       </c>
       <c r="I46" t="n">
-        <v>259517.126632385</v>
+        <v>259632.572763172</v>
       </c>
       <c r="J46" t="n">
-        <v>1118119.60049034</v>
+        <v>1118119.07386851</v>
       </c>
       <c r="K46" t="s">
         <v>150</v>
@@ -4903,28 +4903,28 @@
         <v>14.4607563865404</v>
       </c>
       <c r="C47" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
       <c r="D47" t="n">
-        <v>283781.113529085</v>
+        <v>283948.108160486</v>
       </c>
       <c r="E47" t="n">
-        <v>1100627.092724</v>
+        <v>1099940.16437259</v>
       </c>
       <c r="F47" t="n">
         <v>1118119</v>
       </c>
       <c r="G47" t="n">
-        <v>17491.907276002</v>
+        <v>18178.8356274143</v>
       </c>
       <c r="H47" t="n">
-        <v>3913.24335542228</v>
+        <v>4715.30068054258</v>
       </c>
       <c r="I47" t="n">
-        <v>287694.356884507</v>
+        <v>288663.408841028</v>
       </c>
       <c r="J47" t="n">
-        <v>1118119.60049034</v>
+        <v>1118119.07386851</v>
       </c>
       <c r="K47" t="s">
         <v>151</v>
@@ -4938,28 +4938,28 @@
         <v>12.94756273816</v>
       </c>
       <c r="C48" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
       <c r="D48" t="n">
-        <v>256735.658257661</v>
+        <v>255840.424595063</v>
       </c>
       <c r="E48" t="n">
-        <v>1100627.092724</v>
+        <v>1099940.16437259</v>
       </c>
       <c r="F48" t="n">
         <v>1118119</v>
       </c>
       <c r="G48" t="n">
-        <v>17491.907276002</v>
+        <v>18178.8356274143</v>
       </c>
       <c r="H48" t="n">
-        <v>3187.74746747501</v>
+        <v>3186.25448768677</v>
       </c>
       <c r="I48" t="n">
-        <v>259923.405725136</v>
+        <v>259026.67908275</v>
       </c>
       <c r="J48" t="n">
-        <v>1118119.60049034</v>
+        <v>1118119.07386851</v>
       </c>
       <c r="K48" t="s">
         <v>152</v>
@@ -4973,28 +4973,28 @@
         <v>15.7529825985791</v>
       </c>
       <c r="C49" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
       <c r="D49" t="n">
-        <v>306877.19660851</v>
+        <v>307951.305306999</v>
       </c>
       <c r="E49" t="n">
-        <v>1100627.092724</v>
+        <v>1099940.16437259</v>
       </c>
       <c r="F49" t="n">
         <v>1118119</v>
       </c>
       <c r="G49" t="n">
-        <v>17491.907276002</v>
+        <v>18178.8356274143</v>
       </c>
       <c r="H49" t="n">
-        <v>4107.51463980135</v>
+        <v>2845.10787456618</v>
       </c>
       <c r="I49" t="n">
-        <v>310984.711248312</v>
+        <v>310796.413181565</v>
       </c>
       <c r="J49" t="n">
-        <v>1118119.60049034</v>
+        <v>1118119.07386851</v>
       </c>
       <c r="K49" t="s">
         <v>153</v>
@@ -5008,28 +5008,28 @@
         <v>13.3986549446632</v>
       </c>
       <c r="C50" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
       <c r="D50" t="n">
-        <v>263114.319714484</v>
+        <v>261500.860423727</v>
       </c>
       <c r="E50" t="n">
-        <v>1182389.48791093</v>
+        <v>1181038.82491792</v>
       </c>
       <c r="F50" t="n">
         <v>1187401</v>
       </c>
       <c r="G50" t="n">
-        <v>5011.51208907412</v>
+        <v>6362.17508207541</v>
       </c>
       <c r="H50" t="n">
-        <v>6672.5448724013</v>
+        <v>3691.8608411808</v>
       </c>
       <c r="I50" t="n">
-        <v>269786.864586886</v>
+        <v>265192.721264908</v>
       </c>
       <c r="J50" t="n">
-        <v>1187401.36987507</v>
+        <v>1187401.13928192</v>
       </c>
       <c r="K50" t="s">
         <v>130</v>
@@ -5043,28 +5043,28 @@
         <v>16.7879730089583</v>
       </c>
       <c r="C51" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
       <c r="D51" t="n">
-        <v>323691.926689394</v>
+        <v>324457.693315364</v>
       </c>
       <c r="E51" t="n">
-        <v>1182389.48791093</v>
+        <v>1181038.82491792</v>
       </c>
       <c r="F51" t="n">
         <v>1187401</v>
       </c>
       <c r="G51" t="n">
-        <v>5011.51208907412</v>
+        <v>6362.17508207541</v>
       </c>
       <c r="H51" t="n">
-        <v>5530.72721289523</v>
+        <v>3190.04912775429</v>
       </c>
       <c r="I51" t="n">
-        <v>329222.653902289</v>
+        <v>327647.742443118</v>
       </c>
       <c r="J51" t="n">
-        <v>1187401.36987507</v>
+        <v>1187401.13928192</v>
       </c>
       <c r="K51" t="s">
         <v>131</v>
@@ -5078,28 +5078,28 @@
         <v>13.3007279982884</v>
       </c>
       <c r="C52" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
       <c r="D52" t="n">
-        <v>261364.062005643</v>
+        <v>259681.86017602</v>
       </c>
       <c r="E52" t="n">
-        <v>1182389.48791093</v>
+        <v>1181038.82491792</v>
       </c>
       <c r="F52" t="n">
         <v>1187401</v>
       </c>
       <c r="G52" t="n">
-        <v>5011.51208907412</v>
+        <v>6362.17508207541</v>
       </c>
       <c r="H52" t="n">
-        <v>682.061661283153</v>
+        <v>1339.67273428667</v>
       </c>
       <c r="I52" t="n">
-        <v>262046.123666926</v>
+        <v>261021.532910307</v>
       </c>
       <c r="J52" t="n">
-        <v>1187401.36987507</v>
+        <v>1187401.13928192</v>
       </c>
       <c r="K52" t="s">
         <v>132</v>
@@ -5113,28 +5113,28 @@
         <v>17.3769729695861</v>
       </c>
       <c r="C53" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
       <c r="D53" t="n">
-        <v>334219.179501405</v>
+        <v>335398.411002814</v>
       </c>
       <c r="E53" t="n">
-        <v>1182389.48791093</v>
+        <v>1181038.82491792</v>
       </c>
       <c r="F53" t="n">
         <v>1187401</v>
       </c>
       <c r="G53" t="n">
-        <v>5011.51208907412</v>
+        <v>6362.17508207541</v>
       </c>
       <c r="H53" t="n">
-        <v>-7873.45178243496</v>
+        <v>-1859.26833922208</v>
       </c>
       <c r="I53" t="n">
-        <v>326345.72771897</v>
+        <v>333539.142663592</v>
       </c>
       <c r="J53" t="n">
-        <v>1187401.36987507</v>
+        <v>1187401.13928192</v>
       </c>
       <c r="K53" t="s">
         <v>133</v>
@@ -5148,28 +5148,28 @@
         <v>16.0192758607371</v>
       </c>
       <c r="C54" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
       <c r="D54" t="n">
-        <v>308682.515367374</v>
+        <v>307961.083254459</v>
       </c>
       <c r="E54" t="n">
-        <v>1250113.86585135</v>
+        <v>1247832.34657715</v>
       </c>
       <c r="F54" t="n">
         <v>1155632</v>
       </c>
       <c r="G54" t="n">
-        <v>-94481.8658513452</v>
+        <v>-92200.3465771496</v>
       </c>
       <c r="H54" t="n">
-        <v>-20135.8131182591</v>
+        <v>-6406.77409277195</v>
       </c>
       <c r="I54" t="n">
-        <v>288546.702249115</v>
+        <v>301554.309161687</v>
       </c>
       <c r="J54" t="n">
-        <v>1155632.19587285</v>
+        <v>1155632.19264958</v>
       </c>
       <c r="K54" t="s">
         <v>134</v>
@@ -5183,28 +5183,28 @@
         <v>18.0480441521233</v>
       </c>
       <c r="C55" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
       <c r="D55" t="n">
-        <v>344942.885703645</v>
+        <v>345645.603819872</v>
       </c>
       <c r="E55" t="n">
-        <v>1250113.86585135</v>
+        <v>1247832.34657715</v>
       </c>
       <c r="F55" t="n">
         <v>1155632</v>
       </c>
       <c r="G55" t="n">
-        <v>-94481.8658513452</v>
+        <v>-92200.3465771496</v>
       </c>
       <c r="H55" t="n">
-        <v>-26434.599403135</v>
+        <v>-14883.0821498397</v>
       </c>
       <c r="I55" t="n">
-        <v>318508.28630051</v>
+        <v>330762.521670032</v>
       </c>
       <c r="J55" t="n">
-        <v>1155632.19587285</v>
+        <v>1155632.19264958</v>
       </c>
       <c r="K55" t="s">
         <v>135</v>
@@ -5218,28 +5218,28 @@
         <v>14.8314652467803</v>
       </c>
       <c r="C56" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
       <c r="D56" t="n">
-        <v>287452.662291349</v>
+        <v>285897.413539428</v>
       </c>
       <c r="E56" t="n">
-        <v>1250113.86585135</v>
+        <v>1247832.34657715</v>
       </c>
       <c r="F56" t="n">
         <v>1155632</v>
       </c>
       <c r="G56" t="n">
-        <v>-94481.8658513452</v>
+        <v>-92200.3465771496</v>
       </c>
       <c r="H56" t="n">
-        <v>-26769.8106370625</v>
+        <v>-27288.1925104253</v>
       </c>
       <c r="I56" t="n">
-        <v>260682.851654286</v>
+        <v>258609.221029003</v>
       </c>
       <c r="J56" t="n">
-        <v>1155632.19587285</v>
+        <v>1155632.19264958</v>
       </c>
       <c r="K56" t="s">
         <v>136</v>
@@ -5253,28 +5253,28 @@
         <v>16.0390422807548</v>
       </c>
       <c r="C57" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
       <c r="D57" t="n">
-        <v>309035.802488977</v>
+        <v>308328.245963391</v>
       </c>
       <c r="E57" t="n">
-        <v>1250113.86585135</v>
+        <v>1247832.34657715</v>
       </c>
       <c r="F57" t="n">
         <v>1155632</v>
       </c>
       <c r="G57" t="n">
-        <v>-94481.8658513452</v>
+        <v>-92200.3465771496</v>
       </c>
       <c r="H57" t="n">
-        <v>-21141.4468200418</v>
+        <v>-43622.1051745289</v>
       </c>
       <c r="I57" t="n">
-        <v>287894.355668935</v>
+        <v>264706.140788862</v>
       </c>
       <c r="J57" t="n">
-        <v>1155632.19587285</v>
+        <v>1155632.19264958</v>
       </c>
       <c r="K57" t="s">
         <v>137</v>
@@ -5285,31 +5285,31 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0977424856544318</v>
+        <v>13.7814974554388</v>
       </c>
       <c r="C58" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
       <c r="D58" t="n">
-        <v>17201.5150973069</v>
+        <v>255892.747453698</v>
       </c>
       <c r="E58" t="n">
-        <v>938393.393379142</v>
+        <v>1164781.67345614</v>
       </c>
       <c r="F58" t="n">
         <v>929833</v>
       </c>
       <c r="G58" t="n">
-        <v>-8560.39337914228</v>
+        <v>-234948.673456139</v>
       </c>
       <c r="H58" t="n">
-        <v>-9549.50795207289</v>
+        <v>-63884.8201421503</v>
       </c>
       <c r="I58" t="n">
-        <v>7652.00714523399</v>
+        <v>192007.927311548</v>
       </c>
       <c r="J58" t="n">
-        <v>929832.248909377</v>
+        <v>929833.445325929</v>
       </c>
       <c r="K58" t="s">
         <v>138</v>
@@ -5323,28 +5323,28 @@
         <v>14.0447704192465</v>
       </c>
       <c r="C59" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
       <c r="D59" t="n">
-        <v>266478.083599282</v>
+        <v>260783.062163885</v>
       </c>
       <c r="E59" t="n">
-        <v>938393.393379142</v>
+        <v>1164781.67345614</v>
       </c>
       <c r="F59" t="n">
         <v>929833</v>
       </c>
       <c r="G59" t="n">
-        <v>-8560.39337914228</v>
+        <v>-234948.673456139</v>
       </c>
       <c r="H59" t="n">
-        <v>-1949.04367103264</v>
+        <v>-69930.8008853598</v>
       </c>
       <c r="I59" t="n">
-        <v>264529.039928249</v>
+        <v>190852.261278525</v>
       </c>
       <c r="J59" t="n">
-        <v>929832.248909377</v>
+        <v>929833.445325929</v>
       </c>
       <c r="K59" t="s">
         <v>139</v>
@@ -5358,28 +5358,28 @@
         <v>17.2785456875479</v>
       </c>
       <c r="C60" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
       <c r="D60" t="n">
-        <v>324275.659256759</v>
+        <v>320850.67615393</v>
       </c>
       <c r="E60" t="n">
-        <v>938393.393379142</v>
+        <v>1164781.67345614</v>
       </c>
       <c r="F60" t="n">
         <v>929833</v>
       </c>
       <c r="G60" t="n">
-        <v>-8560.39337914228</v>
+        <v>-234948.673456139</v>
       </c>
       <c r="H60" t="n">
-        <v>1659.94602307889</v>
+        <v>-61760.0474041575</v>
       </c>
       <c r="I60" t="n">
-        <v>325935.605279838</v>
+        <v>259090.628749773</v>
       </c>
       <c r="J60" t="n">
-        <v>929832.248909377</v>
+        <v>929833.445325929</v>
       </c>
       <c r="K60" t="s">
         <v>140</v>
@@ -5393,28 +5393,28 @@
         <v>17.6233363262596</v>
       </c>
       <c r="C61" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
       <c r="D61" t="n">
-        <v>330438.135425795</v>
+        <v>327255.187684626</v>
       </c>
       <c r="E61" t="n">
-        <v>938393.393379142</v>
+        <v>1164781.67345614</v>
       </c>
       <c r="F61" t="n">
         <v>929833</v>
       </c>
       <c r="G61" t="n">
-        <v>-8560.39337914228</v>
+        <v>-234948.673456139</v>
       </c>
       <c r="H61" t="n">
-        <v>1277.46113026171</v>
+        <v>-39372.5596985432</v>
       </c>
       <c r="I61" t="n">
-        <v>331715.596556057</v>
+        <v>287882.627986082</v>
       </c>
       <c r="J61" t="n">
-        <v>929832.248909377</v>
+        <v>929833.445325929</v>
       </c>
       <c r="K61" t="s">
         <v>141</v>
@@ -5428,28 +5428,28 @@
         <v>17.868151976636</v>
       </c>
       <c r="C62" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
       <c r="D62" t="n">
-        <v>338665.95553136</v>
+        <v>313743.44269574</v>
       </c>
       <c r="E62" t="n">
-        <v>1414949.27418774</v>
+        <v>1317626.97418294</v>
       </c>
       <c r="F62" t="n">
         <v>1403276</v>
       </c>
       <c r="G62" t="n">
-        <v>-11673.2741877406</v>
+        <v>85649.0258170576</v>
       </c>
       <c r="H62" t="n">
-        <v>-3096.49834948418</v>
+        <v>-2768.33776851709</v>
       </c>
       <c r="I62" t="n">
-        <v>335569.457181876</v>
+        <v>310975.104927223</v>
       </c>
       <c r="J62" t="n">
-        <v>1403275.77652698</v>
+        <v>1403276.87985086</v>
       </c>
       <c r="K62" t="s">
         <v>142</v>
@@ -5463,28 +5463,28 @@
         <v>19.0161167301949</v>
       </c>
       <c r="C63" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
       <c r="D63" t="n">
-        <v>359183.639721204</v>
+        <v>335066.972616597</v>
       </c>
       <c r="E63" t="n">
-        <v>1414949.27418774</v>
+        <v>1317626.97418294</v>
       </c>
       <c r="F63" t="n">
         <v>1403276</v>
       </c>
       <c r="G63" t="n">
-        <v>-11673.2741877406</v>
+        <v>85649.0258170576</v>
       </c>
       <c r="H63" t="n">
-        <v>-4774.83256766452</v>
+        <v>21545.6766776915</v>
       </c>
       <c r="I63" t="n">
-        <v>354408.807153539</v>
+        <v>356612.649294288</v>
       </c>
       <c r="J63" t="n">
-        <v>1403275.77652698</v>
+        <v>1403276.87985086</v>
       </c>
       <c r="K63" t="s">
         <v>143</v>
@@ -5498,28 +5498,28 @@
         <v>19.6337210138089</v>
       </c>
       <c r="C64" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
       <c r="D64" t="n">
-        <v>370222.140342589</v>
+        <v>346539.017712116</v>
       </c>
       <c r="E64" t="n">
-        <v>1414949.27418774</v>
+        <v>1317626.97418294</v>
       </c>
       <c r="F64" t="n">
         <v>1403276</v>
       </c>
       <c r="G64" t="n">
-        <v>-11673.2741877406</v>
+        <v>85649.0258170576</v>
       </c>
       <c r="H64" t="n">
-        <v>-3757.54152427931</v>
+        <v>33569.4836400825</v>
       </c>
       <c r="I64" t="n">
-        <v>366464.59881831</v>
+        <v>380108.501352199</v>
       </c>
       <c r="J64" t="n">
-        <v>1403275.77652698</v>
+        <v>1403276.87985086</v>
       </c>
       <c r="K64" t="s">
         <v>144</v>
@@ -5533,28 +5533,28 @@
         <v>18.3275901782376</v>
       </c>
       <c r="C65" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
       <c r="D65" t="n">
-        <v>346877.538592588</v>
+        <v>322277.541158489</v>
       </c>
       <c r="E65" t="n">
-        <v>1414949.27418774</v>
+        <v>1317626.97418294</v>
       </c>
       <c r="F65" t="n">
         <v>1403276</v>
       </c>
       <c r="G65" t="n">
-        <v>-11673.2741877406</v>
+        <v>85649.0258170576</v>
       </c>
       <c r="H65" t="n">
-        <v>-44.625219328545</v>
+        <v>33303.0831186559</v>
       </c>
       <c r="I65" t="n">
-        <v>346832.91337326</v>
+        <v>355580.624277145</v>
       </c>
       <c r="J65" t="n">
-        <v>1403275.77652698</v>
+        <v>1403276.87985086</v>
       </c>
       <c r="K65" t="s">
         <v>145</v>
@@ -5568,28 +5568,28 @@
         <v>18.0671285639402</v>
       </c>
       <c r="C66" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
       <c r="D66" t="n">
-        <v>343035.221157341</v>
+        <v>341716.051812746</v>
       </c>
       <c r="E66" t="n">
-        <v>1518951.21962168</v>
+        <v>1519440.61606662</v>
       </c>
       <c r="F66" t="n">
         <v>1590431</v>
       </c>
       <c r="G66" t="n">
-        <v>71479.7803783151</v>
+        <v>70990.3839333786</v>
       </c>
       <c r="H66" t="n">
-        <v>6363.91634718777</v>
+        <v>20746.4751134117</v>
       </c>
       <c r="I66" t="n">
-        <v>349399.137504528</v>
+        <v>362462.526926157</v>
       </c>
       <c r="J66" t="n">
-        <v>1590430.88787107</v>
+        <v>1590431.29572854</v>
       </c>
       <c r="K66" t="s">
         <v>146</v>
@@ -5603,28 +5603,28 @@
         <v>20.8122714076788</v>
       </c>
       <c r="C67" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
       <c r="D67" t="n">
-        <v>392099.422605359</v>
+        <v>392707.282496452</v>
       </c>
       <c r="E67" t="n">
-        <v>1518951.21962168</v>
+        <v>1519440.61606662</v>
       </c>
       <c r="F67" t="n">
         <v>1590431</v>
       </c>
       <c r="G67" t="n">
-        <v>71479.7803783151</v>
+        <v>70990.3839333786</v>
       </c>
       <c r="H67" t="n">
-        <v>13529.7332598573</v>
+        <v>14524.3098321414</v>
       </c>
       <c r="I67" t="n">
-        <v>405629.155865216</v>
+        <v>407231.592328593</v>
       </c>
       <c r="J67" t="n">
-        <v>1590430.88787107</v>
+        <v>1590431.29572854</v>
       </c>
       <c r="K67" t="s">
         <v>147</v>
@@ -5638,28 +5638,28 @@
         <v>19.5955177898177</v>
       </c>
       <c r="C68" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
       <c r="D68" t="n">
-        <v>370352.268443415</v>
+        <v>370105.994350335</v>
       </c>
       <c r="E68" t="n">
-        <v>1518951.21962168</v>
+        <v>1519440.61606662</v>
       </c>
       <c r="F68" t="n">
         <v>1590431</v>
       </c>
       <c r="G68" t="n">
-        <v>71479.7803783151</v>
+        <v>70990.3839333786</v>
       </c>
       <c r="H68" t="n">
-        <v>21452.8255186802</v>
+        <v>14636.5872748449</v>
       </c>
       <c r="I68" t="n">
-        <v>391805.093962095</v>
+        <v>384742.58162518</v>
       </c>
       <c r="J68" t="n">
-        <v>1590430.88787107</v>
+        <v>1590431.29572854</v>
       </c>
       <c r="K68" t="s">
         <v>148</v>
@@ -5673,28 +5673,28 @@
         <v>22.00763704929</v>
       </c>
       <c r="C69" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
       <c r="D69" t="n">
-        <v>413464.30741557</v>
+        <v>414911.287407089</v>
       </c>
       <c r="E69" t="n">
-        <v>1518951.21962168</v>
+        <v>1519440.61606662</v>
       </c>
       <c r="F69" t="n">
         <v>1590431</v>
       </c>
       <c r="G69" t="n">
-        <v>71479.7803783151</v>
+        <v>70990.3839333786</v>
       </c>
       <c r="H69" t="n">
-        <v>30133.1931236562</v>
+        <v>21083.3074415222</v>
       </c>
       <c r="I69" t="n">
-        <v>443597.500539226</v>
+        <v>435994.594848611</v>
       </c>
       <c r="J69" t="n">
-        <v>1590430.88787107</v>
+        <v>1590431.29572854</v>
       </c>
       <c r="K69" t="s">
         <v>149</v>
@@ -5708,28 +5708,28 @@
         <v>19.4336483530636</v>
       </c>
       <c r="C70" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
       <c r="D70" t="n">
-        <v>373171.755039121</v>
+        <v>375158.305865253</v>
       </c>
       <c r="E70" t="n">
-        <v>1671781.01259937</v>
+        <v>1686761.25190546</v>
       </c>
       <c r="F70" t="n">
         <v>1834812</v>
       </c>
       <c r="G70" t="n">
-        <v>163030.987400634</v>
+        <v>148050.748094539</v>
       </c>
       <c r="H70" t="n">
-        <v>39570.8360747855</v>
+        <v>33864.4703321733</v>
       </c>
       <c r="I70" t="n">
-        <v>412742.591113907</v>
+        <v>409022.776197426</v>
       </c>
       <c r="J70" t="n">
-        <v>1834812.67029679</v>
+        <v>1834812.10181881</v>
       </c>
       <c r="K70" t="s">
         <v>150</v>
@@ -5743,28 +5743,28 @@
         <v>23.7715703226929</v>
       </c>
       <c r="C71" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
       <c r="D71" t="n">
-        <v>450703.850634489</v>
+        <v>455735.526225868</v>
       </c>
       <c r="E71" t="n">
-        <v>1671781.01259937</v>
+        <v>1686761.25190546</v>
       </c>
       <c r="F71" t="n">
         <v>1834812</v>
       </c>
       <c r="G71" t="n">
-        <v>163030.987400634</v>
+        <v>148050.748094539</v>
       </c>
       <c r="H71" t="n">
-        <v>43820.7245950659</v>
+        <v>40236.232346899</v>
       </c>
       <c r="I71" t="n">
-        <v>494524.575229555</v>
+        <v>495971.758572767</v>
       </c>
       <c r="J71" t="n">
-        <v>1834812.67029679</v>
+        <v>1834812.10181881</v>
       </c>
       <c r="K71" t="s">
         <v>151</v>
@@ -5778,28 +5778,28 @@
         <v>20.6653025217431</v>
       </c>
       <c r="C72" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
       <c r="D72" t="n">
-        <v>395185.22817558</v>
+        <v>398036.372841233</v>
       </c>
       <c r="E72" t="n">
-        <v>1671781.01259937</v>
+        <v>1686761.25190546</v>
       </c>
       <c r="F72" t="n">
         <v>1834812</v>
       </c>
       <c r="G72" t="n">
-        <v>163030.987400634</v>
+        <v>148050.748094539</v>
       </c>
       <c r="H72" t="n">
-        <v>42882.8586844974</v>
+        <v>40198.5934856994</v>
       </c>
       <c r="I72" t="n">
-        <v>438068.086860078</v>
+        <v>438234.966326933</v>
       </c>
       <c r="J72" t="n">
-        <v>1834812.67029679</v>
+        <v>1834812.10181881</v>
       </c>
       <c r="K72" t="s">
         <v>152</v>
@@ -5813,28 +5813,28 @@
         <v>23.8843839125212</v>
       </c>
       <c r="C73" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
       <c r="D73" t="n">
-        <v>452720.178750176</v>
+        <v>457831.046973107</v>
       </c>
       <c r="E73" t="n">
-        <v>1671781.01259937</v>
+        <v>1686761.25190546</v>
       </c>
       <c r="F73" t="n">
         <v>1834812</v>
       </c>
       <c r="G73" t="n">
-        <v>163030.987400634</v>
+        <v>148050.748094539</v>
       </c>
       <c r="H73" t="n">
-        <v>36757.23834308</v>
+        <v>33751.5537485745</v>
       </c>
       <c r="I73" t="n">
-        <v>489477.417093256</v>
+        <v>491582.600721682</v>
       </c>
       <c r="J73" t="n">
-        <v>1834812.67029679</v>
+        <v>1834812.10181881</v>
       </c>
       <c r="K73" t="s">
         <v>153</v>
@@ -5848,28 +5848,28 @@
         <v>22.8865176364712</v>
       </c>
       <c r="C74" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
       <c r="D74" t="n">
-        <v>442448.8014648</v>
+        <v>449979.051741413</v>
       </c>
       <c r="E74" t="n">
-        <v>1920893.09816383</v>
+        <v>1956948.56976667</v>
       </c>
       <c r="F74" t="n">
         <v>2000000</v>
       </c>
       <c r="G74" t="n">
-        <v>79106.901836168</v>
+        <v>43051.4302333307</v>
       </c>
       <c r="H74" t="n">
-        <v>25443.8635708138</v>
+        <v>20895.1131355242</v>
       </c>
       <c r="I74" t="n">
-        <v>467892.665035613</v>
+        <v>470874.164876937</v>
       </c>
       <c r="J74" t="n">
-        <v>2000001.70624314</v>
+        <v>1999999.84476316</v>
       </c>
       <c r="K74" t="s">
         <v>130</v>
@@ -5883,28 +5883,28 @@
         <v>26.7654547629451</v>
       </c>
       <c r="C75" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
       <c r="D75" t="n">
-        <v>511777.416917949</v>
+        <v>522030.594805838</v>
       </c>
       <c r="E75" t="n">
-        <v>1920893.09816383</v>
+        <v>1956948.56976667</v>
       </c>
       <c r="F75" t="n">
         <v>2000000</v>
       </c>
       <c r="G75" t="n">
-        <v>79106.901836168</v>
+        <v>43051.4302333307</v>
       </c>
       <c r="H75" t="n">
-        <v>18651.8290415128</v>
+        <v>11699.6191357434</v>
       </c>
       <c r="I75" t="n">
-        <v>530429.245959462</v>
+        <v>533730.213941581</v>
       </c>
       <c r="J75" t="n">
-        <v>2000001.70624314</v>
+        <v>1999999.84476316</v>
       </c>
       <c r="K75" t="s">
         <v>131</v>
@@ -5918,28 +5918,28 @@
         <v>23.742438811814</v>
       </c>
       <c r="C76" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
       <c r="D76" t="n">
-        <v>457746.762759028</v>
+        <v>465877.850668588</v>
       </c>
       <c r="E76" t="n">
-        <v>1920893.09816383</v>
+        <v>1956948.56976667</v>
       </c>
       <c r="F76" t="n">
         <v>2000000</v>
       </c>
       <c r="G76" t="n">
-        <v>79106.901836168</v>
+        <v>43051.4302333307</v>
       </c>
       <c r="H76" t="n">
-        <v>16381.1347551772</v>
+        <v>6165.07174923198</v>
       </c>
       <c r="I76" t="n">
-        <v>474127.897514206</v>
+        <v>472042.92241782</v>
       </c>
       <c r="J76" t="n">
-        <v>2000001.70624314</v>
+        <v>1999999.84476316</v>
       </c>
       <c r="K76" t="s">
         <v>132</v>
@@ -5953,28 +5953,28 @@
         <v>26.6055887887697</v>
       </c>
       <c r="C77" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
       <c r="D77" t="n">
-        <v>508920.117022055</v>
+        <v>519061.072550831</v>
       </c>
       <c r="E77" t="n">
-        <v>1920893.09816383</v>
+        <v>1956948.56976667</v>
       </c>
       <c r="F77" t="n">
         <v>2000000</v>
       </c>
       <c r="G77" t="n">
-        <v>79106.901836168</v>
+        <v>43051.4302333307</v>
       </c>
       <c r="H77" t="n">
-        <v>18631.780711807</v>
+        <v>4291.47097599002</v>
       </c>
       <c r="I77" t="n">
-        <v>527551.897733862</v>
+        <v>523352.543526821</v>
       </c>
       <c r="J77" t="n">
-        <v>2000001.70624314</v>
+        <v>1999999.84476316</v>
       </c>
       <c r="K77" t="s">
         <v>133</v>
@@ -5988,28 +5988,28 @@
         <v>27.5104125266935</v>
       </c>
       <c r="C78" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
       <c r="D78" t="n">
-        <v>521543.779377174</v>
+        <v>529781.951143635</v>
       </c>
       <c r="E78" t="n">
-        <v>2062967.03734092</v>
+        <v>2095008.21157933</v>
       </c>
       <c r="F78" t="n">
         <v>2080000</v>
       </c>
       <c r="G78" t="n">
-        <v>17032.9626590803</v>
+        <v>-15008.2115793331</v>
       </c>
       <c r="H78" t="n">
-        <v>25403.766911402</v>
+        <v>6078.8168160175</v>
       </c>
       <c r="I78" t="n">
-        <v>546947.546288576</v>
+        <v>535860.767959652</v>
       </c>
       <c r="J78" t="n">
-        <v>2080001.22024474</v>
+        <v>2079999.9912061</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -6023,28 +6023,28 @@
         <v>29.6083132872694</v>
       </c>
       <c r="C79" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
       <c r="D79" t="n">
-        <v>559039.76096867</v>
+        <v>568750.612420424</v>
       </c>
       <c r="E79" t="n">
-        <v>2062967.03734092</v>
+        <v>2095008.21157933</v>
       </c>
       <c r="F79" t="n">
         <v>2080000</v>
       </c>
       <c r="G79" t="n">
-        <v>17032.9626590803</v>
+        <v>-15008.2115793331</v>
       </c>
       <c r="H79" t="n">
-        <v>19654.4729170614</v>
+        <v>2861.40638829775</v>
       </c>
       <c r="I79" t="n">
-        <v>578694.233885731</v>
+        <v>571612.018808721</v>
       </c>
       <c r="J79" t="n">
-        <v>2080001.22024474</v>
+        <v>2079999.9912061</v>
       </c>
       <c r="K79" t="s">
         <v>135</v>
@@ -6058,28 +6058,28 @@
         <v>25.2792692907187</v>
       </c>
       <c r="C80" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
       <c r="D80" t="n">
-        <v>481666.342237995</v>
+        <v>488338.301064194</v>
       </c>
       <c r="E80" t="n">
-        <v>2062967.03734092</v>
+        <v>2095008.21157933</v>
       </c>
       <c r="F80" t="n">
         <v>2080000</v>
       </c>
       <c r="G80" t="n">
-        <v>17032.9626590803</v>
+        <v>-15008.2115793331</v>
       </c>
       <c r="H80" t="n">
-        <v>1383.89872878499</v>
+        <v>-5360.76030716922</v>
       </c>
       <c r="I80" t="n">
-        <v>483050.24096678</v>
+        <v>482977.540757025</v>
       </c>
       <c r="J80" t="n">
-        <v>2080001.22024474</v>
+        <v>2079999.9912061</v>
       </c>
       <c r="K80" t="s">
         <v>136</v>
@@ -6093,28 +6093,28 @@
         <v>26.3451625511966</v>
       </c>
       <c r="C81" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
       <c r="D81" t="n">
-        <v>500717.154757081</v>
+        <v>508137.34695108</v>
       </c>
       <c r="E81" t="n">
-        <v>2062967.03734092</v>
+        <v>2095008.21157933</v>
       </c>
       <c r="F81" t="n">
         <v>2080000</v>
       </c>
       <c r="G81" t="n">
-        <v>17032.9626590803</v>
+        <v>-15008.2115793331</v>
       </c>
       <c r="H81" t="n">
-        <v>-29407.9556534271</v>
+        <v>-18587.6832703834</v>
       </c>
       <c r="I81" t="n">
-        <v>471309.199103654</v>
+        <v>489549.663680697</v>
       </c>
       <c r="J81" t="n">
-        <v>2080001.22024474</v>
+        <v>2079999.9912061</v>
       </c>
       <c r="K81" t="s">
         <v>137</v>
@@ -6125,31 +6125,31 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>36.4266988798614</v>
+        <v>27.9482627605948</v>
       </c>
       <c r="C82" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
       <c r="D82" t="n">
-        <v>675863.060912484</v>
+        <v>529860.204215638</v>
       </c>
       <c r="E82" t="n">
-        <v>2591860.24722972</v>
+        <v>2429837.53318781</v>
       </c>
       <c r="F82" t="n">
         <v>2287000</v>
       </c>
       <c r="G82" t="n">
-        <v>-304860.24722972</v>
+        <v>-142837.53318781</v>
       </c>
       <c r="H82" t="n">
-        <v>-72721.090229575</v>
+        <v>-36819.3625013448</v>
       </c>
       <c r="I82" t="n">
-        <v>603141.970682909</v>
+        <v>493040.841714293</v>
       </c>
       <c r="J82" t="n">
-        <v>2287000.52961772</v>
+        <v>2287000.18501475</v>
       </c>
       <c r="K82" t="s">
         <v>138</v>
@@ -6160,31 +6160,31 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>36.6392201947552</v>
+        <v>34.1578752692673</v>
       </c>
       <c r="C83" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
       <c r="D83" t="n">
-        <v>679661.47476542</v>
+        <v>645204.214312733</v>
       </c>
       <c r="E83" t="n">
-        <v>2591860.24722972</v>
+        <v>2429837.53318781</v>
       </c>
       <c r="F83" t="n">
         <v>2287000</v>
       </c>
       <c r="G83" t="n">
-        <v>-304860.24722972</v>
+        <v>-142837.53318781</v>
       </c>
       <c r="H83" t="n">
-        <v>-91443.8797294046</v>
+        <v>-43668.0240104974</v>
       </c>
       <c r="I83" t="n">
-        <v>588217.595036016</v>
+        <v>601536.190302235</v>
       </c>
       <c r="J83" t="n">
-        <v>2287000.52961772</v>
+        <v>2287000.18501475</v>
       </c>
       <c r="K83" t="s">
         <v>139</v>
@@ -6198,28 +6198,28 @@
         <v>34.1124802191808</v>
       </c>
       <c r="C84" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
       <c r="D84" t="n">
-        <v>634500.808736287</v>
+        <v>644360.997911029</v>
       </c>
       <c r="E84" t="n">
-        <v>2591860.24722972</v>
+        <v>2429837.53318781</v>
       </c>
       <c r="F84" t="n">
         <v>2287000</v>
       </c>
       <c r="G84" t="n">
-        <v>-304860.24722972</v>
+        <v>-142837.53318781</v>
       </c>
       <c r="H84" t="n">
-        <v>-85576.3241529158</v>
+        <v>-39133.6677978411</v>
       </c>
       <c r="I84" t="n">
-        <v>548924.484583371</v>
+        <v>605227.330113188</v>
       </c>
       <c r="J84" t="n">
-        <v>2287000.52961772</v>
+        <v>2287000.18501475</v>
       </c>
       <c r="K84" t="s">
         <v>140</v>
@@ -6233,28 +6233,28 @@
         <v>32.2848222684526</v>
       </c>
       <c r="C85" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
       <c r="D85" t="n">
-        <v>601834.90281553</v>
+        <v>610412.116748411</v>
       </c>
       <c r="E85" t="n">
-        <v>2591860.24722972</v>
+        <v>2429837.53318781</v>
       </c>
       <c r="F85" t="n">
         <v>2287000</v>
       </c>
       <c r="G85" t="n">
-        <v>-304860.24722972</v>
+        <v>-142837.53318781</v>
       </c>
       <c r="H85" t="n">
-        <v>-55118.4235001089</v>
+        <v>-23216.293863376</v>
       </c>
       <c r="I85" t="n">
-        <v>546716.479315421</v>
+        <v>587195.822885035</v>
       </c>
       <c r="J85" t="n">
-        <v>2287000.52961772</v>
+        <v>2287000.18501475</v>
       </c>
       <c r="K85" t="s">
         <v>141</v>
@@ -6268,28 +6268,28 @@
         <v>29.0529285723371</v>
       </c>
       <c r="C86" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
       <c r="D86" t="n">
-        <v>521455.718996872</v>
+        <v>534735.12221483</v>
       </c>
       <c r="E86" t="n">
-        <v>2230649.68444321</v>
+        <v>2289455.4668107</v>
       </c>
       <c r="F86" t="n">
         <v>2411000</v>
       </c>
       <c r="G86" t="n">
-        <v>180350.315556793</v>
+        <v>121544.533189302</v>
       </c>
       <c r="H86" t="n">
-        <v>-70.1777709835878</v>
+        <v>4084.09779289804</v>
       </c>
       <c r="I86" t="n">
-        <v>521385.541225889</v>
+        <v>538819.220007728</v>
       </c>
       <c r="J86" t="n">
-        <v>2410997.43212084</v>
+        <v>2411000.56143489</v>
       </c>
       <c r="K86" t="s">
         <v>142</v>
@@ -6303,28 +6303,28 @@
         <v>34.5333055575326</v>
       </c>
       <c r="C87" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
       <c r="D87" t="n">
-        <v>619407.022706271</v>
+        <v>636533.528706931</v>
       </c>
       <c r="E87" t="n">
-        <v>2230649.68444321</v>
+        <v>2289455.4668107</v>
       </c>
       <c r="F87" t="n">
         <v>2411000</v>
       </c>
       <c r="G87" t="n">
-        <v>180350.315556793</v>
+        <v>121544.533189302</v>
       </c>
       <c r="H87" t="n">
-        <v>40011.9663968235</v>
+        <v>25525.1248006675</v>
       </c>
       <c r="I87" t="n">
-        <v>659418.989103094</v>
+        <v>662058.653507599</v>
       </c>
       <c r="J87" t="n">
-        <v>2410997.43212084</v>
+        <v>2411000.56143489</v>
       </c>
       <c r="K87" t="s">
         <v>143</v>
@@ -6338,28 +6338,28 @@
         <v>28.5551821718171</v>
       </c>
       <c r="C88" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
       <c r="D88" t="n">
-        <v>512559.449820629</v>
+        <v>525489.446133242</v>
       </c>
       <c r="E88" t="n">
-        <v>2230649.68444321</v>
+        <v>2289455.4668107</v>
       </c>
       <c r="F88" t="n">
         <v>2411000</v>
       </c>
       <c r="G88" t="n">
-        <v>180350.315556793</v>
+        <v>121544.533189302</v>
       </c>
       <c r="H88" t="n">
-        <v>65128.0090033126</v>
+        <v>41106.7871599324</v>
       </c>
       <c r="I88" t="n">
-        <v>577687.458823942</v>
+        <v>566596.233293174</v>
       </c>
       <c r="J88" t="n">
-        <v>2410997.43212084</v>
+        <v>2411000.56143489</v>
       </c>
       <c r="K88" t="s">
         <v>144</v>
@@ -6373,28 +6373,28 @@
         <v>32.1733602016653</v>
       </c>
       <c r="C89" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
       <c r="D89" t="n">
-        <v>577227.492919435</v>
+        <v>592697.369755695</v>
       </c>
       <c r="E89" t="n">
-        <v>2230649.68444321</v>
+        <v>2289455.4668107</v>
       </c>
       <c r="F89" t="n">
         <v>2411000</v>
       </c>
       <c r="G89" t="n">
-        <v>180350.315556793</v>
+        <v>121544.533189302</v>
       </c>
       <c r="H89" t="n">
-        <v>75277.9500484834</v>
+        <v>50829.0848706928</v>
       </c>
       <c r="I89" t="n">
-        <v>652505.442967918</v>
+        <v>643526.454626388</v>
       </c>
       <c r="J89" t="n">
-        <v>2410997.43212084</v>
+        <v>2411000.56143489</v>
       </c>
       <c r="K89" t="s">
         <v>145</v>
@@ -6408,28 +6408,28 @@
         <v>31.0258876982051</v>
       </c>
       <c r="C90" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
       <c r="D90" t="n">
-        <v>582817.206844805</v>
+        <v>591108.854092536</v>
       </c>
       <c r="E90" t="n">
-        <v>2525939.86074438</v>
+        <v>2566752.28440834</v>
       </c>
       <c r="F90" t="n">
         <v>2714431</v>
       </c>
       <c r="G90" t="n">
-        <v>188491.139255621</v>
+        <v>147678.715591658</v>
       </c>
       <c r="H90" t="n">
-        <v>70461.7895323362</v>
+        <v>54692.0179329486</v>
       </c>
       <c r="I90" t="n">
-        <v>653278.996377141</v>
+        <v>645800.872025485</v>
       </c>
       <c r="J90" t="n">
-        <v>2714432.00671658</v>
+        <v>2714431.08680833</v>
       </c>
       <c r="K90" t="s">
         <v>146</v>
@@ -6443,28 +6443,28 @@
         <v>36.8614010323591</v>
       </c>
       <c r="C91" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
       <c r="D91" t="n">
-        <v>687115.896595172</v>
+        <v>699503.944445812</v>
       </c>
       <c r="E91" t="n">
-        <v>2525939.86074438</v>
+        <v>2566752.28440834</v>
       </c>
       <c r="F91" t="n">
         <v>2714431</v>
       </c>
       <c r="G91" t="n">
-        <v>188491.139255621</v>
+        <v>147678.715591658</v>
       </c>
       <c r="H91" t="n">
-        <v>59199.8241101629</v>
+        <v>49128.2642246702</v>
       </c>
       <c r="I91" t="n">
-        <v>746315.720705335</v>
+        <v>748632.208670482</v>
       </c>
       <c r="J91" t="n">
-        <v>2714432.00671658</v>
+        <v>2714431.08680833</v>
       </c>
       <c r="K91" t="s">
         <v>147</v>
@@ -6478,28 +6478,28 @@
         <v>32.5631140019535</v>
       </c>
       <c r="C92" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
       <c r="D92" t="n">
-        <v>610292.200071602</v>
+        <v>619662.946003013</v>
       </c>
       <c r="E92" t="n">
-        <v>2525939.86074438</v>
+        <v>2566752.28440834</v>
       </c>
       <c r="F92" t="n">
         <v>2714431</v>
       </c>
       <c r="G92" t="n">
-        <v>188491.139255621</v>
+        <v>147678.715591658</v>
       </c>
       <c r="H92" t="n">
-        <v>41492.0537819636</v>
+        <v>34137.8237458575</v>
       </c>
       <c r="I92" t="n">
-        <v>651784.253853565</v>
+        <v>653800.76974887</v>
       </c>
       <c r="J92" t="n">
-        <v>2714432.00671658</v>
+        <v>2714431.08680833</v>
       </c>
       <c r="K92" t="s">
         <v>148</v>
@@ -6513,28 +6513,28 @@
         <v>34.5449954429963</v>
       </c>
       <c r="C93" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
       <c r="D93" t="n">
-        <v>645714.557232799</v>
+        <v>656476.539866981</v>
       </c>
       <c r="E93" t="n">
-        <v>2525939.86074438</v>
+        <v>2566752.28440834</v>
       </c>
       <c r="F93" t="n">
         <v>2714431</v>
       </c>
       <c r="G93" t="n">
-        <v>188491.139255621</v>
+        <v>147678.715591658</v>
       </c>
       <c r="H93" t="n">
-        <v>17338.4785477381</v>
+        <v>9720.69649651055</v>
       </c>
       <c r="I93" t="n">
-        <v>663053.035780537</v>
+        <v>666197.236363491</v>
       </c>
       <c r="J93" t="n">
-        <v>2714432.00671658</v>
+        <v>2714431.08680833</v>
       </c>
       <c r="K93" t="s">
         <v>149</v>
@@ -6548,28 +6548,28 @@
         <v>33.723091474282</v>
       </c>
       <c r="C94" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
       <c r="D94" t="n">
-        <v>638464.777953499</v>
+        <v>651476.76223088</v>
       </c>
       <c r="E94" t="n">
-        <v>2623985.46262331</v>
+        <v>2678787.65893228</v>
       </c>
       <c r="F94" t="n">
         <v>2463842</v>
       </c>
       <c r="G94" t="n">
-        <v>-160143.462623307</v>
+        <v>-214945.658932278</v>
       </c>
       <c r="H94" t="n">
-        <v>-13260.9015925134</v>
+        <v>-24123.1175233707</v>
       </c>
       <c r="I94" t="n">
-        <v>625203.876360985</v>
+        <v>627353.64470751</v>
       </c>
       <c r="J94" t="n">
-        <v>2463844.02576237</v>
+        <v>2463841.83976921</v>
       </c>
       <c r="K94" t="s">
         <v>150</v>
@@ -6583,28 +6583,28 @@
         <v>30.0723120741627</v>
       </c>
       <c r="C95" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
       <c r="D95" t="n">
-        <v>573214.047435671</v>
+        <v>583663.265752394</v>
       </c>
       <c r="E95" t="n">
-        <v>2623985.46262331</v>
+        <v>2678787.65893228</v>
       </c>
       <c r="F95" t="n">
         <v>2463842</v>
       </c>
       <c r="G95" t="n">
-        <v>-160143.462623307</v>
+        <v>-214945.658932278</v>
       </c>
       <c r="H95" t="n">
-        <v>-36210.4366977021</v>
+        <v>-49505.9780382816</v>
       </c>
       <c r="I95" t="n">
-        <v>537003.610737969</v>
+        <v>534157.287714112</v>
       </c>
       <c r="J95" t="n">
-        <v>2463844.02576237</v>
+        <v>2463841.83976921</v>
       </c>
       <c r="K95" t="s">
         <v>151</v>
@@ -6618,28 +6618,28 @@
         <v>35.992825760095</v>
       </c>
       <c r="C96" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
       <c r="D96" t="n">
-        <v>679031.956629324</v>
+        <v>693637.243905848</v>
       </c>
       <c r="E96" t="n">
-        <v>2623985.46262331</v>
+        <v>2678787.65893228</v>
       </c>
       <c r="F96" t="n">
         <v>2463842</v>
       </c>
       <c r="G96" t="n">
-        <v>-160143.462623307</v>
+        <v>-214945.658932278</v>
       </c>
       <c r="H96" t="n">
-        <v>-51510.1267678278</v>
+        <v>-66427.8850482222</v>
       </c>
       <c r="I96" t="n">
-        <v>627521.829861496</v>
+        <v>627209.358857626</v>
       </c>
       <c r="J96" t="n">
-        <v>2463844.02576237</v>
+        <v>2463841.83976921</v>
       </c>
       <c r="K96" t="s">
         <v>152</v>
@@ -6653,28 +6653,28 @@
         <v>39.0277070208032</v>
       </c>
       <c r="C97" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
       <c r="D97" t="n">
-        <v>733274.680604814</v>
+        <v>750010.387043156</v>
       </c>
       <c r="E97" t="n">
-        <v>2623985.46262331</v>
+        <v>2678787.65893228</v>
       </c>
       <c r="F97" t="n">
         <v>2463842</v>
       </c>
       <c r="G97" t="n">
-        <v>-160143.462623307</v>
+        <v>-214945.658932278</v>
       </c>
       <c r="H97" t="n">
-        <v>-59159.9718028907</v>
+        <v>-74888.8385531925</v>
       </c>
       <c r="I97" t="n">
-        <v>674114.708801923</v>
+        <v>675121.548489963</v>
       </c>
       <c r="J97" t="n">
-        <v>2463844.02576237</v>
+        <v>2463841.83976921</v>
       </c>
       <c r="K97" t="s">
         <v>153</v>
@@ -6713,13 +6713,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>158976.24949317</v>
+        <v>158654.817635095</v>
       </c>
       <c r="C2" t="n">
         <v>9.23693404109287</v>
       </c>
       <c r="D2" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
     </row>
     <row r="3">
@@ -6727,13 +6727,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>167863.759123018</v>
+        <v>167821.263341816</v>
       </c>
       <c r="C3" t="n">
         <v>9.61533075382236</v>
       </c>
       <c r="D3" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
     </row>
     <row r="4">
@@ -6741,13 +6741,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>160518.615580187</v>
+        <v>160047.380804539</v>
       </c>
       <c r="C4" t="n">
         <v>8.96665067485753</v>
       </c>
       <c r="D4" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
     </row>
     <row r="5">
@@ -6755,13 +6755,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>199137.375803625</v>
+        <v>199972.53821855</v>
       </c>
       <c r="C5" t="n">
         <v>10.7707921444785</v>
       </c>
       <c r="D5" t="n">
-        <v>-11990.1067252746</v>
+        <v>-12652.2452171976</v>
       </c>
     </row>
     <row r="6">
@@ -6769,13 +6769,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>177927.251417037</v>
+        <v>178107.798109578</v>
       </c>
       <c r="C6" t="n">
         <v>9.39376000248317</v>
       </c>
       <c r="D6" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
     </row>
     <row r="7">
@@ -6783,13 +6783,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>186717.608258595</v>
+        <v>187000.261748878</v>
       </c>
       <c r="C7" t="n">
         <v>9.77858118766171</v>
       </c>
       <c r="D7" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
     </row>
     <row r="8">
@@ -6797,13 +6797,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>170254.109991386</v>
+        <v>169684.37511249</v>
       </c>
       <c r="C8" t="n">
         <v>9.11888772735565</v>
       </c>
       <c r="D8" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
     </row>
     <row r="9">
@@ -6811,13 +6811,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>191789.295419521</v>
+        <v>191896.962652913</v>
       </c>
       <c r="C9" t="n">
         <v>10.9536601638319</v>
       </c>
       <c r="D9" t="n">
-        <v>-89066.4903749989</v>
+        <v>-62137.6180349109</v>
       </c>
     </row>
     <row r="10">
@@ -6825,13 +6825,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>158716.094239957</v>
+        <v>158175.831126035</v>
       </c>
       <c r="C10" t="n">
         <v>9.99617052517854</v>
       </c>
       <c r="D10" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
     </row>
     <row r="11">
@@ -6839,13 +6839,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>154949.248673669</v>
+        <v>154571.484779661</v>
       </c>
       <c r="C11" t="n">
         <v>10.3276944445079</v>
       </c>
       <c r="D11" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
     </row>
     <row r="12">
@@ -6853,13 +6853,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>119522.315539505</v>
+        <v>118505.064224788</v>
       </c>
       <c r="C12" t="n">
         <v>8.43179753569241</v>
       </c>
       <c r="D12" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
     </row>
     <row r="13">
@@ -6867,13 +6867,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>164331.864555832</v>
+        <v>166267.951585909</v>
       </c>
       <c r="C13" t="n">
         <v>10.5690946367562</v>
       </c>
       <c r="D13" t="n">
-        <v>-60583.6116020968</v>
+        <v>-34114.6620833753</v>
       </c>
     </row>
     <row r="14">
@@ -6881,13 +6881,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>156479.414649205</v>
+        <v>155944.468749695</v>
       </c>
       <c r="C14" t="n">
         <v>9.78700271451556</v>
       </c>
       <c r="D14" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
     </row>
     <row r="15">
@@ -6895,13 +6895,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>159635.690033202</v>
+        <v>160106.741867422</v>
       </c>
       <c r="C15" t="n">
         <v>9.43061325992536</v>
       </c>
       <c r="D15" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
     </row>
     <row r="16">
@@ -6909,13 +6909,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>144389.471024191</v>
+        <v>144390.885428431</v>
       </c>
       <c r="C16" t="n">
         <v>8.33745714440349</v>
       </c>
       <c r="D16" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
     </row>
     <row r="17">
@@ -6923,13 +6923,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>161882.764705498</v>
+        <v>161947.542953876</v>
       </c>
       <c r="C17" t="n">
         <v>9.36893046970783</v>
       </c>
       <c r="D17" t="n">
-        <v>-191180.101116321</v>
+        <v>-164767.217200348</v>
       </c>
     </row>
     <row r="18">
@@ -6937,13 +6937,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>166953.82472187</v>
+        <v>167973.961685313</v>
       </c>
       <c r="C18" t="n">
         <v>9.74751579800055</v>
       </c>
       <c r="D18" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
     </row>
     <row r="19">
@@ -6951,13 +6951,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>163135.073677866</v>
+        <v>162974.31556572</v>
       </c>
       <c r="C19" t="n">
         <v>9.67083034417807</v>
       </c>
       <c r="D19" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
     </row>
     <row r="20">
@@ -6965,13 +6965,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>148157.132876117</v>
+        <v>146722.845841758</v>
       </c>
       <c r="C20" t="n">
         <v>8.76118531638173</v>
       </c>
       <c r="D20" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
     </row>
     <row r="21">
@@ -6979,13 +6979,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>207998.922888808</v>
+        <v>208575.35253551</v>
       </c>
       <c r="C21" t="n">
         <v>11.8291026747245</v>
       </c>
       <c r="D21" t="n">
-        <v>-123402.202496089</v>
+        <v>-95304.0429683245</v>
       </c>
     </row>
     <row r="22">
@@ -6993,13 +6993,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>199644.370166862</v>
+        <v>199940.398847904</v>
       </c>
       <c r="C22" t="n">
         <v>10.8405558524574</v>
       </c>
       <c r="D22" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
     </row>
     <row r="23">
@@ -7007,13 +7007,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>199149.515219265</v>
+        <v>199227.696246553</v>
       </c>
       <c r="C23" t="n">
         <v>10.4064097033053</v>
       </c>
       <c r="D23" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
     </row>
     <row r="24">
@@ -7021,13 +7021,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>185189.113202237</v>
+        <v>184316.12509789</v>
       </c>
       <c r="C24" t="n">
         <v>9.30124144311374</v>
       </c>
       <c r="D24" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
     </row>
     <row r="25">
@@ -7035,13 +7035,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>235615.034585149</v>
+        <v>236115.240007988</v>
       </c>
       <c r="C25" t="n">
         <v>11.8808644507488</v>
       </c>
       <c r="D25" t="n">
-        <v>-114677.100198489</v>
+        <v>-88744.2827237089</v>
       </c>
     </row>
     <row r="26">
@@ -7049,13 +7049,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>235945.113575264</v>
+        <v>238096.377786176</v>
       </c>
       <c r="C26" t="n">
         <v>11.4067396261152</v>
       </c>
       <c r="D26" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
     </row>
     <row r="27">
@@ -7063,13 +7063,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>201565.885543819</v>
+        <v>201468.945882973</v>
       </c>
       <c r="C27" t="n">
         <v>9.28905311211552</v>
       </c>
       <c r="D27" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
     </row>
     <row r="28">
@@ -7077,13 +7077,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>200692.360376997</v>
+        <v>199577.010212969</v>
       </c>
       <c r="C28" t="n">
         <v>9.01117566522454</v>
       </c>
       <c r="D28" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
     </row>
     <row r="29">
@@ -7091,13 +7091,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>232443.489494629</v>
+        <v>231504.918425383</v>
       </c>
       <c r="C29" t="n">
         <v>10.5238126035059</v>
       </c>
       <c r="D29" t="n">
-        <v>-24584.8085991836</v>
+        <v>-351.084299964947</v>
       </c>
     </row>
     <row r="30">
@@ -7105,13 +7105,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>268578.944041909</v>
+        <v>270677.112478378</v>
       </c>
       <c r="C30" t="n">
         <v>11.9127471155729</v>
       </c>
       <c r="D30" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
     </row>
     <row r="31">
@@ -7119,13 +7119,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>251955.427601384</v>
+        <v>252428.64582087</v>
       </c>
       <c r="C31" t="n">
         <v>10.8348612881606</v>
       </c>
       <c r="D31" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
     </row>
     <row r="32">
@@ -7133,13 +7133,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>219629.432294297</v>
+        <v>218045.357581213</v>
       </c>
       <c r="C32" t="n">
         <v>9.02929647186484</v>
       </c>
       <c r="D32" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
     </row>
     <row r="33">
@@ -7147,13 +7147,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>250167.863097608</v>
+        <v>249179.920330255</v>
       </c>
       <c r="C33" t="n">
         <v>10.8918722375126</v>
       </c>
       <c r="D33" t="n">
-        <v>65753.4474128627</v>
+        <v>91530.3227219493</v>
       </c>
     </row>
     <row r="34">
@@ -7161,13 +7161,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>238174.294704946</v>
+        <v>238339.045259667</v>
       </c>
       <c r="C34" t="n">
         <v>10.2441206518659</v>
       </c>
       <c r="D34" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
     </row>
     <row r="35">
@@ -7175,13 +7175,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>237421.712077554</v>
+        <v>237320.457254964</v>
       </c>
       <c r="C35" t="n">
         <v>10.4852423350932</v>
       </c>
       <c r="D35" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
     </row>
     <row r="36">
@@ -7189,13 +7189,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>236968.518827866</v>
+        <v>236795.472829922</v>
       </c>
       <c r="C36" t="n">
         <v>10.721518519552</v>
       </c>
       <c r="D36" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
     </row>
     <row r="37">
@@ -7203,13 +7203,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>240854.830622614</v>
+        <v>240962.885888675</v>
       </c>
       <c r="C37" t="n">
         <v>11.1789937404245</v>
       </c>
       <c r="D37" t="n">
-        <v>141862.909077106</v>
+        <v>165928.36533062</v>
       </c>
     </row>
     <row r="38">
@@ -7217,13 +7217,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>237277.882732574</v>
+        <v>236507.411055528</v>
       </c>
       <c r="C38" t="n">
         <v>11.3312759206842</v>
       </c>
       <c r="D38" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
     </row>
     <row r="39">
@@ -7231,13 +7231,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>249400.895340063</v>
+        <v>249397.730796964</v>
       </c>
       <c r="C39" t="n">
         <v>12.1178813133434</v>
       </c>
       <c r="D39" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
     </row>
     <row r="40">
@@ -7245,13 +7245,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>219781.946630533</v>
+        <v>218886.894317983</v>
       </c>
       <c r="C40" t="n">
         <v>10.4589062836713</v>
       </c>
       <c r="D40" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
     </row>
     <row r="41">
@@ -7259,13 +7259,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>278622.303565847</v>
+        <v>280289.910179299</v>
       </c>
       <c r="C41" t="n">
         <v>13.6391137687502</v>
       </c>
       <c r="D41" t="n">
-        <v>105645.205863966</v>
+        <v>129737.970362518</v>
       </c>
     </row>
     <row r="42">
@@ -7273,13 +7273,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>243194.395087331</v>
+        <v>241732.531890198</v>
       </c>
       <c r="C42" t="n">
         <v>11.6428691387851</v>
       </c>
       <c r="D42" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
     </row>
     <row r="43">
@@ -7287,13 +7287,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>258554.685223324</v>
+        <v>257937.269663811</v>
       </c>
       <c r="C43" t="n">
         <v>12.3919304064259</v>
       </c>
       <c r="D43" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
     </row>
     <row r="44">
@@ -7301,13 +7301,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>247028.933956566</v>
+        <v>246209.247693766</v>
       </c>
       <c r="C44" t="n">
         <v>11.7483984681507</v>
       </c>
       <c r="D44" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
     </row>
     <row r="45">
@@ -7315,13 +7315,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>335087.504879152</v>
+        <v>337986.037452801</v>
       </c>
       <c r="C45" t="n">
         <v>16.7882921587443</v>
       </c>
       <c r="D45" t="n">
-        <v>49421.7946868968</v>
+        <v>70062.7224941585</v>
       </c>
     </row>
     <row r="46">
@@ -7329,13 +7329,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>259517.126632385</v>
+        <v>259632.572763172</v>
       </c>
       <c r="C46" t="n">
         <v>12.7515959096748</v>
       </c>
       <c r="D46" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
     </row>
     <row r="47">
@@ -7343,13 +7343,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>287694.356884507</v>
+        <v>288663.408841028</v>
       </c>
       <c r="C47" t="n">
         <v>14.4607563865404</v>
       </c>
       <c r="D47" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
     </row>
     <row r="48">
@@ -7357,13 +7357,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>259923.405725136</v>
+        <v>259026.67908275</v>
       </c>
       <c r="C48" t="n">
         <v>12.94756273816</v>
       </c>
       <c r="D48" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
     </row>
     <row r="49">
@@ -7371,13 +7371,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>310984.711248312</v>
+        <v>310796.413181565</v>
       </c>
       <c r="C49" t="n">
         <v>15.7529825985791</v>
       </c>
       <c r="D49" t="n">
-        <v>58404.7683888033</v>
+        <v>75518.7402702601</v>
       </c>
     </row>
     <row r="50">
@@ -7385,13 +7385,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>269786.864586886</v>
+        <v>265192.721264908</v>
       </c>
       <c r="C50" t="n">
         <v>13.3986549446632</v>
       </c>
       <c r="D50" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
     </row>
     <row r="51">
@@ -7399,13 +7399,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>329222.653902289</v>
+        <v>327647.742443118</v>
       </c>
       <c r="C51" t="n">
         <v>16.7879730089583</v>
       </c>
       <c r="D51" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
     </row>
     <row r="52">
@@ -7413,13 +7413,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>262046.123666926</v>
+        <v>261021.532910307</v>
       </c>
       <c r="C52" t="n">
         <v>13.3007279982884</v>
       </c>
       <c r="D52" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
     </row>
     <row r="53">
@@ -7427,13 +7427,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>326345.72771897</v>
+        <v>333539.142663592</v>
       </c>
       <c r="C53" t="n">
         <v>17.3769729695861</v>
       </c>
       <c r="D53" t="n">
-        <v>32937.4722264153</v>
+        <v>47705.8503694306</v>
       </c>
     </row>
     <row r="54">
@@ -7441,13 +7441,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>288546.702249115</v>
+        <v>301554.309161687</v>
       </c>
       <c r="C54" t="n">
         <v>16.0192758607371</v>
       </c>
       <c r="D54" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
     </row>
     <row r="55">
@@ -7455,13 +7455,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>318508.28630051</v>
+        <v>330762.521670032</v>
       </c>
       <c r="C55" t="n">
         <v>18.0480441521233</v>
       </c>
       <c r="D55" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
     </row>
     <row r="56">
@@ -7469,13 +7469,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>260682.851654286</v>
+        <v>258609.221029003</v>
       </c>
       <c r="C56" t="n">
         <v>14.8314652467803</v>
       </c>
       <c r="D56" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
     </row>
     <row r="57">
@@ -7483,13 +7483,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>287894.355668935</v>
+        <v>264706.140788862</v>
       </c>
       <c r="C57" t="n">
         <v>16.0390422807548</v>
       </c>
       <c r="D57" t="n">
-        <v>13722.0657066975</v>
+        <v>25014.6491844978</v>
       </c>
     </row>
     <row r="58">
@@ -7497,13 +7497,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>7652.00714523399</v>
+        <v>192007.927311548</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0977424856544318</v>
+        <v>13.7814974554388</v>
       </c>
       <c r="D58" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
     </row>
     <row r="59">
@@ -7511,13 +7511,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>264529.039928249</v>
+        <v>190852.261278525</v>
       </c>
       <c r="C59" t="n">
         <v>14.0447704192465</v>
       </c>
       <c r="D59" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
     </row>
     <row r="60">
@@ -7525,13 +7525,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>325935.605279838</v>
+        <v>259090.628749773</v>
       </c>
       <c r="C60" t="n">
         <v>17.2785456875479</v>
       </c>
       <c r="D60" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
     </row>
     <row r="61">
@@ -7539,13 +7539,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>331715.596556057</v>
+        <v>287882.627986082</v>
       </c>
       <c r="C61" t="n">
         <v>17.6233363262596</v>
       </c>
       <c r="D61" t="n">
-        <v>-90852.9659691353</v>
+        <v>-82419.8879440506</v>
       </c>
     </row>
     <row r="62">
@@ -7553,13 +7553,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>335569.457181876</v>
+        <v>310975.104927223</v>
       </c>
       <c r="C62" t="n">
         <v>17.868151976636</v>
       </c>
       <c r="D62" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
     </row>
     <row r="63">
@@ -7567,13 +7567,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>354408.807153539</v>
+        <v>356612.649294288</v>
       </c>
       <c r="C63" t="n">
         <v>19.0161167301949</v>
       </c>
       <c r="D63" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
     </row>
     <row r="64">
@@ -7581,13 +7581,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>366464.59881831</v>
+        <v>380108.501352199</v>
       </c>
       <c r="C64" t="n">
         <v>19.6337210138089</v>
       </c>
       <c r="D64" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
     </row>
     <row r="65">
@@ -7595,13 +7595,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>346832.91337326</v>
+        <v>355580.624277145</v>
       </c>
       <c r="C65" t="n">
         <v>18.3275901782376</v>
       </c>
       <c r="D65" t="n">
-        <v>-32587.1197154633</v>
+        <v>-267173.962671109</v>
       </c>
     </row>
     <row r="66">
@@ -7609,13 +7609,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>349399.137504528</v>
+        <v>362462.526926157</v>
       </c>
       <c r="C66" t="n">
         <v>18.0671285639402</v>
       </c>
       <c r="D66" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
     </row>
     <row r="67">
@@ -7623,13 +7623,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>405629.155865216</v>
+        <v>407231.592328593</v>
       </c>
       <c r="C67" t="n">
         <v>20.8122714076788</v>
       </c>
       <c r="D67" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
     </row>
     <row r="68">
@@ -7637,13 +7637,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>391805.093962095</v>
+        <v>384742.58162518</v>
       </c>
       <c r="C68" t="n">
         <v>19.5955177898177</v>
       </c>
       <c r="D68" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
     </row>
     <row r="69">
@@ -7651,13 +7651,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>443597.500539226</v>
+        <v>435994.594848611</v>
       </c>
       <c r="C69" t="n">
         <v>22.00763704929</v>
       </c>
       <c r="D69" t="n">
-        <v>-20291.174540695</v>
+        <v>-18813.1183638538</v>
       </c>
     </row>
     <row r="70">
@@ -7665,13 +7665,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>412742.591113907</v>
+        <v>409022.776197426</v>
       </c>
       <c r="C70" t="n">
         <v>19.4336483530636</v>
       </c>
       <c r="D70" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
     </row>
     <row r="71">
@@ -7679,13 +7679,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>494524.575229555</v>
+        <v>495971.758572767</v>
       </c>
       <c r="C71" t="n">
         <v>23.7715703226929</v>
       </c>
       <c r="D71" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
     </row>
     <row r="72">
@@ -7693,13 +7693,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>438068.086860078</v>
+        <v>438234.966326933</v>
       </c>
       <c r="C72" t="n">
         <v>20.6653025217431</v>
       </c>
       <c r="D72" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
     </row>
     <row r="73">
@@ -7707,13 +7707,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>489477.417093256</v>
+        <v>491582.600721682</v>
       </c>
       <c r="C73" t="n">
         <v>23.8843839125212</v>
       </c>
       <c r="D73" t="n">
-        <v>66113.6319809428</v>
+        <v>63634.6571126601</v>
       </c>
     </row>
     <row r="74">
@@ -7721,13 +7721,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>467892.665035613</v>
+        <v>470874.164876937</v>
       </c>
       <c r="C74" t="n">
         <v>22.8865176364712</v>
       </c>
       <c r="D74" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
     </row>
     <row r="75">
@@ -7735,13 +7735,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>530429.245959462</v>
+        <v>533730.213941581</v>
       </c>
       <c r="C75" t="n">
         <v>26.7654547629451</v>
       </c>
       <c r="D75" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
     </row>
     <row r="76">
@@ -7749,13 +7749,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>474127.897514206</v>
+        <v>472042.92241782</v>
       </c>
       <c r="C76" t="n">
         <v>23.742438811814</v>
       </c>
       <c r="D76" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
     </row>
     <row r="77">
@@ -7763,13 +7763,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>527551.897733862</v>
+        <v>523352.543526821</v>
       </c>
       <c r="C77" t="n">
         <v>26.6055887887697</v>
       </c>
       <c r="D77" t="n">
-        <v>180515.21728528</v>
+        <v>172931.214213869</v>
       </c>
     </row>
     <row r="78">
@@ -7777,13 +7777,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>546947.546288576</v>
+        <v>535860.767959652</v>
       </c>
       <c r="C78" t="n">
         <v>27.5104125266935</v>
       </c>
       <c r="D78" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
     </row>
     <row r="79">
@@ -7791,13 +7791,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>578694.233885731</v>
+        <v>571612.018808721</v>
       </c>
       <c r="C79" t="n">
         <v>29.6083132872694</v>
       </c>
       <c r="D79" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
     </row>
     <row r="80">
@@ -7805,13 +7805,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>483050.24096678</v>
+        <v>482977.540757025</v>
       </c>
       <c r="C80" t="n">
         <v>25.2792692907187</v>
       </c>
       <c r="D80" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
     </row>
     <row r="81">
@@ -7819,13 +7819,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>471309.199103654</v>
+        <v>489549.663680697</v>
       </c>
       <c r="C81" t="n">
         <v>26.3451625511966</v>
       </c>
       <c r="D81" t="n">
-        <v>126845.461375637</v>
+        <v>110665.673971696</v>
       </c>
     </row>
     <row r="82">
@@ -7833,13 +7833,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>603141.970682909</v>
+        <v>493040.841714293</v>
       </c>
       <c r="C82" t="n">
-        <v>36.4266988798614</v>
+        <v>27.9482627605948</v>
       </c>
       <c r="D82" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
     </row>
     <row r="83">
@@ -7847,13 +7847,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>588217.595036016</v>
+        <v>601536.190302235</v>
       </c>
       <c r="C83" t="n">
-        <v>36.6392201947552</v>
+        <v>34.1578752692673</v>
       </c>
       <c r="D83" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
     </row>
     <row r="84">
@@ -7861,13 +7861,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>548924.484583371</v>
+        <v>605227.330113188</v>
       </c>
       <c r="C84" t="n">
         <v>34.1124802191808</v>
       </c>
       <c r="D84" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
     </row>
     <row r="85">
@@ -7875,13 +7875,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>546716.479315421</v>
+        <v>587195.822885035</v>
       </c>
       <c r="C85" t="n">
         <v>32.2848222684526</v>
       </c>
       <c r="D85" t="n">
-        <v>50578.1656688766</v>
+        <v>28260.8760021531</v>
       </c>
     </row>
     <row r="86">
@@ -7889,13 +7889,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>521385.541225889</v>
+        <v>538819.220007728</v>
       </c>
       <c r="C86" t="n">
         <v>29.0529285723371</v>
       </c>
       <c r="D86" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
     </row>
     <row r="87">
@@ -7903,13 +7903,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>659418.989103094</v>
+        <v>662058.653507599</v>
       </c>
       <c r="C87" t="n">
         <v>34.5333055575326</v>
       </c>
       <c r="D87" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
     </row>
     <row r="88">
@@ -7917,13 +7917,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>577687.458823942</v>
+        <v>566596.233293174</v>
       </c>
       <c r="C88" t="n">
         <v>28.5551821718171</v>
       </c>
       <c r="D88" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
     </row>
     <row r="89">
@@ -7931,13 +7931,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>652505.442967918</v>
+        <v>643526.454626388</v>
       </c>
       <c r="C89" t="n">
         <v>32.1733602016653</v>
       </c>
       <c r="D89" t="n">
-        <v>-291484.484180532</v>
+        <v>-131787.834803653</v>
       </c>
     </row>
     <row r="90">
@@ -7945,13 +7945,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>653278.996377141</v>
+        <v>645800.872025485</v>
       </c>
       <c r="C90" t="n">
         <v>31.0258876982051</v>
       </c>
       <c r="D90" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
     </row>
     <row r="91">
@@ -7959,13 +7959,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>746315.720705335</v>
+        <v>748632.208670482</v>
       </c>
       <c r="C91" t="n">
         <v>36.8614010323591</v>
       </c>
       <c r="D91" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
     </row>
     <row r="92">
@@ -7973,13 +7973,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>651784.253853565</v>
+        <v>653800.76974887</v>
       </c>
       <c r="C92" t="n">
         <v>32.5631140019535</v>
       </c>
       <c r="D92" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
     </row>
     <row r="93">
@@ -7987,13 +7987,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>663053.035780537</v>
+        <v>666197.236363491</v>
       </c>
       <c r="C93" t="n">
         <v>34.5449954429963</v>
       </c>
       <c r="D93" t="n">
-        <v>103265.127880383</v>
+        <v>70016.9080310958</v>
       </c>
     </row>
     <row r="94">
@@ -8001,13 +8001,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>625203.876360985</v>
+        <v>627353.64470751</v>
       </c>
       <c r="C94" t="n">
         <v>33.723091474282</v>
       </c>
       <c r="D94" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
     </row>
     <row r="95">
@@ -8015,13 +8015,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>537003.610737969</v>
+        <v>534157.287714112</v>
       </c>
       <c r="C95" t="n">
         <v>30.0723120741627</v>
       </c>
       <c r="D95" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
     </row>
     <row r="96">
@@ -8029,13 +8029,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>627521.829861496</v>
+        <v>627209.358857626</v>
       </c>
       <c r="C96" t="n">
         <v>35.992825760095</v>
       </c>
       <c r="D96" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
     </row>
     <row r="97">
@@ -8043,13 +8043,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>674114.708801923</v>
+        <v>675121.548489963</v>
       </c>
       <c r="C97" t="n">
         <v>39.0277070208032</v>
       </c>
       <c r="D97" t="n">
-        <v>215800.351907083</v>
+        <v>175054.573136765</v>
       </c>
     </row>
     <row r="98">
@@ -8057,13 +8057,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>660843.845601949</v>
+        <v>651820.929103532</v>
       </c>
       <c r="C98" t="n">
-        <v>36.1547459288834</v>
+        <v>35.4337376621504</v>
       </c>
       <c r="D98" t="n">
-        <v>-103073.493104484</v>
+        <v>-146501.204705833</v>
       </c>
     </row>
     <row r="99">
@@ -8071,13 +8071,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>665731.54101938</v>
+        <v>665114.645204271</v>
       </c>
       <c r="C99" t="n">
-        <v>36.4282125644659</v>
+        <v>36.1494126739382</v>
       </c>
       <c r="D99" t="n">
-        <v>-103073.493104484</v>
+        <v>-146501.204705833</v>
       </c>
     </row>
     <row r="100">
@@ -8085,13 +8085,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>670619.23643681</v>
+        <v>675733.896881986</v>
       </c>
       <c r="C100" t="n">
-        <v>36.7016792000484</v>
+        <v>36.7211063231808</v>
       </c>
       <c r="D100" t="n">
-        <v>-103073.493104484</v>
+        <v>-146501.204705833</v>
       </c>
     </row>
     <row r="101">
@@ -8099,13 +8099,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>675506.93185424</v>
+        <v>703571.732432006</v>
       </c>
       <c r="C101" t="n">
-        <v>36.9751458356309</v>
+        <v>38.2197725452088</v>
       </c>
       <c r="D101" t="n">
-        <v>-103073.493104484</v>
+        <v>-146501.204705833</v>
       </c>
     </row>
   </sheetData>
@@ -8135,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>158976.24949317</v>
+        <v>158654.817635095</v>
       </c>
     </row>
     <row r="3">
@@ -8143,7 +8143,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>167863.759123018</v>
+        <v>167821.263341816</v>
       </c>
     </row>
     <row r="4">
@@ -8151,7 +8151,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>160518.615580187</v>
+        <v>160047.380804539</v>
       </c>
     </row>
     <row r="5">
@@ -8159,7 +8159,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>199137.375803625</v>
+        <v>199972.53821855</v>
       </c>
     </row>
     <row r="6">
@@ -8167,7 +8167,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>177927.251417037</v>
+        <v>178107.798109578</v>
       </c>
     </row>
     <row r="7">
@@ -8175,7 +8175,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>186717.608258595</v>
+        <v>187000.261748878</v>
       </c>
     </row>
     <row r="8">
@@ -8183,7 +8183,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>170254.109991386</v>
+        <v>169684.37511249</v>
       </c>
     </row>
     <row r="9">
@@ -8191,7 +8191,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>191789.295419521</v>
+        <v>191896.962652913</v>
       </c>
     </row>
     <row r="10">
@@ -8199,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>158716.094239957</v>
+        <v>158175.831126035</v>
       </c>
     </row>
     <row r="11">
@@ -8207,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>154949.248673669</v>
+        <v>154571.484779661</v>
       </c>
     </row>
     <row r="12">
@@ -8215,7 +8215,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>119522.315539505</v>
+        <v>118505.064224788</v>
       </c>
     </row>
     <row r="13">
@@ -8223,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>164331.864555832</v>
+        <v>166267.951585909</v>
       </c>
     </row>
     <row r="14">
@@ -8231,7 +8231,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>156479.414649205</v>
+        <v>155944.468749695</v>
       </c>
     </row>
     <row r="15">
@@ -8239,7 +8239,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>159635.690033202</v>
+        <v>160106.741867422</v>
       </c>
     </row>
     <row r="16">
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>144389.471024191</v>
+        <v>144390.885428431</v>
       </c>
     </row>
     <row r="17">
@@ -8255,7 +8255,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>161882.764705498</v>
+        <v>161947.542953876</v>
       </c>
     </row>
     <row r="18">
@@ -8263,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>166953.82472187</v>
+        <v>167973.961685313</v>
       </c>
     </row>
     <row r="19">
@@ -8271,7 +8271,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>163135.073677866</v>
+        <v>162974.31556572</v>
       </c>
     </row>
     <row r="20">
@@ -8279,7 +8279,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>148157.132876117</v>
+        <v>146722.845841758</v>
       </c>
     </row>
     <row r="21">
@@ -8287,7 +8287,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>207998.922888808</v>
+        <v>208575.35253551</v>
       </c>
     </row>
     <row r="22">
@@ -8295,7 +8295,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>199644.370166862</v>
+        <v>199940.398847904</v>
       </c>
     </row>
     <row r="23">
@@ -8303,7 +8303,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>199149.515219265</v>
+        <v>199227.696246553</v>
       </c>
     </row>
     <row r="24">
@@ -8311,7 +8311,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>185189.113202237</v>
+        <v>184316.12509789</v>
       </c>
     </row>
     <row r="25">
@@ -8319,7 +8319,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>235615.034585149</v>
+        <v>236115.240007988</v>
       </c>
     </row>
     <row r="26">
@@ -8327,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>235945.113575264</v>
+        <v>238096.377786176</v>
       </c>
     </row>
     <row r="27">
@@ -8335,7 +8335,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>201565.885543819</v>
+        <v>201468.945882973</v>
       </c>
     </row>
     <row r="28">
@@ -8343,7 +8343,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>200692.360376997</v>
+        <v>199577.010212969</v>
       </c>
     </row>
     <row r="29">
@@ -8351,7 +8351,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>232443.489494629</v>
+        <v>231504.918425383</v>
       </c>
     </row>
     <row r="30">
@@ -8359,7 +8359,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>268578.944041909</v>
+        <v>270677.112478378</v>
       </c>
     </row>
     <row r="31">
@@ -8367,7 +8367,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>251955.427601384</v>
+        <v>252428.64582087</v>
       </c>
     </row>
     <row r="32">
@@ -8375,7 +8375,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>219629.432294297</v>
+        <v>218045.357581213</v>
       </c>
     </row>
     <row r="33">
@@ -8383,7 +8383,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>250167.863097608</v>
+        <v>249179.920330255</v>
       </c>
     </row>
     <row r="34">
@@ -8391,7 +8391,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>238174.294704946</v>
+        <v>238339.045259667</v>
       </c>
     </row>
     <row r="35">
@@ -8399,7 +8399,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>237421.712077554</v>
+        <v>237320.457254964</v>
       </c>
     </row>
     <row r="36">
@@ -8407,7 +8407,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>236968.518827866</v>
+        <v>236795.472829922</v>
       </c>
     </row>
     <row r="37">
@@ -8415,7 +8415,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>240854.830622614</v>
+        <v>240962.885888675</v>
       </c>
     </row>
     <row r="38">
@@ -8423,7 +8423,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>237277.882732574</v>
+        <v>236507.411055528</v>
       </c>
     </row>
     <row r="39">
@@ -8431,7 +8431,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>249400.895340063</v>
+        <v>249397.730796964</v>
       </c>
     </row>
     <row r="40">
@@ -8439,7 +8439,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>219781.946630533</v>
+        <v>218886.894317983</v>
       </c>
     </row>
     <row r="41">
@@ -8447,7 +8447,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>278622.303565847</v>
+        <v>280289.910179299</v>
       </c>
     </row>
     <row r="42">
@@ -8455,7 +8455,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>243194.395087331</v>
+        <v>241732.531890198</v>
       </c>
     </row>
     <row r="43">
@@ -8463,7 +8463,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>258554.685223324</v>
+        <v>257937.269663811</v>
       </c>
     </row>
     <row r="44">
@@ -8471,7 +8471,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>247028.933956566</v>
+        <v>246209.247693766</v>
       </c>
     </row>
     <row r="45">
@@ -8479,7 +8479,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>335087.504879152</v>
+        <v>337986.037452801</v>
       </c>
     </row>
     <row r="46">
@@ -8487,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>259517.126632385</v>
+        <v>259632.572763172</v>
       </c>
     </row>
     <row r="47">
@@ -8495,7 +8495,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>287694.356884507</v>
+        <v>288663.408841028</v>
       </c>
     </row>
     <row r="48">
@@ -8503,7 +8503,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>259923.405725136</v>
+        <v>259026.67908275</v>
       </c>
     </row>
     <row r="49">
@@ -8511,7 +8511,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>310984.711248312</v>
+        <v>310796.413181565</v>
       </c>
     </row>
     <row r="50">
@@ -8519,7 +8519,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>269786.864586886</v>
+        <v>265192.721264908</v>
       </c>
     </row>
     <row r="51">
@@ -8527,7 +8527,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>329222.653902289</v>
+        <v>327647.742443118</v>
       </c>
     </row>
     <row r="52">
@@ -8535,7 +8535,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>262046.123666926</v>
+        <v>261021.532910307</v>
       </c>
     </row>
     <row r="53">
@@ -8543,7 +8543,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>326345.72771897</v>
+        <v>333539.142663592</v>
       </c>
     </row>
     <row r="54">
@@ -8551,7 +8551,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>288546.702249115</v>
+        <v>301554.309161687</v>
       </c>
     </row>
     <row r="55">
@@ -8559,7 +8559,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>318508.28630051</v>
+        <v>330762.521670032</v>
       </c>
     </row>
     <row r="56">
@@ -8567,7 +8567,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>260682.851654286</v>
+        <v>258609.221029003</v>
       </c>
     </row>
     <row r="57">
@@ -8575,7 +8575,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>287894.355668935</v>
+        <v>264706.140788862</v>
       </c>
     </row>
     <row r="58">
@@ -8583,7 +8583,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>7652.00714523399</v>
+        <v>192007.927311548</v>
       </c>
     </row>
     <row r="59">
@@ -8591,7 +8591,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>264529.039928249</v>
+        <v>190852.261278525</v>
       </c>
     </row>
     <row r="60">
@@ -8599,7 +8599,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>325935.605279838</v>
+        <v>259090.628749773</v>
       </c>
     </row>
     <row r="61">
@@ -8607,7 +8607,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>331715.596556057</v>
+        <v>287882.627986082</v>
       </c>
     </row>
     <row r="62">
@@ -8615,7 +8615,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>335569.457181876</v>
+        <v>310975.104927223</v>
       </c>
     </row>
     <row r="63">
@@ -8623,7 +8623,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>354408.807153539</v>
+        <v>356612.649294288</v>
       </c>
     </row>
     <row r="64">
@@ -8631,7 +8631,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>366464.59881831</v>
+        <v>380108.501352199</v>
       </c>
     </row>
     <row r="65">
@@ -8639,7 +8639,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>346832.91337326</v>
+        <v>355580.624277145</v>
       </c>
     </row>
     <row r="66">
@@ -8647,7 +8647,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>349399.137504528</v>
+        <v>362462.526926157</v>
       </c>
     </row>
     <row r="67">
@@ -8655,7 +8655,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>405629.155865216</v>
+        <v>407231.592328593</v>
       </c>
     </row>
     <row r="68">
@@ -8663,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>391805.093962095</v>
+        <v>384742.58162518</v>
       </c>
     </row>
     <row r="69">
@@ -8671,7 +8671,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>443597.500539226</v>
+        <v>435994.594848611</v>
       </c>
     </row>
     <row r="70">
@@ -8679,7 +8679,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>412742.591113907</v>
+        <v>409022.776197426</v>
       </c>
     </row>
     <row r="71">
@@ -8687,7 +8687,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>494524.575229555</v>
+        <v>495971.758572767</v>
       </c>
     </row>
     <row r="72">
@@ -8695,7 +8695,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>438068.086860078</v>
+        <v>438234.966326933</v>
       </c>
     </row>
     <row r="73">
@@ -8703,7 +8703,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>489477.417093256</v>
+        <v>491582.600721682</v>
       </c>
     </row>
     <row r="74">
@@ -8711,7 +8711,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>467892.665035613</v>
+        <v>470874.164876937</v>
       </c>
     </row>
     <row r="75">
@@ -8719,7 +8719,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>530429.245959462</v>
+        <v>533730.213941581</v>
       </c>
     </row>
     <row r="76">
@@ -8727,7 +8727,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>474127.897514206</v>
+        <v>472042.92241782</v>
       </c>
     </row>
     <row r="77">
@@ -8735,7 +8735,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>527551.897733862</v>
+        <v>523352.543526821</v>
       </c>
     </row>
     <row r="78">
@@ -8743,7 +8743,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>546947.546288576</v>
+        <v>535860.767959652</v>
       </c>
     </row>
     <row r="79">
@@ -8751,7 +8751,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>578694.233885731</v>
+        <v>571612.018808721</v>
       </c>
     </row>
     <row r="80">
@@ -8759,7 +8759,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>483050.24096678</v>
+        <v>482977.540757025</v>
       </c>
     </row>
     <row r="81">
@@ -8767,7 +8767,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>471309.199103654</v>
+        <v>489549.663680697</v>
       </c>
     </row>
     <row r="82">
@@ -8775,7 +8775,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>603141.970682909</v>
+        <v>493040.841714293</v>
       </c>
     </row>
     <row r="83">
@@ -8783,7 +8783,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>588217.595036016</v>
+        <v>601536.190302235</v>
       </c>
     </row>
     <row r="84">
@@ -8791,7 +8791,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>548924.484583371</v>
+        <v>605227.330113188</v>
       </c>
     </row>
     <row r="85">
@@ -8799,7 +8799,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>546716.479315421</v>
+        <v>587195.822885035</v>
       </c>
     </row>
     <row r="86">
@@ -8807,7 +8807,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>521385.541225889</v>
+        <v>538819.220007728</v>
       </c>
     </row>
     <row r="87">
@@ -8815,7 +8815,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>659418.989103094</v>
+        <v>662058.653507599</v>
       </c>
     </row>
     <row r="88">
@@ -8823,7 +8823,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>577687.458823942</v>
+        <v>566596.233293174</v>
       </c>
     </row>
     <row r="89">
@@ -8831,7 +8831,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>652505.442967918</v>
+        <v>643526.454626388</v>
       </c>
     </row>
     <row r="90">
@@ -8839,7 +8839,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>653278.996377141</v>
+        <v>645800.872025485</v>
       </c>
     </row>
     <row r="91">
@@ -8847,7 +8847,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>746315.720705335</v>
+        <v>748632.208670482</v>
       </c>
     </row>
     <row r="92">
@@ -8855,7 +8855,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>651784.253853565</v>
+        <v>653800.76974887</v>
       </c>
     </row>
     <row r="93">
@@ -8863,7 +8863,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>663053.035780537</v>
+        <v>666197.236363491</v>
       </c>
     </row>
     <row r="94">
@@ -8871,7 +8871,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>625203.876360985</v>
+        <v>627353.64470751</v>
       </c>
     </row>
     <row r="95">
@@ -8879,7 +8879,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>537003.610737969</v>
+        <v>534157.287714112</v>
       </c>
     </row>
     <row r="96">
@@ -8887,7 +8887,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>627521.829861496</v>
+        <v>627209.358857626</v>
       </c>
     </row>
     <row r="97">
@@ -8895,7 +8895,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>674114.708801923</v>
+        <v>675121.548489963</v>
       </c>
     </row>
     <row r="98">
@@ -8903,7 +8903,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>660843.845601949</v>
+        <v>651820.929103532</v>
       </c>
     </row>
     <row r="99">
@@ -8911,7 +8911,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>665731.54101938</v>
+        <v>665114.645204271</v>
       </c>
     </row>
     <row r="100">
@@ -8919,7 +8919,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>670619.23643681</v>
+        <v>675733.896881986</v>
       </c>
     </row>
     <row r="101">
@@ -8927,7 +8927,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>675506.93185424</v>
+        <v>703571.732432006</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_DTX.xlsx
+++ b/VA_result_DTX.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -342,6 +342,54 @@
   </si>
   <si>
     <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">VA_CST</t>
@@ -2209,6 +2257,182 @@
         <v>152.879090180835</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1083.61760185114</v>
+      </c>
+      <c r="C106" t="n">
+        <v>148.508350738754</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1063.69987843287</v>
+      </c>
+      <c r="C107" t="n">
+        <v>145.778653241902</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1119.16331498387</v>
+      </c>
+      <c r="C108" t="n">
+        <v>153.379843435216</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1158.99294851398</v>
+      </c>
+      <c r="C109" t="n">
+        <v>158.838441723007</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1125.01305785299</v>
+      </c>
+      <c r="C110" t="n">
+        <v>154.1815429132</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1128.78861892984</v>
+      </c>
+      <c r="C111" t="n">
+        <v>154.698978535949</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1152.14540382793</v>
+      </c>
+      <c r="C112" t="n">
+        <v>157.899994833442</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1178.61486890466</v>
+      </c>
+      <c r="C113" t="n">
+        <v>161.52759980845</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1164.06224935977</v>
+      </c>
+      <c r="C114" t="n">
+        <v>159.533182659958</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1163.174410957</v>
+      </c>
+      <c r="C115" t="n">
+        <v>159.411505587998</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1188.32489056885</v>
+      </c>
+      <c r="C116" t="n">
+        <v>162.858345359762</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1210.04815558939</v>
+      </c>
+      <c r="C117" t="n">
+        <v>165.835489931196</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1200.2666760448</v>
+      </c>
+      <c r="C118" t="n">
+        <v>164.49495117244</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1204.58766698182</v>
+      </c>
+      <c r="C119" t="n">
+        <v>165.087137231911</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1221.43496759017</v>
+      </c>
+      <c r="C120" t="n">
+        <v>167.396037367413</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1238.19246434166</v>
+      </c>
+      <c r="C121" t="n">
+        <v>169.692630003803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2228,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -2274,7 +2498,7 @@
         <v>1.35768668041547</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -2294,7 +2518,7 @@
         <v>1.69781402240843</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -2314,7 +2538,7 @@
         <v>0.203512005441353</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -2334,7 +2558,7 @@
         <v>-6.10494184339282</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -2354,7 +2578,7 @@
         <v>8.35399806344113</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -2374,7 +2598,7 @@
         <v>6.04978742407691</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -2394,7 +2618,7 @@
         <v>-5.18109486622648</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2414,7 +2638,7 @@
         <v>6.06002678826414</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -2434,7 +2658,7 @@
         <v>-0.0911717391667732</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2454,7 +2678,7 @@
         <v>11.5348731635496</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2474,7 +2698,7 @@
         <v>10.5670055982247</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2494,7 +2718,7 @@
         <v>6.35593065729985</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2514,7 +2738,7 @@
         <v>8.85561560598367</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2534,7 +2758,7 @@
         <v>6.69275204554327</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -2554,7 +2778,7 @@
         <v>-3.40275881654358</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2574,7 +2798,7 @@
         <v>19.3173719166353</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -2594,7 +2818,7 @@
         <v>7.53147336083886</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -2614,7 +2838,7 @@
         <v>9.03593370811444</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -2634,7 +2858,7 @@
         <v>13.9537440951331</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -2654,7 +2878,7 @@
         <v>8.74315765587814</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -2674,7 +2898,7 @@
         <v>18.1715183626997</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -2694,7 +2918,7 @@
         <v>-3.25957343809267</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
@@ -2714,7 +2938,7 @@
         <v>8.59159463788595</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -2734,7 +2958,7 @@
         <v>2.83012473422362</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
@@ -2754,7 +2978,87 @@
         <v>5.5527434954209</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2791016.6737085</v>
+      </c>
+      <c r="C28" t="n">
+        <v>151.62632228472</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.5150961256506</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.48222275072791</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2892263.95317253</v>
+      </c>
+      <c r="C29" t="n">
+        <v>157.07702902276</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.62761284867201</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.594828823854</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2982029.88899922</v>
+      </c>
+      <c r="C30" t="n">
+        <v>161.909630884729</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.10365641864128</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.07658089284837</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3070411.16819372</v>
+      </c>
+      <c r="C31" t="n">
+        <v>166.667688943892</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.96379588684008</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.93871218973403</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2776,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -3290,34 +3594,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -3352,7 +3656,7 @@
         <v>686496</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -3387,7 +3691,7 @@
         <v>686496</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -3422,7 +3726,7 @@
         <v>686496</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
@@ -3457,7 +3761,7 @@
         <v>686496</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
@@ -3492,7 +3796,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -3527,7 +3831,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -3562,7 +3866,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -3597,7 +3901,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -3632,7 +3936,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -3667,7 +3971,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -3702,7 +4006,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -3737,7 +4041,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -3772,7 +4076,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -3807,7 +4111,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -3842,7 +4146,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -3877,7 +4181,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -3912,7 +4216,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -3947,7 +4251,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -3982,7 +4286,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -4017,7 +4321,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -4052,7 +4356,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
@@ -4087,7 +4391,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -4122,7 +4426,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K24" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -4157,7 +4461,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K25" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
@@ -4192,7 +4496,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -4227,7 +4531,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
@@ -4262,7 +4566,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -4297,7 +4601,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
@@ -4332,7 +4636,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -4367,7 +4671,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -4402,7 +4706,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -4437,7 +4741,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34">
@@ -4472,7 +4776,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -4507,7 +4811,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
@@ -4542,7 +4846,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -4577,7 +4881,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -4612,7 +4916,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -4647,7 +4951,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -4682,7 +4986,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -4717,7 +5021,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
@@ -4752,7 +5056,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43">
@@ -4787,7 +5091,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
@@ -4822,7 +5126,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
@@ -4857,7 +5161,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46">
@@ -4892,7 +5196,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
@@ -4927,7 +5231,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
@@ -4962,7 +5266,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
@@ -4997,7 +5301,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50">
@@ -5032,7 +5336,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K50" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51">
@@ -5067,7 +5371,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K51" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
@@ -5102,7 +5406,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53">
@@ -5137,7 +5441,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54">
@@ -5172,7 +5476,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55">
@@ -5207,7 +5511,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K55" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56">
@@ -5242,7 +5546,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K56" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
@@ -5277,7 +5581,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K57" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
@@ -5312,7 +5616,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K58" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
@@ -5347,7 +5651,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60">
@@ -5382,7 +5686,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61">
@@ -5417,7 +5721,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K61" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62">
@@ -5452,7 +5756,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K62" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63">
@@ -5487,7 +5791,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K63" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64">
@@ -5522,7 +5826,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
@@ -5557,7 +5861,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K65" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66">
@@ -5592,7 +5896,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K66" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67">
@@ -5627,7 +5931,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K67" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68">
@@ -5662,7 +5966,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K68" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69">
@@ -5697,7 +6001,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K69" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70">
@@ -5732,7 +6036,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K70" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
@@ -5767,7 +6071,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K71" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72">
@@ -5802,7 +6106,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K72" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
@@ -5837,7 +6141,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K73" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74">
@@ -5872,7 +6176,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K74" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -5907,7 +6211,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K75" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -5942,7 +6246,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K76" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -5977,7 +6281,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K77" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
@@ -6012,7 +6316,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
@@ -6047,7 +6351,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K79" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -6082,7 +6386,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K80" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81">
@@ -6117,7 +6421,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K81" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82">
@@ -6152,7 +6456,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K82" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
@@ -6187,7 +6491,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K83" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84">
@@ -6222,7 +6526,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K84" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -6257,7 +6561,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K85" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
@@ -6292,7 +6596,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K86" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
@@ -6327,7 +6631,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K87" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
@@ -6362,7 +6666,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K88" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89">
@@ -6397,7 +6701,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K89" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90">
@@ -6432,7 +6736,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K90" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91">
@@ -6467,7 +6771,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K91" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
@@ -6502,7 +6806,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K92" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93">
@@ -6537,7 +6841,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K93" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
@@ -6572,7 +6876,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K94" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95">
@@ -6607,7 +6911,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K95" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
@@ -6642,7 +6946,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K96" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97">
@@ -6677,7 +6981,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K97" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6699,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -8105,6 +8409,230 @@
         <v>38.2197725452088</v>
       </c>
       <c r="D101" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="n">
+        <v>683275.030599359</v>
+      </c>
+      <c r="C102" t="n">
+        <v>37.1270876846884</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>670598.947542681</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36.4446633104755</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="n">
+        <v>705897.114585433</v>
+      </c>
+      <c r="C104" t="n">
+        <v>38.344960858804</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="n">
+        <v>731245.580981027</v>
+      </c>
+      <c r="C105" t="n">
+        <v>39.7096104307518</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="n">
+        <v>709620.021310865</v>
+      </c>
+      <c r="C106" t="n">
+        <v>38.5453857283</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="n">
+        <v>712022.872519843</v>
+      </c>
+      <c r="C107" t="n">
+        <v>38.6747446339873</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="n">
+        <v>726887.650942945</v>
+      </c>
+      <c r="C108" t="n">
+        <v>39.4749987083605</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="n">
+        <v>743733.408398876</v>
+      </c>
+      <c r="C109" t="n">
+        <v>40.3818999521126</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="n">
+        <v>734471.797010393</v>
+      </c>
+      <c r="C110" t="n">
+        <v>39.8832956649895</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="n">
+        <v>733906.75686509</v>
+      </c>
+      <c r="C111" t="n">
+        <v>39.8528763969996</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="n">
+        <v>749913.082577127</v>
+      </c>
+      <c r="C112" t="n">
+        <v>40.7145863399405</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="n">
+        <v>763738.252546605</v>
+      </c>
+      <c r="C113" t="n">
+        <v>41.458872482799</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="n">
+        <v>757513.100980804</v>
+      </c>
+      <c r="C114" t="n">
+        <v>41.1237377931099</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="n">
+        <v>760263.075907886</v>
+      </c>
+      <c r="C115" t="n">
+        <v>41.2717843079777</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="n">
+        <v>770985.073462909</v>
+      </c>
+      <c r="C116" t="n">
+        <v>41.8490093418532</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-146501.204705833</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="n">
+        <v>781649.917842116</v>
+      </c>
+      <c r="C117" t="n">
+        <v>42.4231575009507</v>
+      </c>
+      <c r="D117" t="n">
         <v>-146501.204705833</v>
       </c>
     </row>
@@ -8127,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -8928,6 +9456,134 @@
       </c>
       <c r="B101" t="n">
         <v>703571.732432006</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="n">
+        <v>683275.030599359</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>670598.947542681</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="n">
+        <v>705897.114585433</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="n">
+        <v>731245.580981027</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="n">
+        <v>709620.021310865</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="n">
+        <v>712022.872519843</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="n">
+        <v>726887.650942945</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="n">
+        <v>743733.408398876</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="n">
+        <v>734471.797010393</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="n">
+        <v>733906.75686509</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="n">
+        <v>749913.082577127</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="n">
+        <v>763738.252546605</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="n">
+        <v>757513.100980804</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="n">
+        <v>760263.075907886</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="n">
+        <v>770985.073462909</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="n">
+        <v>781649.917842116</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_DTX.xlsx
+++ b/VA_result_DTX.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -390,6 +390,54 @@
   </si>
   <si>
     <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">VA_CST</t>
@@ -2433,6 +2481,182 @@
         <v>169.692630003803</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1235.04586404976</v>
+      </c>
+      <c r="C122" t="n">
+        <v>169.26139261989</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1239.5218052771</v>
+      </c>
+      <c r="C123" t="n">
+        <v>169.874814410511</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1254.5768609402</v>
+      </c>
+      <c r="C124" t="n">
+        <v>171.938089760587</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1268.66823646484</v>
+      </c>
+      <c r="C125" t="n">
+        <v>173.869294029721</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1268.65365688043</v>
+      </c>
+      <c r="C126" t="n">
+        <v>173.867295917073</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1274.59931882781</v>
+      </c>
+      <c r="C127" t="n">
+        <v>174.682140977127</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1286.8865547456</v>
+      </c>
+      <c r="C128" t="n">
+        <v>176.366090313288</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1298.88413915914</v>
+      </c>
+      <c r="C129" t="n">
+        <v>178.01034329613</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1301.54878945716</v>
+      </c>
+      <c r="C130" t="n">
+        <v>178.375530074545</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1307.94113123125</v>
+      </c>
+      <c r="C131" t="n">
+        <v>179.251592010608</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1318.97608024656</v>
+      </c>
+      <c r="C132" t="n">
+        <v>180.763917092767</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1329.66733753017</v>
+      </c>
+      <c r="C133" t="n">
+        <v>182.22913968033</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1333.92697813096</v>
+      </c>
+      <c r="C134" t="n">
+        <v>182.812917757839</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1340.84484405888</v>
+      </c>
+      <c r="C135" t="n">
+        <v>183.76100208005</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1350.77704720087</v>
+      </c>
+      <c r="C136" t="n">
+        <v>185.122197307314</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1360.53536447346</v>
+      </c>
+      <c r="C137" t="n">
+        <v>186.459561707507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>1.35768668041547</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2518,7 +2742,7 @@
         <v>1.69781402240843</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2762,7 @@
         <v>0.203512005441353</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2558,7 +2782,7 @@
         <v>-6.10494184339282</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2578,7 +2802,7 @@
         <v>8.35399806344113</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -2598,7 +2822,7 @@
         <v>6.04978742407691</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2842,7 @@
         <v>-5.18109486622648</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2638,7 +2862,7 @@
         <v>6.06002678826414</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -2658,7 +2882,7 @@
         <v>-0.0911717391667732</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -2678,7 +2902,7 @@
         <v>11.5348731635496</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -2698,7 +2922,7 @@
         <v>10.5670055982247</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2942,7 @@
         <v>6.35593065729985</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2738,7 +2962,7 @@
         <v>8.85561560598367</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
@@ -2758,7 +2982,7 @@
         <v>6.69275204554327</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2778,7 +3002,7 @@
         <v>-3.40275881654358</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +3022,7 @@
         <v>19.3173719166353</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
@@ -2818,7 +3042,7 @@
         <v>7.53147336083886</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
@@ -2838,7 +3062,7 @@
         <v>9.03593370811444</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21">
@@ -2858,7 +3082,7 @@
         <v>13.9537440951331</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +3102,7 @@
         <v>8.74315765587814</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -2898,7 +3122,7 @@
         <v>18.1715183626997</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
@@ -2918,7 +3142,7 @@
         <v>-3.25957343809267</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -2938,7 +3162,7 @@
         <v>8.59159463788595</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
@@ -2958,7 +3182,7 @@
         <v>2.83012473422362</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>2696241.2036218</v>
+        <v>2696241.20362179</v>
       </c>
       <c r="C27" t="n">
         <v>146.524029204478</v>
       </c>
       <c r="D27" t="n">
-        <v>9.43239781472147</v>
+        <v>9.43239781472145</v>
       </c>
       <c r="E27" t="n">
         <v>5.5527434954209</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>2791016.6737085</v>
+        <v>2825901.05035834</v>
       </c>
       <c r="C28" t="n">
         <v>151.62632228472</v>
       </c>
       <c r="D28" t="n">
-        <v>3.5150961256506</v>
+        <v>4.80891125624714</v>
       </c>
       <c r="E28" t="n">
         <v>3.48222275072791</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>2892263.95317253</v>
+        <v>2940787.7456802</v>
       </c>
       <c r="C29" t="n">
         <v>157.07702902276</v>
       </c>
       <c r="D29" t="n">
-        <v>3.62761284867201</v>
+        <v>4.06548896350398</v>
       </c>
       <c r="E29" t="n">
         <v>3.594828823854</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>2982029.88899922</v>
+        <v>3035886.54632515</v>
       </c>
       <c r="C30" t="n">
         <v>161.909630884729</v>
       </c>
       <c r="D30" t="n">
-        <v>3.10365641864128</v>
+        <v>3.23378662008649</v>
       </c>
       <c r="E30" t="n">
         <v>3.07658089284837</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>3070411.16819372</v>
+        <v>3126352.91827335</v>
       </c>
       <c r="C31" t="n">
         <v>166.667688943892</v>
       </c>
       <c r="D31" t="n">
-        <v>2.96379588684008</v>
+        <v>2.97989962957299</v>
       </c>
       <c r="E31" t="n">
         <v>2.93871218973403</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3212022.98159255</v>
+      </c>
+      <c r="C32" t="n">
+        <v>171.235897705177</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.74025567678144</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.74090844496171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3295847.27778426</v>
+      </c>
+      <c r="C33" t="n">
+        <v>175.731467625905</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.60970412329191</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.62536651541818</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3378140.17749033</v>
+      </c>
+      <c r="C34" t="n">
+        <v>180.155044714563</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.4968662917352</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.51723675242663</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3459619.70742599</v>
+      </c>
+      <c r="C35" t="n">
+        <v>184.538919713177</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.41196414756806</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.43339008661148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3656,7 +3960,7 @@
         <v>686496</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3691,7 +3995,7 @@
         <v>686496</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3726,7 +4030,7 @@
         <v>686496</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3761,7 +4065,7 @@
         <v>686496</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3796,7 +4100,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3831,7 +4135,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3866,7 +4170,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3901,7 +4205,7 @@
         <v>726689.397623859</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3936,7 +4240,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3971,7 +4275,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -4006,7 +4310,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4041,7 +4345,7 @@
         <v>597520.331716393</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4076,7 +4380,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4111,7 +4415,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4146,7 +4450,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4181,7 +4485,7 @@
         <v>622389.638999423</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4216,7 +4520,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4251,7 +4555,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4286,7 +4590,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4321,7 +4625,7 @@
         <v>686246.4756283</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4356,7 +4660,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4391,7 +4695,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4426,7 +4730,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4461,7 +4765,7 @@
         <v>819599.460200335</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4496,7 +4800,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4531,7 +4835,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4566,7 +4870,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4601,7 +4905,7 @@
         <v>870647.252307502</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4636,7 +4940,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4671,7 +4975,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4706,7 +5010,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4741,7 +5045,7 @@
         <v>990331.036210717</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4776,7 +5080,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4811,7 +5115,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4846,7 +5150,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4881,7 +5185,7 @@
         <v>953417.861233228</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4916,7 +5220,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4951,7 +5255,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4986,7 +5290,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -5021,7 +5325,7 @@
         <v>985081.946349774</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5056,7 +5360,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5091,7 +5395,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5126,7 +5430,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5161,7 +5465,7 @@
         <v>1083865.08670058</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5196,7 +5500,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5231,7 +5535,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5266,7 +5570,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5301,7 +5605,7 @@
         <v>1118119.07386851</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5336,7 +5640,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5371,7 +5675,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5406,7 +5710,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5441,7 +5745,7 @@
         <v>1187401.13928192</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5476,7 +5780,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5511,7 +5815,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5546,7 +5850,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5581,7 +5885,7 @@
         <v>1155632.19264958</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5616,7 +5920,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5651,7 +5955,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5686,7 +5990,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5721,7 +6025,7 @@
         <v>929833.445325929</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5756,7 +6060,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5791,7 +6095,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5826,7 +6130,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5861,7 +6165,7 @@
         <v>1403276.87985086</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5896,7 +6200,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5931,7 +6235,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5966,7 +6270,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -6001,7 +6305,7 @@
         <v>1590431.29572854</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6036,7 +6340,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6071,7 +6375,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6106,7 +6410,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6141,7 +6445,7 @@
         <v>1834812.10181881</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6176,7 +6480,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6211,7 +6515,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6246,7 +6550,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6281,7 +6585,7 @@
         <v>1999999.84476316</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6316,7 +6620,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6351,7 +6655,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6386,7 +6690,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6421,7 +6725,7 @@
         <v>2079999.9912061</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6456,7 +6760,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6491,7 +6795,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6526,7 +6830,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6561,7 +6865,7 @@
         <v>2287000.18501475</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6596,7 +6900,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6631,7 +6935,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6666,7 +6970,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6701,7 +7005,7 @@
         <v>2411000.56143489</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6736,7 +7040,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6771,7 +7075,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6806,7 +7110,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6841,7 +7145,7 @@
         <v>2714431.08680833</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6876,7 +7180,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6911,7 +7215,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6946,7 +7250,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6981,7 +7285,7 @@
         <v>2463841.83976921</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>651820.929103532</v>
+        <v>649904.449852078</v>
       </c>
       <c r="C98" t="n">
         <v>35.4337376621504</v>
       </c>
       <c r="D98" t="n">
-        <v>-146501.204705833</v>
+        <v>-41526.917546703</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>665114.645204271</v>
+        <v>663964.757653398</v>
       </c>
       <c r="C99" t="n">
         <v>36.1494126739382</v>
       </c>
       <c r="D99" t="n">
-        <v>-146501.204705833</v>
+        <v>-39566.2709986051</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>675733.896881986</v>
+        <v>676117.192732277</v>
       </c>
       <c r="C100" t="n">
         <v>36.7211063231808</v>
       </c>
       <c r="D100" t="n">
-        <v>-146501.204705833</v>
+        <v>-35644.9779024093</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>703571.732432006</v>
+        <v>706254.803384042</v>
       </c>
       <c r="C101" t="n">
         <v>38.2197725452088</v>
       </c>
       <c r="D101" t="n">
-        <v>-146501.204705833</v>
+        <v>-29763.0382581157</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>683275.030599359</v>
+        <v>689024.468353722</v>
       </c>
       <c r="C102" t="n">
         <v>37.1270876846884</v>
       </c>
       <c r="D102" t="n">
-        <v>-146501.204705833</v>
+        <v>-21920.4520657242</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>670598.947542681</v>
+        <v>678763.594581213</v>
       </c>
       <c r="C103" t="n">
         <v>36.4446633104755</v>
       </c>
       <c r="D103" t="n">
-        <v>-146501.204705833</v>
+        <v>-15743.2762075106</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>705897.114585433</v>
+        <v>715825.813389977</v>
       </c>
       <c r="C104" t="n">
         <v>38.344960858804</v>
       </c>
       <c r="D104" t="n">
-        <v>-146501.204705833</v>
+        <v>-11231.5106834749</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>731245.580981027</v>
+        <v>742287.174033425</v>
       </c>
       <c r="C105" t="n">
         <v>39.7096104307518</v>
       </c>
       <c r="D105" t="n">
-        <v>-146501.204705833</v>
+        <v>-8385.15549361713</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>709620.021310865</v>
+        <v>721123.351092959</v>
       </c>
       <c r="C106" t="n">
         <v>38.5453857283</v>
       </c>
       <c r="D106" t="n">
-        <v>-146501.204705833</v>
+        <v>-7204.21063793729</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>712022.872519843</v>
+        <v>723961.944331744</v>
       </c>
       <c r="C107" t="n">
         <v>38.6747446339873</v>
       </c>
       <c r="D107" t="n">
-        <v>-146501.204705833</v>
+        <v>-6089.75022053941</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>726887.650942945</v>
+        <v>739236.470084766</v>
       </c>
       <c r="C108" t="n">
         <v>39.4749987083605</v>
       </c>
       <c r="D108" t="n">
-        <v>-146501.204705833</v>
+        <v>-5041.77424142352</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>743733.408398876</v>
+        <v>756465.980170728</v>
       </c>
       <c r="C109" t="n">
         <v>40.3818999521126</v>
       </c>
       <c r="D109" t="n">
-        <v>-146501.204705833</v>
+        <v>-4060.2827005896</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>734471.797010393</v>
+        <v>747562.126712389</v>
       </c>
       <c r="C110" t="n">
         <v>39.8832956649895</v>
       </c>
       <c r="D110" t="n">
-        <v>-146501.204705833</v>
+        <v>-3145.27559803766</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>733906.75686509</v>
+        <v>747289.723590938</v>
       </c>
       <c r="C111" t="n">
         <v>39.8528763969996</v>
       </c>
       <c r="D111" t="n">
-        <v>-146501.204705833</v>
+        <v>-2396.82271206747</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>749913.082577127</v>
+        <v>763523.565420536</v>
       </c>
       <c r="C112" t="n">
         <v>40.7145863399405</v>
       </c>
       <c r="D112" t="n">
-        <v>-146501.204705833</v>
+        <v>-1814.92404267904</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>763738.252546605</v>
+        <v>777511.130601284</v>
       </c>
       <c r="C113" t="n">
         <v>41.458872482799</v>
       </c>
       <c r="D113" t="n">
-        <v>-146501.204705833</v>
+        <v>-1399.57958987236</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>757513.100980804</v>
+        <v>771383.253340462</v>
       </c>
       <c r="C114" t="n">
         <v>41.1237377931099</v>
       </c>
       <c r="D114" t="n">
-        <v>-146501.204705833</v>
+        <v>-1150.78935364746</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>760263.075907886</v>
+        <v>774218.252053636</v>
       </c>
       <c r="C115" t="n">
         <v>41.2717843079777</v>
       </c>
       <c r="D115" t="n">
-        <v>-146501.204705833</v>
+        <v>-933.331230137956</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>770985.073462909</v>
+        <v>785013.022875863</v>
       </c>
       <c r="C116" t="n">
         <v>41.8490093418532</v>
       </c>
       <c r="D116" t="n">
-        <v>-146501.204705833</v>
+        <v>-747.205219343869</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>781649.917842116</v>
+        <v>795738.390003386</v>
       </c>
       <c r="C117" t="n">
         <v>42.4231575009507</v>
       </c>
       <c r="D117" t="n">
-        <v>-146501.204705833</v>
+        <v>-592.411321265194</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>793784.095683984</v>
+      </c>
+      <c r="C118" t="n">
+        <v>42.3153481549725</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-468.949535901935</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>796672.995455177</v>
+      </c>
+      <c r="C119" t="n">
+        <v>42.4687036026278</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-365.8494444654</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>806286.718209278</v>
+      </c>
+      <c r="C120" t="n">
+        <v>42.9845224401467</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-283.111046955584</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>815279.172244115</v>
+      </c>
+      <c r="C121" t="n">
+        <v>43.4673235074302</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-220.734343372483</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>815286.320888311</v>
+      </c>
+      <c r="C122" t="n">
+        <v>43.4668239792683</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-178.719333716109</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>819084.330351387</v>
+      </c>
+      <c r="C123" t="n">
+        <v>43.6705352442817</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-142.765150663712</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>826915.889095407</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44.0915225783221</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-112.871794215288</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>834560.737449155</v>
+      </c>
+      <c r="C125" t="n">
+        <v>44.5025858240325</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-89.0392643708346</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>836263.528826173</v>
+      </c>
+      <c r="C126" t="n">
+        <v>44.5938825186363</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-71.2675611303593</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>840337.68166146</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44.8128980026519</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-56.1160578538458</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>847365.46873716</v>
+      </c>
+      <c r="C128" t="n">
+        <v>45.1909792731918</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-43.5847545412982</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>854173.498265534</v>
+      </c>
+      <c r="C129" t="n">
+        <v>45.5572849200826</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-33.6736511927158</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>856887.279136187</v>
+      </c>
+      <c r="C130" t="n">
+        <v>45.7032294394596</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-26.3827478080968</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>861292.101178299</v>
+      </c>
+      <c r="C131" t="n">
+        <v>45.9402505200124</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-20.9145702696316</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>867614.601932794</v>
+      </c>
+      <c r="C132" t="n">
+        <v>46.2805493268285</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-17.2691185773221</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>873825.725178706</v>
+      </c>
+      <c r="C133" t="n">
+        <v>46.6148904268767</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-15.4463927311674</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>651820.929103532</v>
+        <v>649904.449852078</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>665114.645204271</v>
+        <v>663964.757653398</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>675733.896881986</v>
+        <v>676117.192732277</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>703571.732432006</v>
+        <v>706254.803384042</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>683275.030599359</v>
+        <v>689024.468353722</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>670598.947542681</v>
+        <v>678763.594581213</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>705897.114585433</v>
+        <v>715825.813389977</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>731245.580981027</v>
+        <v>742287.174033425</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>709620.021310865</v>
+        <v>721123.351092959</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>712022.872519843</v>
+        <v>723961.944331744</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>726887.650942945</v>
+        <v>739236.470084766</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>743733.408398876</v>
+        <v>756465.980170728</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>734471.797010393</v>
+        <v>747562.126712389</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>733906.75686509</v>
+        <v>747289.723590938</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>749913.082577127</v>
+        <v>763523.565420536</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>763738.252546605</v>
+        <v>777511.130601284</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>757513.100980804</v>
+        <v>771383.253340462</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>760263.075907886</v>
+        <v>774218.252053636</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>770985.073462909</v>
+        <v>785013.022875863</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>781649.917842116</v>
+        <v>795738.390003386</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>793784.095683984</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>796672.995455177</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>806286.718209278</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>815279.172244115</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>815286.320888311</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>819084.330351387</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>826915.889095407</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>834560.737449155</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>836263.528826173</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>840337.68166146</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>847365.46873716</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>854173.498265534</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>856887.279136187</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>861292.101178299</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>867614.601932794</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>873825.725178706</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_DTX.xlsx
+++ b/VA_result_DTX.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -504,78 +504,6 @@
   </si>
   <si>
     <t xml:space="preserve">var_controle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.16415321826935e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.397623859113082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331716393120587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638999423012137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475628299522214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460200334782712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252307501854375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0362107169348747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.138766771764494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.053650225745514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0867005768232048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0738685147371143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139281924348325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192649583797902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445325928507373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879850855097175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.295728541444987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.101818807423115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.15523684117943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00879390444606543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185014750808477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.561434888746589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0868083294481039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.160230788867921</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -3959,8 +3887,8 @@
       <c r="J2" t="n">
         <v>686496</v>
       </c>
-      <c r="K2" t="s">
-        <v>162</v>
+      <c r="K2" t="n">
+        <v>-0.000000000116415321826935</v>
       </c>
     </row>
     <row r="3">
@@ -3994,8 +3922,8 @@
       <c r="J3" t="n">
         <v>686496</v>
       </c>
-      <c r="K3" t="s">
-        <v>163</v>
+      <c r="K3" t="n">
+        <v>-0.000000000116415321826935</v>
       </c>
     </row>
     <row r="4">
@@ -4029,8 +3957,8 @@
       <c r="J4" t="n">
         <v>686496</v>
       </c>
-      <c r="K4" t="s">
-        <v>164</v>
+      <c r="K4" t="n">
+        <v>-0.000000000116415321826935</v>
       </c>
     </row>
     <row r="5">
@@ -4064,8 +3992,8 @@
       <c r="J5" t="n">
         <v>686496</v>
       </c>
-      <c r="K5" t="s">
-        <v>165</v>
+      <c r="K5" t="n">
+        <v>-0.000000000116415321826935</v>
       </c>
     </row>
     <row r="6">
@@ -4099,8 +4027,8 @@
       <c r="J6" t="n">
         <v>726689.397623859</v>
       </c>
-      <c r="K6" t="s">
-        <v>166</v>
+      <c r="K6" t="n">
+        <v>0.397623859113082</v>
       </c>
     </row>
     <row r="7">
@@ -4134,8 +4062,8 @@
       <c r="J7" t="n">
         <v>726689.397623859</v>
       </c>
-      <c r="K7" t="s">
-        <v>167</v>
+      <c r="K7" t="n">
+        <v>0.397623859113082</v>
       </c>
     </row>
     <row r="8">
@@ -4169,8 +4097,8 @@
       <c r="J8" t="n">
         <v>726689.397623859</v>
       </c>
-      <c r="K8" t="s">
-        <v>168</v>
+      <c r="K8" t="n">
+        <v>0.397623859113082</v>
       </c>
     </row>
     <row r="9">
@@ -4204,8 +4132,8 @@
       <c r="J9" t="n">
         <v>726689.397623859</v>
       </c>
-      <c r="K9" t="s">
-        <v>169</v>
+      <c r="K9" t="n">
+        <v>0.397623859113082</v>
       </c>
     </row>
     <row r="10">
@@ -4239,8 +4167,8 @@
       <c r="J10" t="n">
         <v>597520.331716393</v>
       </c>
-      <c r="K10" t="s">
-        <v>170</v>
+      <c r="K10" t="n">
+        <v>0.331716393120587</v>
       </c>
     </row>
     <row r="11">
@@ -4274,8 +4202,8 @@
       <c r="J11" t="n">
         <v>597520.331716393</v>
       </c>
-      <c r="K11" t="s">
-        <v>171</v>
+      <c r="K11" t="n">
+        <v>0.331716393120587</v>
       </c>
     </row>
     <row r="12">
@@ -4309,8 +4237,8 @@
       <c r="J12" t="n">
         <v>597520.331716393</v>
       </c>
-      <c r="K12" t="s">
-        <v>172</v>
+      <c r="K12" t="n">
+        <v>0.331716393120587</v>
       </c>
     </row>
     <row r="13">
@@ -4344,8 +4272,8 @@
       <c r="J13" t="n">
         <v>597520.331716393</v>
       </c>
-      <c r="K13" t="s">
-        <v>173</v>
+      <c r="K13" t="n">
+        <v>0.331716393120587</v>
       </c>
     </row>
     <row r="14">
@@ -4379,8 +4307,8 @@
       <c r="J14" t="n">
         <v>622389.638999423</v>
       </c>
-      <c r="K14" t="s">
-        <v>174</v>
+      <c r="K14" t="n">
+        <v>0.638999423012137</v>
       </c>
     </row>
     <row r="15">
@@ -4414,8 +4342,8 @@
       <c r="J15" t="n">
         <v>622389.638999423</v>
       </c>
-      <c r="K15" t="s">
-        <v>175</v>
+      <c r="K15" t="n">
+        <v>0.638999423012137</v>
       </c>
     </row>
     <row r="16">
@@ -4449,8 +4377,8 @@
       <c r="J16" t="n">
         <v>622389.638999423</v>
       </c>
-      <c r="K16" t="s">
-        <v>176</v>
+      <c r="K16" t="n">
+        <v>0.638999423012137</v>
       </c>
     </row>
     <row r="17">
@@ -4484,8 +4412,8 @@
       <c r="J17" t="n">
         <v>622389.638999423</v>
       </c>
-      <c r="K17" t="s">
-        <v>177</v>
+      <c r="K17" t="n">
+        <v>0.638999423012137</v>
       </c>
     </row>
     <row r="18">
@@ -4519,8 +4447,8 @@
       <c r="J18" t="n">
         <v>686246.4756283</v>
       </c>
-      <c r="K18" t="s">
-        <v>178</v>
+      <c r="K18" t="n">
+        <v>0.475628299522214</v>
       </c>
     </row>
     <row r="19">
@@ -4554,8 +4482,8 @@
       <c r="J19" t="n">
         <v>686246.4756283</v>
       </c>
-      <c r="K19" t="s">
-        <v>179</v>
+      <c r="K19" t="n">
+        <v>0.475628299522214</v>
       </c>
     </row>
     <row r="20">
@@ -4589,8 +4517,8 @@
       <c r="J20" t="n">
         <v>686246.4756283</v>
       </c>
-      <c r="K20" t="s">
-        <v>180</v>
+      <c r="K20" t="n">
+        <v>0.475628299522214</v>
       </c>
     </row>
     <row r="21">
@@ -4624,8 +4552,8 @@
       <c r="J21" t="n">
         <v>686246.4756283</v>
       </c>
-      <c r="K21" t="s">
-        <v>181</v>
+      <c r="K21" t="n">
+        <v>0.475628299522214</v>
       </c>
     </row>
     <row r="22">
@@ -4659,8 +4587,8 @@
       <c r="J22" t="n">
         <v>819599.460200335</v>
       </c>
-      <c r="K22" t="s">
-        <v>182</v>
+      <c r="K22" t="n">
+        <v>0.460200334782712</v>
       </c>
     </row>
     <row r="23">
@@ -4694,8 +4622,8 @@
       <c r="J23" t="n">
         <v>819599.460200335</v>
       </c>
-      <c r="K23" t="s">
-        <v>183</v>
+      <c r="K23" t="n">
+        <v>0.460200334782712</v>
       </c>
     </row>
     <row r="24">
@@ -4729,8 +4657,8 @@
       <c r="J24" t="n">
         <v>819599.460200335</v>
       </c>
-      <c r="K24" t="s">
-        <v>184</v>
+      <c r="K24" t="n">
+        <v>0.460200334782712</v>
       </c>
     </row>
     <row r="25">
@@ -4764,8 +4692,8 @@
       <c r="J25" t="n">
         <v>819599.460200335</v>
       </c>
-      <c r="K25" t="s">
-        <v>185</v>
+      <c r="K25" t="n">
+        <v>0.460200334782712</v>
       </c>
     </row>
     <row r="26">
@@ -4799,8 +4727,8 @@
       <c r="J26" t="n">
         <v>870647.252307502</v>
       </c>
-      <c r="K26" t="s">
-        <v>162</v>
+      <c r="K26" t="n">
+        <v>0.252307501854375</v>
       </c>
     </row>
     <row r="27">
@@ -4834,8 +4762,8 @@
       <c r="J27" t="n">
         <v>870647.252307502</v>
       </c>
-      <c r="K27" t="s">
-        <v>163</v>
+      <c r="K27" t="n">
+        <v>0.252307501854375</v>
       </c>
     </row>
     <row r="28">
@@ -4869,8 +4797,8 @@
       <c r="J28" t="n">
         <v>870647.252307502</v>
       </c>
-      <c r="K28" t="s">
-        <v>164</v>
+      <c r="K28" t="n">
+        <v>0.252307501854375</v>
       </c>
     </row>
     <row r="29">
@@ -4904,8 +4832,8 @@
       <c r="J29" t="n">
         <v>870647.252307502</v>
       </c>
-      <c r="K29" t="s">
-        <v>165</v>
+      <c r="K29" t="n">
+        <v>0.252307501854375</v>
       </c>
     </row>
     <row r="30">
@@ -4939,8 +4867,8 @@
       <c r="J30" t="n">
         <v>990331.036210717</v>
       </c>
-      <c r="K30" t="s">
-        <v>166</v>
+      <c r="K30" t="n">
+        <v>0.0362107169348747</v>
       </c>
     </row>
     <row r="31">
@@ -4974,8 +4902,8 @@
       <c r="J31" t="n">
         <v>990331.036210717</v>
       </c>
-      <c r="K31" t="s">
-        <v>167</v>
+      <c r="K31" t="n">
+        <v>0.0362107169348747</v>
       </c>
     </row>
     <row r="32">
@@ -5009,8 +4937,8 @@
       <c r="J32" t="n">
         <v>990331.036210717</v>
       </c>
-      <c r="K32" t="s">
-        <v>168</v>
+      <c r="K32" t="n">
+        <v>0.0362107169348747</v>
       </c>
     </row>
     <row r="33">
@@ -5044,8 +4972,8 @@
       <c r="J33" t="n">
         <v>990331.036210717</v>
       </c>
-      <c r="K33" t="s">
-        <v>169</v>
+      <c r="K33" t="n">
+        <v>0.0362107169348747</v>
       </c>
     </row>
     <row r="34">
@@ -5079,8 +5007,8 @@
       <c r="J34" t="n">
         <v>953417.861233228</v>
       </c>
-      <c r="K34" t="s">
-        <v>170</v>
+      <c r="K34" t="n">
+        <v>-0.138766771764494</v>
       </c>
     </row>
     <row r="35">
@@ -5114,8 +5042,8 @@
       <c r="J35" t="n">
         <v>953417.861233228</v>
       </c>
-      <c r="K35" t="s">
-        <v>171</v>
+      <c r="K35" t="n">
+        <v>-0.138766771764494</v>
       </c>
     </row>
     <row r="36">
@@ -5149,8 +5077,8 @@
       <c r="J36" t="n">
         <v>953417.861233228</v>
       </c>
-      <c r="K36" t="s">
-        <v>172</v>
+      <c r="K36" t="n">
+        <v>-0.138766771764494</v>
       </c>
     </row>
     <row r="37">
@@ -5184,8 +5112,8 @@
       <c r="J37" t="n">
         <v>953417.861233228</v>
       </c>
-      <c r="K37" t="s">
-        <v>173</v>
+      <c r="K37" t="n">
+        <v>-0.138766771764494</v>
       </c>
     </row>
     <row r="38">
@@ -5219,8 +5147,8 @@
       <c r="J38" t="n">
         <v>985081.946349774</v>
       </c>
-      <c r="K38" t="s">
-        <v>174</v>
+      <c r="K38" t="n">
+        <v>-0.053650225745514</v>
       </c>
     </row>
     <row r="39">
@@ -5254,8 +5182,8 @@
       <c r="J39" t="n">
         <v>985081.946349774</v>
       </c>
-      <c r="K39" t="s">
-        <v>175</v>
+      <c r="K39" t="n">
+        <v>-0.053650225745514</v>
       </c>
     </row>
     <row r="40">
@@ -5289,8 +5217,8 @@
       <c r="J40" t="n">
         <v>985081.946349774</v>
       </c>
-      <c r="K40" t="s">
-        <v>176</v>
+      <c r="K40" t="n">
+        <v>-0.053650225745514</v>
       </c>
     </row>
     <row r="41">
@@ -5324,8 +5252,8 @@
       <c r="J41" t="n">
         <v>985081.946349774</v>
       </c>
-      <c r="K41" t="s">
-        <v>177</v>
+      <c r="K41" t="n">
+        <v>-0.053650225745514</v>
       </c>
     </row>
     <row r="42">
@@ -5359,8 +5287,8 @@
       <c r="J42" t="n">
         <v>1083865.08670058</v>
       </c>
-      <c r="K42" t="s">
-        <v>178</v>
+      <c r="K42" t="n">
+        <v>0.0867005768232048</v>
       </c>
     </row>
     <row r="43">
@@ -5394,8 +5322,8 @@
       <c r="J43" t="n">
         <v>1083865.08670058</v>
       </c>
-      <c r="K43" t="s">
-        <v>179</v>
+      <c r="K43" t="n">
+        <v>0.0867005768232048</v>
       </c>
     </row>
     <row r="44">
@@ -5429,8 +5357,8 @@
       <c r="J44" t="n">
         <v>1083865.08670058</v>
       </c>
-      <c r="K44" t="s">
-        <v>180</v>
+      <c r="K44" t="n">
+        <v>0.0867005768232048</v>
       </c>
     </row>
     <row r="45">
@@ -5464,8 +5392,8 @@
       <c r="J45" t="n">
         <v>1083865.08670058</v>
       </c>
-      <c r="K45" t="s">
-        <v>181</v>
+      <c r="K45" t="n">
+        <v>0.0867005768232048</v>
       </c>
     </row>
     <row r="46">
@@ -5499,8 +5427,8 @@
       <c r="J46" t="n">
         <v>1118119.07386851</v>
       </c>
-      <c r="K46" t="s">
-        <v>182</v>
+      <c r="K46" t="n">
+        <v>0.0738685147371143</v>
       </c>
     </row>
     <row r="47">
@@ -5534,8 +5462,8 @@
       <c r="J47" t="n">
         <v>1118119.07386851</v>
       </c>
-      <c r="K47" t="s">
-        <v>183</v>
+      <c r="K47" t="n">
+        <v>0.0738685147371143</v>
       </c>
     </row>
     <row r="48">
@@ -5569,8 +5497,8 @@
       <c r="J48" t="n">
         <v>1118119.07386851</v>
       </c>
-      <c r="K48" t="s">
-        <v>184</v>
+      <c r="K48" t="n">
+        <v>0.0738685147371143</v>
       </c>
     </row>
     <row r="49">
@@ -5604,8 +5532,8 @@
       <c r="J49" t="n">
         <v>1118119.07386851</v>
       </c>
-      <c r="K49" t="s">
-        <v>185</v>
+      <c r="K49" t="n">
+        <v>0.0738685147371143</v>
       </c>
     </row>
     <row r="50">
@@ -5639,8 +5567,8 @@
       <c r="J50" t="n">
         <v>1187401.13928192</v>
       </c>
-      <c r="K50" t="s">
-        <v>162</v>
+      <c r="K50" t="n">
+        <v>0.139281924348325</v>
       </c>
     </row>
     <row r="51">
@@ -5674,8 +5602,8 @@
       <c r="J51" t="n">
         <v>1187401.13928192</v>
       </c>
-      <c r="K51" t="s">
-        <v>163</v>
+      <c r="K51" t="n">
+        <v>0.139281924348325</v>
       </c>
     </row>
     <row r="52">
@@ -5709,8 +5637,8 @@
       <c r="J52" t="n">
         <v>1187401.13928192</v>
       </c>
-      <c r="K52" t="s">
-        <v>164</v>
+      <c r="K52" t="n">
+        <v>0.139281924348325</v>
       </c>
     </row>
     <row r="53">
@@ -5744,8 +5672,8 @@
       <c r="J53" t="n">
         <v>1187401.13928192</v>
       </c>
-      <c r="K53" t="s">
-        <v>165</v>
+      <c r="K53" t="n">
+        <v>0.139281924348325</v>
       </c>
     </row>
     <row r="54">
@@ -5779,8 +5707,8 @@
       <c r="J54" t="n">
         <v>1155632.19264958</v>
       </c>
-      <c r="K54" t="s">
-        <v>166</v>
+      <c r="K54" t="n">
+        <v>0.192649583797902</v>
       </c>
     </row>
     <row r="55">
@@ -5814,8 +5742,8 @@
       <c r="J55" t="n">
         <v>1155632.19264958</v>
       </c>
-      <c r="K55" t="s">
-        <v>167</v>
+      <c r="K55" t="n">
+        <v>0.192649583797902</v>
       </c>
     </row>
     <row r="56">
@@ -5849,8 +5777,8 @@
       <c r="J56" t="n">
         <v>1155632.19264958</v>
       </c>
-      <c r="K56" t="s">
-        <v>168</v>
+      <c r="K56" t="n">
+        <v>0.192649583797902</v>
       </c>
     </row>
     <row r="57">
@@ -5884,8 +5812,8 @@
       <c r="J57" t="n">
         <v>1155632.19264958</v>
       </c>
-      <c r="K57" t="s">
-        <v>169</v>
+      <c r="K57" t="n">
+        <v>0.192649583797902</v>
       </c>
     </row>
     <row r="58">
@@ -5919,8 +5847,8 @@
       <c r="J58" t="n">
         <v>929833.445325929</v>
       </c>
-      <c r="K58" t="s">
-        <v>170</v>
+      <c r="K58" t="n">
+        <v>0.445325928507373</v>
       </c>
     </row>
     <row r="59">
@@ -5954,8 +5882,8 @@
       <c r="J59" t="n">
         <v>929833.445325929</v>
       </c>
-      <c r="K59" t="s">
-        <v>171</v>
+      <c r="K59" t="n">
+        <v>0.445325928507373</v>
       </c>
     </row>
     <row r="60">
@@ -5989,8 +5917,8 @@
       <c r="J60" t="n">
         <v>929833.445325929</v>
       </c>
-      <c r="K60" t="s">
-        <v>172</v>
+      <c r="K60" t="n">
+        <v>0.445325928507373</v>
       </c>
     </row>
     <row r="61">
@@ -6024,8 +5952,8 @@
       <c r="J61" t="n">
         <v>929833.445325929</v>
       </c>
-      <c r="K61" t="s">
-        <v>173</v>
+      <c r="K61" t="n">
+        <v>0.445325928507373</v>
       </c>
     </row>
     <row r="62">
@@ -6059,8 +5987,8 @@
       <c r="J62" t="n">
         <v>1403276.87985086</v>
       </c>
-      <c r="K62" t="s">
-        <v>174</v>
+      <c r="K62" t="n">
+        <v>0.879850855097175</v>
       </c>
     </row>
     <row r="63">
@@ -6094,8 +6022,8 @@
       <c r="J63" t="n">
         <v>1403276.87985086</v>
       </c>
-      <c r="K63" t="s">
-        <v>175</v>
+      <c r="K63" t="n">
+        <v>0.879850855097175</v>
       </c>
     </row>
     <row r="64">
@@ -6129,8 +6057,8 @@
       <c r="J64" t="n">
         <v>1403276.87985086</v>
       </c>
-      <c r="K64" t="s">
-        <v>176</v>
+      <c r="K64" t="n">
+        <v>0.879850855097175</v>
       </c>
     </row>
     <row r="65">
@@ -6164,8 +6092,8 @@
       <c r="J65" t="n">
         <v>1403276.87985086</v>
       </c>
-      <c r="K65" t="s">
-        <v>177</v>
+      <c r="K65" t="n">
+        <v>0.879850855097175</v>
       </c>
     </row>
     <row r="66">
@@ -6199,8 +6127,8 @@
       <c r="J66" t="n">
         <v>1590431.29572854</v>
       </c>
-      <c r="K66" t="s">
-        <v>178</v>
+      <c r="K66" t="n">
+        <v>0.295728541444987</v>
       </c>
     </row>
     <row r="67">
@@ -6234,8 +6162,8 @@
       <c r="J67" t="n">
         <v>1590431.29572854</v>
       </c>
-      <c r="K67" t="s">
-        <v>179</v>
+      <c r="K67" t="n">
+        <v>0.295728541444987</v>
       </c>
     </row>
     <row r="68">
@@ -6269,8 +6197,8 @@
       <c r="J68" t="n">
         <v>1590431.29572854</v>
       </c>
-      <c r="K68" t="s">
-        <v>180</v>
+      <c r="K68" t="n">
+        <v>0.295728541444987</v>
       </c>
     </row>
     <row r="69">
@@ -6304,8 +6232,8 @@
       <c r="J69" t="n">
         <v>1590431.29572854</v>
       </c>
-      <c r="K69" t="s">
-        <v>181</v>
+      <c r="K69" t="n">
+        <v>0.295728541444987</v>
       </c>
     </row>
     <row r="70">
@@ -6339,8 +6267,8 @@
       <c r="J70" t="n">
         <v>1834812.10181881</v>
       </c>
-      <c r="K70" t="s">
-        <v>182</v>
+      <c r="K70" t="n">
+        <v>0.101818807423115</v>
       </c>
     </row>
     <row r="71">
@@ -6374,8 +6302,8 @@
       <c r="J71" t="n">
         <v>1834812.10181881</v>
       </c>
-      <c r="K71" t="s">
-        <v>183</v>
+      <c r="K71" t="n">
+        <v>0.101818807423115</v>
       </c>
     </row>
     <row r="72">
@@ -6409,8 +6337,8 @@
       <c r="J72" t="n">
         <v>1834812.10181881</v>
       </c>
-      <c r="K72" t="s">
-        <v>184</v>
+      <c r="K72" t="n">
+        <v>0.101818807423115</v>
       </c>
     </row>
     <row r="73">
@@ -6444,8 +6372,8 @@
       <c r="J73" t="n">
         <v>1834812.10181881</v>
       </c>
-      <c r="K73" t="s">
-        <v>185</v>
+      <c r="K73" t="n">
+        <v>0.101818807423115</v>
       </c>
     </row>
     <row r="74">
@@ -6479,8 +6407,8 @@
       <c r="J74" t="n">
         <v>1999999.84476316</v>
       </c>
-      <c r="K74" t="s">
-        <v>162</v>
+      <c r="K74" t="n">
+        <v>-0.15523684117943</v>
       </c>
     </row>
     <row r="75">
@@ -6514,8 +6442,8 @@
       <c r="J75" t="n">
         <v>1999999.84476316</v>
       </c>
-      <c r="K75" t="s">
-        <v>163</v>
+      <c r="K75" t="n">
+        <v>-0.15523684117943</v>
       </c>
     </row>
     <row r="76">
@@ -6549,8 +6477,8 @@
       <c r="J76" t="n">
         <v>1999999.84476316</v>
       </c>
-      <c r="K76" t="s">
-        <v>164</v>
+      <c r="K76" t="n">
+        <v>-0.15523684117943</v>
       </c>
     </row>
     <row r="77">
@@ -6584,8 +6512,8 @@
       <c r="J77" t="n">
         <v>1999999.84476316</v>
       </c>
-      <c r="K77" t="s">
-        <v>165</v>
+      <c r="K77" t="n">
+        <v>-0.15523684117943</v>
       </c>
     </row>
     <row r="78">
@@ -6619,8 +6547,8 @@
       <c r="J78" t="n">
         <v>2079999.9912061</v>
       </c>
-      <c r="K78" t="s">
-        <v>166</v>
+      <c r="K78" t="n">
+        <v>-0.00879390444606543</v>
       </c>
     </row>
     <row r="79">
@@ -6654,8 +6582,8 @@
       <c r="J79" t="n">
         <v>2079999.9912061</v>
       </c>
-      <c r="K79" t="s">
-        <v>167</v>
+      <c r="K79" t="n">
+        <v>-0.00879390444606543</v>
       </c>
     </row>
     <row r="80">
@@ -6689,8 +6617,8 @@
       <c r="J80" t="n">
         <v>2079999.9912061</v>
       </c>
-      <c r="K80" t="s">
-        <v>168</v>
+      <c r="K80" t="n">
+        <v>-0.00879390444606543</v>
       </c>
     </row>
     <row r="81">
@@ -6724,8 +6652,8 @@
       <c r="J81" t="n">
         <v>2079999.9912061</v>
       </c>
-      <c r="K81" t="s">
-        <v>169</v>
+      <c r="K81" t="n">
+        <v>-0.00879390444606543</v>
       </c>
     </row>
     <row r="82">
@@ -6759,8 +6687,8 @@
       <c r="J82" t="n">
         <v>2287000.18501475</v>
       </c>
-      <c r="K82" t="s">
-        <v>170</v>
+      <c r="K82" t="n">
+        <v>0.185014750808477</v>
       </c>
     </row>
     <row r="83">
@@ -6794,8 +6722,8 @@
       <c r="J83" t="n">
         <v>2287000.18501475</v>
       </c>
-      <c r="K83" t="s">
-        <v>171</v>
+      <c r="K83" t="n">
+        <v>0.185014750808477</v>
       </c>
     </row>
     <row r="84">
@@ -6829,8 +6757,8 @@
       <c r="J84" t="n">
         <v>2287000.18501475</v>
       </c>
-      <c r="K84" t="s">
-        <v>172</v>
+      <c r="K84" t="n">
+        <v>0.185014750808477</v>
       </c>
     </row>
     <row r="85">
@@ -6864,8 +6792,8 @@
       <c r="J85" t="n">
         <v>2287000.18501475</v>
       </c>
-      <c r="K85" t="s">
-        <v>173</v>
+      <c r="K85" t="n">
+        <v>0.185014750808477</v>
       </c>
     </row>
     <row r="86">
@@ -6899,8 +6827,8 @@
       <c r="J86" t="n">
         <v>2411000.56143489</v>
       </c>
-      <c r="K86" t="s">
-        <v>174</v>
+      <c r="K86" t="n">
+        <v>0.561434888746589</v>
       </c>
     </row>
     <row r="87">
@@ -6934,8 +6862,8 @@
       <c r="J87" t="n">
         <v>2411000.56143489</v>
       </c>
-      <c r="K87" t="s">
-        <v>175</v>
+      <c r="K87" t="n">
+        <v>0.561434888746589</v>
       </c>
     </row>
     <row r="88">
@@ -6969,8 +6897,8 @@
       <c r="J88" t="n">
         <v>2411000.56143489</v>
       </c>
-      <c r="K88" t="s">
-        <v>176</v>
+      <c r="K88" t="n">
+        <v>0.561434888746589</v>
       </c>
     </row>
     <row r="89">
@@ -7004,8 +6932,8 @@
       <c r="J89" t="n">
         <v>2411000.56143489</v>
       </c>
-      <c r="K89" t="s">
-        <v>177</v>
+      <c r="K89" t="n">
+        <v>0.561434888746589</v>
       </c>
     </row>
     <row r="90">
@@ -7039,8 +6967,8 @@
       <c r="J90" t="n">
         <v>2714431.08680833</v>
       </c>
-      <c r="K90" t="s">
-        <v>178</v>
+      <c r="K90" t="n">
+        <v>0.0868083294481039</v>
       </c>
     </row>
     <row r="91">
@@ -7074,8 +7002,8 @@
       <c r="J91" t="n">
         <v>2714431.08680833</v>
       </c>
-      <c r="K91" t="s">
-        <v>179</v>
+      <c r="K91" t="n">
+        <v>0.0868083294481039</v>
       </c>
     </row>
     <row r="92">
@@ -7109,8 +7037,8 @@
       <c r="J92" t="n">
         <v>2714431.08680833</v>
       </c>
-      <c r="K92" t="s">
-        <v>180</v>
+      <c r="K92" t="n">
+        <v>0.0868083294481039</v>
       </c>
     </row>
     <row r="93">
@@ -7144,8 +7072,8 @@
       <c r="J93" t="n">
         <v>2714431.08680833</v>
       </c>
-      <c r="K93" t="s">
-        <v>181</v>
+      <c r="K93" t="n">
+        <v>0.0868083294481039</v>
       </c>
     </row>
     <row r="94">
@@ -7179,8 +7107,8 @@
       <c r="J94" t="n">
         <v>2463841.83976921</v>
       </c>
-      <c r="K94" t="s">
-        <v>182</v>
+      <c r="K94" t="n">
+        <v>-0.160230788867921</v>
       </c>
     </row>
     <row r="95">
@@ -7214,8 +7142,8 @@
       <c r="J95" t="n">
         <v>2463841.83976921</v>
       </c>
-      <c r="K95" t="s">
-        <v>183</v>
+      <c r="K95" t="n">
+        <v>-0.160230788867921</v>
       </c>
     </row>
     <row r="96">
@@ -7249,8 +7177,8 @@
       <c r="J96" t="n">
         <v>2463841.83976921</v>
       </c>
-      <c r="K96" t="s">
-        <v>184</v>
+      <c r="K96" t="n">
+        <v>-0.160230788867921</v>
       </c>
     </row>
     <row r="97">
@@ -7284,8 +7212,8 @@
       <c r="J97" t="n">
         <v>2463841.83976921</v>
       </c>
-      <c r="K97" t="s">
-        <v>185</v>
+      <c r="K97" t="n">
+        <v>-0.160230788867921</v>
       </c>
     </row>
   </sheetData>
@@ -7307,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -9183,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
